--- a/data/hotels_by_city/Dallas/Dallas_shard_691.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_691.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="814">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2366 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r580033525-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>55732</t>
+  </si>
+  <si>
+    <t>640110</t>
+  </si>
+  <si>
+    <t>580033525</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointing </t>
+  </si>
+  <si>
+    <t>I booked for 21 nights stay and in fact I am still staying here! This is the fourth nights in a row that we don’t have hot water after 7pm.  This is absolutely unacceptable!!! Our room is often found without room cleaning and soiled towels still laying around after we came back at the end of the day! It’s awful to find the room in this condition after a full day of activities. We simply want a clean and tidy hotel they we can have a hot shower at night, it is absolutely unbelievable to come across this scenario especially this is one of Marriott’s! Been complaining all along but not much the hotel did to help, hopefully we will have a clean room and hot shower for the rest of our stay, fingers x ! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>SpringHill D, Guest Relations Manager at SpringHill Suites Denton, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I booked for 21 nights stay and in fact I am still staying here! This is the fourth nights in a row that we don’t have hot water after 7pm.  This is absolutely unacceptable!!! Our room is often found without room cleaning and soiled towels still laying around after we came back at the end of the day! It’s awful to find the room in this condition after a full day of activities. We simply want a clean and tidy hotel they we can have a hot shower at night, it is absolutely unbelievable to come across this scenario especially this is one of Marriott’s! Been complaining all along but not much the hotel did to help, hopefully we will have a clean room and hot shower for the rest of our stay, fingers x ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r571961308-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>571961308</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Welcome to Denton, TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We travel to Denton often throughout the year. We have stayed in eight different hotels in the past couple years up and down the 35E corridor from Lewisville to Denton. Several in different Marriott properties. First time at SpringHill Suites. The hotel is very centrally located just north of mall and south of UNT. The location is not on main through fare but just blocks from 35E.  Great price, comfortable rooms, nice breakfast. The best part is the congenial staff. </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r566578836-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>566578836</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Wanted to love my stay</t>
+  </si>
+  <si>
+    <t>This was my first stay here. The common areas and the room were nicely appointed. My bed was comfortable however the room had no tub and the lighting was poor for makeup. I left my room at 9am and returned at 10pm expecting to walk into a room that was fresh again. My room had not been serviced all day. The bed was still unmade, towels in bathroom, trash cans not emptied. I called the front desk to report it and requested some shampoo. No on delivered the shampoo or called to say they couldn't. On checkout I reported the lack of service and gave the clerk a comment card to give to the manager. I come to Denton each year in March but I'll have to think long and hard about booking here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Justin K, General Manager at SpringHill Suites Denton, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>This was my first stay here. The common areas and the room were nicely appointed. My bed was comfortable however the room had no tub and the lighting was poor for makeup. I left my room at 9am and returned at 10pm expecting to walk into a room that was fresh again. My room had not been serviced all day. The bed was still unmade, towels in bathroom, trash cans not emptied. I called the front desk to report it and requested some shampoo. No on delivered the shampoo or called to say they couldn't. On checkout I reported the lack of service and gave the clerk a comment card to give to the manager. I come to Denton each year in March but I'll have to think long and hard about booking here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r557316162-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>557316162</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>A Great Place to Stay!</t>
+  </si>
+  <si>
+    <t>I would truly recommend  staying here as they have a Shuttle that will take you to places around Denton. We rode the A Train to downtown Dallas 4 days and they would take us to the Station and come and get us. This is a Great Service as my Granddaughter was working during the day and we would not have been able to see things. The Staff is the Best. They had trouble with their breakfast and we were compensated for that.The beds are comfortable and rooms are clean.They also have great food in restaurant!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r556567522-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>556567522</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>I was looking for a nice hotel nearby to where I was making a quick visit. After reviewing several other hotels I settled on the Springhill Suites in Denton, TX. The location is nice, the hotel is not far from the DFW airport which was very nice because sometimes traffic is a beast. Early landing w my flight and I was again lucky to be able to check in early. The grounds and parking lot were clear of debris/litter. There was no back up with waiting to check in. The lobby was fashionable and had up to date fixtures, very chic. The front desk employee, I believe his name was Alex had great customer service. Was able to answer all questions and provided information on their amenities. I took advantage of the exercise room which was clean and had working equipment. There was also a small indoor pool available but I did not use.  The room was a big surprise; the photos didn’t do it justice. The lounge area could be converted to a room as the sofa, was a sofa bed. The main bed was comfortable. The shower head and water pressure was great! The house keeping staff and the staffers working the breakfast area were friendly. I would definitely come back for another stay and would refer friends and family to use this hotel. It turned out to be close to just about everywhere  I needed go. Over...I was looking for a nice hotel nearby to where I was making a quick visit. After reviewing several other hotels I settled on the Springhill Suites in Denton, TX. The location is nice, the hotel is not far from the DFW airport which was very nice because sometimes traffic is a beast. Early landing w my flight and I was again lucky to be able to check in early. The grounds and parking lot were clear of debris/litter. There was no back up with waiting to check in. The lobby was fashionable and had up to date fixtures, very chic. The front desk employee, I believe his name was Alex had great customer service. Was able to answer all questions and provided information on their amenities. I took advantage of the exercise room which was clean and had working equipment. There was also a small indoor pool available but I did not use.  The room was a big surprise; the photos didn’t do it justice. The lounge area could be converted to a room as the sofa, was a sofa bed. The main bed was comfortable. The shower head and water pressure was great! The house keeping staff and the staffers working the breakfast area were friendly. I would definitely come back for another stay and would refer friends and family to use this hotel. It turned out to be close to just about everywhere  I needed go. Over night I also notice a Police or security type vehicle patrolling the parking lot which gave a bit more comfort. The area did not seem to be a high crime location but for me, it’s always a relief to know that there is an extra layer of security in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was looking for a nice hotel nearby to where I was making a quick visit. After reviewing several other hotels I settled on the Springhill Suites in Denton, TX. The location is nice, the hotel is not far from the DFW airport which was very nice because sometimes traffic is a beast. Early landing w my flight and I was again lucky to be able to check in early. The grounds and parking lot were clear of debris/litter. There was no back up with waiting to check in. The lobby was fashionable and had up to date fixtures, very chic. The front desk employee, I believe his name was Alex had great customer service. Was able to answer all questions and provided information on their amenities. I took advantage of the exercise room which was clean and had working equipment. There was also a small indoor pool available but I did not use.  The room was a big surprise; the photos didn’t do it justice. The lounge area could be converted to a room as the sofa, was a sofa bed. The main bed was comfortable. The shower head and water pressure was great! The house keeping staff and the staffers working the breakfast area were friendly. I would definitely come back for another stay and would refer friends and family to use this hotel. It turned out to be close to just about everywhere  I needed go. Over...I was looking for a nice hotel nearby to where I was making a quick visit. After reviewing several other hotels I settled on the Springhill Suites in Denton, TX. The location is nice, the hotel is not far from the DFW airport which was very nice because sometimes traffic is a beast. Early landing w my flight and I was again lucky to be able to check in early. The grounds and parking lot were clear of debris/litter. There was no back up with waiting to check in. The lobby was fashionable and had up to date fixtures, very chic. The front desk employee, I believe his name was Alex had great customer service. Was able to answer all questions and provided information on their amenities. I took advantage of the exercise room which was clean and had working equipment. There was also a small indoor pool available but I did not use.  The room was a big surprise; the photos didn’t do it justice. The lounge area could be converted to a room as the sofa, was a sofa bed. The main bed was comfortable. The shower head and water pressure was great! The house keeping staff and the staffers working the breakfast area were friendly. I would definitely come back for another stay and would refer friends and family to use this hotel. It turned out to be close to just about everywhere  I needed go. Over night I also notice a Police or security type vehicle patrolling the parking lot which gave a bit more comfort. The area did not seem to be a high crime location but for me, it’s always a relief to know that there is an extra layer of security in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r556531787-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>556531787</t>
+  </si>
+  <si>
+    <t>Love Love Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always love staying here!! The staff is so accommodating and nice! The beds are beyond comfy!!  I could sleep in all day long! And the breakfast in the morning.... wow!! It was so great!! Everything was so clean and organized. Loved the service. Felt very welcoming! I will defiantly continue to come back any time I’m in the area! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r556193016-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>556193016</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Business stay</t>
+  </si>
+  <si>
+    <t>Excellent! Excellent! Excellent! I have no other words! This property is just amazing! Customer service they provided is outstanding! General manager Justin and Grisel go above and beyond for their guest! I will definitely recommend this property to my friends and family. Thank you for everything Tom G.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r555739344-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>555739344</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Weekend with family</t>
+  </si>
+  <si>
+    <t>I stayed at this property with my whole family for weekend. I could be happier with my decision to stay here. Rooms were very clean and the beds were comfortable. We arrived late for breakfast and general manger Justin went out of his way to ensure we were still able eat some breakfast. Front desk staff were very professional and accommodated every each od our request. They gave us room next to each other which was really important for us. We will definitely be back and recommend this hotel to our friends. Thank you for everything.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r555717662-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>555717662</t>
+  </si>
+  <si>
+    <t>Poor food, cold pool, limited service.</t>
+  </si>
+  <si>
+    <t>This is the second time we've stayed in this hotel. The room was nice, but the breakfast was limited to cold wrapped pastries and fruit (not even coffee available) two days in a row.  The pool was FREEZING.  Room is clean, but we also asked for the room to be made up before noon so that our son could nap and the room wasn't made up, and they started drilling next door half an hour into nap time. Ugh. The first experience was similar. Not sure we'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Justin K, General Manager at SpringHill Suites Denton, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>This is the second time we've stayed in this hotel. The room was nice, but the breakfast was limited to cold wrapped pastries and fruit (not even coffee available) two days in a row.  The pool was FREEZING.  Room is clean, but we also asked for the room to be made up before noon so that our son could nap and the room wasn't made up, and they started drilling next door half an hour into nap time. Ugh. The first experience was similar. Not sure we'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r551641234-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>551641234</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard SpringHill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at this hotel multiple times over the last year for business. The hotel has a nice conference space and meeting rooms. Hotel rooms are nice, but aging quickly...believe this is due to the high occupancy rate. Management will need to stay on top of repairs to stay ahead of aging look. Nice to have bar and outdoor bar area on site. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r549991504-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>549991504</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>MANAGEMENT UNRESPONSIVE TO COMPLAINT (Cold Pool)</t>
+  </si>
+  <si>
+    <t>Just returned from six night stay over Christmas. We were visiting our daughter and her family. I specifically chose this hotel for 3 reasons - 1) It’s a Marriott property, 2) location, 3) indoor pool. Upon checking on 12/21 I checked the pool. It was FRIGID! When I called earlier in the day I asked for the pool temperature and was told it was 80. WHY WAS I LIED TO? Not only I was very disappointed and frustrated, but more importantly my young grandchildren! I immediately asked desk if pool heater was working, and was told it was not heated, but only the room! I have never heard of such a thing. I asked to speak with management and was told the will be back on Tuesday after Christmas. I asked my complaint to be logged and me called by management. I was told yes they will. I couple days later I stopped in at desk and reminded them of my complaint. I was again told it would be Tuesday until response from management. I specially stated both times hat I expect management to do something or me, that is reduced rate, free nights, etc. I reminded desk that I wanted a call. On Wednesday I checked out and didn’t mention anything as I was in a hurry. WHAT KIND OF OPERATION IS MARRIOTT OPERATING IN THAT MANAGEMENT DIES NOT RESPOND TO COMPLAINTS?????!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Justin K, General Manager at SpringHill Suites Denton, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Just returned from six night stay over Christmas. We were visiting our daughter and her family. I specifically chose this hotel for 3 reasons - 1) It’s a Marriott property, 2) location, 3) indoor pool. Upon checking on 12/21 I checked the pool. It was FRIGID! When I called earlier in the day I asked for the pool temperature and was told it was 80. WHY WAS I LIED TO? Not only I was very disappointed and frustrated, but more importantly my young grandchildren! I immediately asked desk if pool heater was working, and was told it was not heated, but only the room! I have never heard of such a thing. I asked to speak with management and was told the will be back on Tuesday after Christmas. I asked my complaint to be logged and me called by management. I was told yes they will. I couple days later I stopped in at desk and reminded them of my complaint. I was again told it would be Tuesday until response from management. I specially stated both times hat I expect management to do something or me, that is reduced rate, free nights, etc. I reminded desk that I wanted a call. On Wednesday I checked out and didn’t mention anything as I was in a hurry. WHAT KIND OF OPERATION IS MARRIOTT OPERATING IN THAT MANAGEMENT DIES NOT RESPOND TO COMPLAINTS?????!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r530889967-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>530889967</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Five first cousins went to a QuickQuotes scrapbooking mini-reserve at this hotel for the weekend.  From the time we arrived to the time we left we got nothing but good, friendly service (it is Texas, after all!!!)j  The three in my car had baggage, scrapbooking tools, and walkers.  We were having a hard time getting everything moving on the luggage carrier once we arrived (there is no bellboy assistance at the hotel).  As we were started toward the doors and young man in a dark uniform came to our rescue...he was a cook!!!!  Once we got into the hotel, one of the housekeeping staff joined us.  The two helped us all the way to our room on the third floor, well above and beyond their duties.The staff everywhere in the hotel was very friendly and helpful.  QuickQuotes arranged for a couple of buffet lunches in the hotel restaurant, both of which worked out well, quick and easy for an hour lunch period.  One time we ordered drinks and food, though, and that was pretty slow...good food and drink, just took longer than it should have.All in all, a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Five first cousins went to a QuickQuotes scrapbooking mini-reserve at this hotel for the weekend.  From the time we arrived to the time we left we got nothing but good, friendly service (it is Texas, after all!!!)j  The three in my car had baggage, scrapbooking tools, and walkers.  We were having a hard time getting everything moving on the luggage carrier once we arrived (there is no bellboy assistance at the hotel).  As we were started toward the doors and young man in a dark uniform came to our rescue...he was a cook!!!!  Once we got into the hotel, one of the housekeeping staff joined us.  The two helped us all the way to our room on the third floor, well above and beyond their duties.The staff everywhere in the hotel was very friendly and helpful.  QuickQuotes arranged for a couple of buffet lunches in the hotel restaurant, both of which worked out well, quick and easy for an hour lunch period.  One time we ordered drinks and food, though, and that was pretty slow...good food and drink, just took longer than it should have.All in all, a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r527142604-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>527142604</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Denton High School 50th Reunion</t>
+  </si>
+  <si>
+    <t>As the Social Chairman for the Denton High School Class of 1967's 50th Reunion, I was tasked with securing a site for both lodging and a banquet. The SpringHill Suites in Denton provided a great location to meet all of our needs from the block of rooms to a completely catered banquet. The Marriott Corporation can be proud of this Hotel and more importantly its staff. Ms. Karla Massey assisted me in all aspects of our weekend's events from extending the bar hours for our Friday Night's meet and greet to recommendations for the banquet dinner. In addition, her staff was very courteous and friendly. If we asked for assistance, they were there to ensure our event had everything it needed with a "Can Do" attitude. The chef for our meal must also be complemented as well. The complete buffet was presented in a very professional manner and was delicious. On behalf of the DHS Class of 1967,  I want to thank the Hotel and all it's staff for helping make our Reunion a success.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>As the Social Chairman for the Denton High School Class of 1967's 50th Reunion, I was tasked with securing a site for both lodging and a banquet. The SpringHill Suites in Denton provided a great location to meet all of our needs from the block of rooms to a completely catered banquet. The Marriott Corporation can be proud of this Hotel and more importantly its staff. Ms. Karla Massey assisted me in all aspects of our weekend's events from extending the bar hours for our Friday Night's meet and greet to recommendations for the banquet dinner. In addition, her staff was very courteous and friendly. If we asked for assistance, they were there to ensure our event had everything it needed with a "Can Do" attitude. The chef for our meal must also be complemented as well. The complete buffet was presented in a very professional manner and was delicious. On behalf of the DHS Class of 1967,  I want to thank the Hotel and all it's staff for helping make our Reunion a success.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r519101279-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>519101279</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>Traveled here for business but booked my room the week before.  Due to the disaster here rooms are hard to get and prices have shot up tremendously; however, the hotel is bright, airy, clean and the staff is wonderful and very helpful.  Breakfast is free and a lot to choose from.  Evenings offer meals at cost, it has a decent and reasonable menu.  My room was clean, the bed is comfortable, as well as firm pillows. There is free Wi-F. I don't know if it is pet friendly.  There is plenty of free parking and the parking lot is well lit at night.  There is a gym and a pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Traveled here for business but booked my room the week before.  Due to the disaster here rooms are hard to get and prices have shot up tremendously; however, the hotel is bright, airy, clean and the staff is wonderful and very helpful.  Breakfast is free and a lot to choose from.  Evenings offer meals at cost, it has a decent and reasonable menu.  My room was clean, the bed is comfortable, as well as firm pillows. There is free Wi-F. I don't know if it is pet friendly.  There is plenty of free parking and the parking lot is well lit at night.  There is a gym and a pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r514452321-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>514452321</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Wonderful suite</t>
+  </si>
+  <si>
+    <t>We stayed two nights last weekend. We have a very large two room suite. The furnishings were very nice. The bed was perfect. Extremely comfortable. We liked having so much room. The breakfast bar was excellent. Very fresh. Loved the Texas shaped waffles! Very friendly staff. Easy access to the freeway and restaurants and shopping.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r504579233-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>504579233</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Not what you expect-in a bad way</t>
+  </si>
+  <si>
+    <t>We were in town for funeral services. We stayed two nights. The first night we needed an early check in to which they were very accommodating. However, once in our room we noticed there were greasy handprints all over the door to the bed room, the bathtub was grimy, the floor in the bathroom had tiny hairs on the floor, (yes, those kinds of hair), and splatters on the mirror. Long story short, they didn't clean the room. They simply replaced towels, soaps and such. I'm not 100% sure they changed the bedding. I asked for our room to be cleaned again. They offered to move us to another room, but we had four children with us who were already settling in from our very long drive. They "re-cleaned" the bathroom, scrubbed the tub, sweeper the floor, yet still handprints, and spit on the mirror. The second night we moved to a different room. The room was slightly cleaner. We went down to the bar area to visit with in town family, but we were extremely uncomfortable as the temperate was 78 degrees down there. We were all sweating! The food was decent and that was appreciated. The next morning as we waited for the breakfast area to open we noticed tables had not been cleaned from the day before. We went to sit down and noticed the table had syrup and crumbs all over it. The hotel is pleasing...We were in town for funeral services. We stayed two nights. The first night we needed an early check in to which they were very accommodating. However, once in our room we noticed there were greasy handprints all over the door to the bed room, the bathtub was grimy, the floor in the bathroom had tiny hairs on the floor, (yes, those kinds of hair), and splatters on the mirror. Long story short, they didn't clean the room. They simply replaced towels, soaps and such. I'm not 100% sure they changed the bedding. I asked for our room to be cleaned again. They offered to move us to another room, but we had four children with us who were already settling in from our very long drive. They "re-cleaned" the bathroom, scrubbed the tub, sweeper the floor, yet still handprints, and spit on the mirror. The second night we moved to a different room. The room was slightly cleaner. We went down to the bar area to visit with in town family, but we were extremely uncomfortable as the temperate was 78 degrees down there. We were all sweating! The food was decent and that was appreciated. The next morning as we waited for the breakfast area to open we noticed tables had not been cleaned from the day before. We went to sit down and noticed the table had syrup and crumbs all over it. The hotel is pleasing to the eye with their modern decor, however it is not well maintained. They have very young people managing the desk. It's just not clean. Oh, one last thought-we found a dead roach in the corner of our room, who had not been there the night before. At least he was dead. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>We were in town for funeral services. We stayed two nights. The first night we needed an early check in to which they were very accommodating. However, once in our room we noticed there were greasy handprints all over the door to the bed room, the bathtub was grimy, the floor in the bathroom had tiny hairs on the floor, (yes, those kinds of hair), and splatters on the mirror. Long story short, they didn't clean the room. They simply replaced towels, soaps and such. I'm not 100% sure they changed the bedding. I asked for our room to be cleaned again. They offered to move us to another room, but we had four children with us who were already settling in from our very long drive. They "re-cleaned" the bathroom, scrubbed the tub, sweeper the floor, yet still handprints, and spit on the mirror. The second night we moved to a different room. The room was slightly cleaner. We went down to the bar area to visit with in town family, but we were extremely uncomfortable as the temperate was 78 degrees down there. We were all sweating! The food was decent and that was appreciated. The next morning as we waited for the breakfast area to open we noticed tables had not been cleaned from the day before. We went to sit down and noticed the table had syrup and crumbs all over it. The hotel is pleasing...We were in town for funeral services. We stayed two nights. The first night we needed an early check in to which they were very accommodating. However, once in our room we noticed there were greasy handprints all over the door to the bed room, the bathtub was grimy, the floor in the bathroom had tiny hairs on the floor, (yes, those kinds of hair), and splatters on the mirror. Long story short, they didn't clean the room. They simply replaced towels, soaps and such. I'm not 100% sure they changed the bedding. I asked for our room to be cleaned again. They offered to move us to another room, but we had four children with us who were already settling in from our very long drive. They "re-cleaned" the bathroom, scrubbed the tub, sweeper the floor, yet still handprints, and spit on the mirror. The second night we moved to a different room. The room was slightly cleaner. We went down to the bar area to visit with in town family, but we were extremely uncomfortable as the temperate was 78 degrees down there. We were all sweating! The food was decent and that was appreciated. The next morning as we waited for the breakfast area to open we noticed tables had not been cleaned from the day before. We went to sit down and noticed the table had syrup and crumbs all over it. The hotel is pleasing to the eye with their modern decor, however it is not well maintained. They have very young people managing the desk. It's just not clean. Oh, one last thought-we found a dead roach in the corner of our room, who had not been there the night before. At least he was dead. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r503918798-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>503918798</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel for Families</t>
+  </si>
+  <si>
+    <t>Selected this hotel because it had the best price for a room big enough for my family (2 queen size bed plus a sofa bed).  Room was always clean, kids loved the pool.  Breakfast options were great (if you are staying more than one day, you don't want to eat the same thing every day and we didn't).  Bartender was very friendly.  Only downside is that there were not enough towels in the room.  When you reserve a room for 5 people, there should be 5 towels at least.  We contacted front desk and this was fixed.  The gentleman in the front desk was amazing.  I had a hard time printing some tickets for the zoo and he helped me print them from the front desk.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Selected this hotel because it had the best price for a room big enough for my family (2 queen size bed plus a sofa bed).  Room was always clean, kids loved the pool.  Breakfast options were great (if you are staying more than one day, you don't want to eat the same thing every day and we didn't).  Bartender was very friendly.  Only downside is that there were not enough towels in the room.  When you reserve a room for 5 people, there should be 5 towels at least.  We contacted front desk and this was fixed.  The gentleman in the front desk was amazing.  I had a hard time printing some tickets for the zoo and he helped me print them from the front desk.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r502595215-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>502595215</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Nice, spacious hotel</t>
+  </si>
+  <si>
+    <t>The hotel is very spacious - the lobby, hallways, and rooms.  The bed was quite comfortable and loved the linens. The walk-in shower was large but there was no tub, if you like a tub. The AC worked great. We were impressed with the free breakfast. They had various pastries, fruit, yogurt, eggs, sausage, and more. It was clean and well stocked.  The only complaint was a musty smell in the hallways and hot elevators. I would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r492618601-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>492618601</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Not as cared for as it should be</t>
+  </si>
+  <si>
+    <t>I'm a bit disappointed. Arrived at room and there was trash and carpet stains outside door. Inside the couch pillows were either out of place or on the floor. The microwave was obviously burned on the outside. There was also a piece of furniture (like a dresser) missing. So there were no drawers in my room. You can see pics below. Rest of the room was fine, nothing special. Hotel is way off the beaten path in a residential neighborhood with apartments and small homes all around. Not much in the way of restaurants and no stores at all nearby. There are plenty of choices in Denton. I'll probably go somewhere else next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>I'm a bit disappointed. Arrived at room and there was trash and carpet stains outside door. Inside the couch pillows were either out of place or on the floor. The microwave was obviously burned on the outside. There was also a piece of furniture (like a dresser) missing. So there were no drawers in my room. You can see pics below. Rest of the room was fine, nothing special. Hotel is way off the beaten path in a residential neighborhood with apartments and small homes all around. Not much in the way of restaurants and no stores at all nearby. There are plenty of choices in Denton. I'll probably go somewhere else next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r492324052-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>492324052</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Clean, quiet rooms with a couple of hitches.</t>
+  </si>
+  <si>
+    <t>The good:1) clean rooms2) quiet hotel3) great service4) very nice breakfast5) convenient locationThe not so good:1) design of sink makes it impossible to see yourself in mirror for shaving if you are near-sighted.  Large square / tall sink looks nice but is inconvenient for shaving.  A side shaving/makeup mirror would help.2) Parking lot lights shine directly into rooms, and curtains are NOT blackout curtains.  Could not get room dark enough for my preference.Other than the two problems noted, it was a very nice hotel for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r490090400-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>490090400</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Very helpful staff!</t>
+  </si>
+  <si>
+    <t>Visited Denton for a wedding.  We used our room as a dressing room for the Bride and it worked beautifully.  Lots of areas to plug in hair dryers, curling wands, phones, etc.  Very roomy and spacious.  The hotel staff were very helpful, especially when it was pouring rain and we needed to keep the bride dry!  Gorgeous lobby, spacious rooms, friendly staff...all added up to a great visit.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r484310124-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>484310124</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Nice comfortable one-night stay</t>
+  </si>
+  <si>
+    <t>Stayed for 1 night for UNT graduation.  This is a larger SpringHill Suites than I am used to seeing, but it seems very new, modern, clean and bright.  Staff was friendly at check-in and throughout.The first thing I noticed when I got up to my room was "wait...somebody stole the dresser".  Out of curiosity I used the "chat" function on the Marriott app and asked about it.  Within a few minutes I received a response that not having a dresser is part of the "new SpringHill Suites design", and that if I wanted to, I could stop by the front desk for "alternative clothing storage options".  Not sure what those would be, but honestly I never unpack anyway and it does make for much more space in the room. It's just something you may want to be aware of - it didn't matter to me one way or another. The room itself does have a sleeping area and a sitting area, but they are not as separated as I am accustomed to, which again was not the end of the world, just different.  It was clean, tastefully decorated, and comfortable.  The fitness center is modern and nice, on the smaller side but larger than a lot of the SpringHill Suites I have stayed in.  Overall my wife and I enjoyed our stay, and I would more than likely return if I'm in Denton again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Stayed for 1 night for UNT graduation.  This is a larger SpringHill Suites than I am used to seeing, but it seems very new, modern, clean and bright.  Staff was friendly at check-in and throughout.The first thing I noticed when I got up to my room was "wait...somebody stole the dresser".  Out of curiosity I used the "chat" function on the Marriott app and asked about it.  Within a few minutes I received a response that not having a dresser is part of the "new SpringHill Suites design", and that if I wanted to, I could stop by the front desk for "alternative clothing storage options".  Not sure what those would be, but honestly I never unpack anyway and it does make for much more space in the room. It's just something you may want to be aware of - it didn't matter to me one way or another. The room itself does have a sleeping area and a sitting area, but they are not as separated as I am accustomed to, which again was not the end of the world, just different.  It was clean, tastefully decorated, and comfortable.  The fitness center is modern and nice, on the smaller side but larger than a lot of the SpringHill Suites I have stayed in.  Overall my wife and I enjoyed our stay, and I would more than likely return if I'm in Denton again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r479613353-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>479613353</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Don't judge the comfort by the outward attractiveness</t>
+  </si>
+  <si>
+    <t>We stayed at this location one night on an 8 night bus tour of the South- our first time to stay at a SpringHill Suites. We were very disappointed at this brand which carries the Marriott name. The staff was friendly, and our first impression of the suite was WOW - then we got down to actually trying to make ourselves comfortable. 
+1) the bathroom, right inside the door to the hall, has a door that opens OUT into the room. If the door is open at all you cannot get in or out of the main door. 2) all the furnishings are ultra modern, so the sink is one of those squares that sits on top of the cabinet. I measured it - 41inches from the floor to the top edge of the sink. For a 5"2" woman this made it impossible for me to spit into the sink while brushing my teeth and I resorted to spitting into the toilet. It also meant the mirror, which had very dim lighting around it that did not project out into the room, was too high and far away for me to see to put on make-up and blow dry my hair - had to go to the closet mirror in the bedroom. One short man in our group said he had to go to the bedroom closet mirror to shave. 3) since the bathroom is at the door to the...We stayed at this location one night on an 8 night bus tour of the South- our first time to stay at a SpringHill Suites. We were very disappointed at this brand which carries the Marriott name. The staff was friendly, and our first impression of the suite was WOW - then we got down to actually trying to make ourselves comfortable. 1) the bathroom, right inside the door to the hall, has a door that opens OUT into the room. If the door is open at all you cannot get in or out of the main door. 2) all the furnishings are ultra modern, so the sink is one of those squares that sits on top of the cabinet. I measured it - 41inches from the floor to the top edge of the sink. For a 5"2" woman this made it impossible for me to spit into the sink while brushing my teeth and I resorted to spitting into the toilet. It also meant the mirror, which had very dim lighting around it that did not project out into the room, was too high and far away for me to see to put on make-up and blow dry my hair - had to go to the closet mirror in the bedroom. One short man in our group said he had to go to the bedroom closet mirror to shave. 3) since the bathroom is at the door to the hall that means it is in a different room from the bedroom and a long walk for those of us who have to make a trip during the night. Some of our group left the TV on in the "sofa room" as a night light - I opened the microwave door and left it open for extra light to get to the bathroom.  4) there was not one drawer in either room - 1 wardrobe in the bedroom, 1 closet in the other room, and slatted tables that allowed small items to drop through. Not too bad for our one night stay but very inconvenient if you tried to stay a few days. 5) no kleenex - neither in the bedroom nor the bathroom- we had to use the toilet paper (which someone said was missing in his room) which wasn't very good for blowing your nose. 6) while there are ice machines on each floor there are no vending machines in the hotel - there is a small "courtesy room" off the registration desk. The selection was pathetic - 2 kinds of candy bars, a few personal hygiene items, no cola sodas, and 2-3 frozen treats. I was glad I had picked up diet coke at a convenience store stop the bus made earlier in the afternoon.I would not recommend this hotel for a family with children or shorter than average family members. We will assume that this is standard decor and floor plan for this brand and not choose it again when we have a choice. There is a lot of room in the suite but we did not find it to be comfortable and we found the annoyances to be too much to make us want to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>TerriR1508, Front Office Manager at SpringHill Suites Denton, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this location one night on an 8 night bus tour of the South- our first time to stay at a SpringHill Suites. We were very disappointed at this brand which carries the Marriott name. The staff was friendly, and our first impression of the suite was WOW - then we got down to actually trying to make ourselves comfortable. 
+1) the bathroom, right inside the door to the hall, has a door that opens OUT into the room. If the door is open at all you cannot get in or out of the main door. 2) all the furnishings are ultra modern, so the sink is one of those squares that sits on top of the cabinet. I measured it - 41inches from the floor to the top edge of the sink. For a 5"2" woman this made it impossible for me to spit into the sink while brushing my teeth and I resorted to spitting into the toilet. It also meant the mirror, which had very dim lighting around it that did not project out into the room, was too high and far away for me to see to put on make-up and blow dry my hair - had to go to the closet mirror in the bedroom. One short man in our group said he had to go to the bedroom closet mirror to shave. 3) since the bathroom is at the door to the...We stayed at this location one night on an 8 night bus tour of the South- our first time to stay at a SpringHill Suites. We were very disappointed at this brand which carries the Marriott name. The staff was friendly, and our first impression of the suite was WOW - then we got down to actually trying to make ourselves comfortable. 1) the bathroom, right inside the door to the hall, has a door that opens OUT into the room. If the door is open at all you cannot get in or out of the main door. 2) all the furnishings are ultra modern, so the sink is one of those squares that sits on top of the cabinet. I measured it - 41inches from the floor to the top edge of the sink. For a 5"2" woman this made it impossible for me to spit into the sink while brushing my teeth and I resorted to spitting into the toilet. It also meant the mirror, which had very dim lighting around it that did not project out into the room, was too high and far away for me to see to put on make-up and blow dry my hair - had to go to the closet mirror in the bedroom. One short man in our group said he had to go to the bedroom closet mirror to shave. 3) since the bathroom is at the door to the hall that means it is in a different room from the bedroom and a long walk for those of us who have to make a trip during the night. Some of our group left the TV on in the "sofa room" as a night light - I opened the microwave door and left it open for extra light to get to the bathroom.  4) there was not one drawer in either room - 1 wardrobe in the bedroom, 1 closet in the other room, and slatted tables that allowed small items to drop through. Not too bad for our one night stay but very inconvenient if you tried to stay a few days. 5) no kleenex - neither in the bedroom nor the bathroom- we had to use the toilet paper (which someone said was missing in his room) which wasn't very good for blowing your nose. 6) while there are ice machines on each floor there are no vending machines in the hotel - there is a small "courtesy room" off the registration desk. The selection was pathetic - 2 kinds of candy bars, a few personal hygiene items, no cola sodas, and 2-3 frozen treats. I was glad I had picked up diet coke at a convenience store stop the bus made earlier in the afternoon.I would not recommend this hotel for a family with children or shorter than average family members. We will assume that this is standard decor and floor plan for this brand and not choose it again when we have a choice. There is a lot of room in the suite but we did not find it to be comfortable and we found the annoyances to be too much to make us want to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r479284594-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>479284594</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>nice place, a bit 'sterile,' friendly staff, but toilet paper woes</t>
+  </si>
+  <si>
+    <t>Though the rooms are depressingly sterile, the staff compensates for it by being incredibly friendly and helpful.  The breakfast bar is good with a nice variety for a place of this sort. My one big problem was with toilet paper. When I checked into the room, there was just a sliver of toilet paper. Never seen such a thing, not even at a really really cheap motel, much less a nice place like this. And of course this would be the occasion for me to have an upset stomach, so I had to call the front desk at night to plea for more TP.  I can't imagine why they would be so stingy with this essential product. But otherwise, as I said, the really friendly staff at the front desk really makes this otherwise average place have a nice homey yet professional ambience.MoreShow less</t>
+  </si>
+  <si>
+    <t>TerriR1508, General Manager at SpringHill Suites Denton, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Though the rooms are depressingly sterile, the staff compensates for it by being incredibly friendly and helpful.  The breakfast bar is good with a nice variety for a place of this sort. My one big problem was with toilet paper. When I checked into the room, there was just a sliver of toilet paper. Never seen such a thing, not even at a really really cheap motel, much less a nice place like this. And of course this would be the occasion for me to have an upset stomach, so I had to call the front desk at night to plea for more TP.  I can't imagine why they would be so stingy with this essential product. But otherwise, as I said, the really friendly staff at the front desk really makes this otherwise average place have a nice homey yet professional ambience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r475513189-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>475513189</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Great Place To Stay!</t>
+  </si>
+  <si>
+    <t>This Hotel was very Clean and a Great Staff ! It was in an excellent location to all the places we wanted to visit. I would definitely recommend it to anyone staying in the area.It was very close to the College.MoreShow less</t>
+  </si>
+  <si>
+    <t>TerriR1508, General Manager at SpringHill Suites Denton, responded to this reviewResponded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>This Hotel was very Clean and a Great Staff ! It was in an excellent location to all the places we wanted to visit. I would definitely recommend it to anyone staying in the area.It was very close to the College.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r475381345-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>475381345</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Missing some obvious amenities</t>
+  </si>
+  <si>
+    <t>During a recent business trip to Denton, I stayed at the SpringHill Suites that was recommended by my hosts at the University of North Texas.  My experience was generally ok, but I was mostly not in the room except to sleep.  What was immediately evident, though, as one enters the room and begins to unpack is that there is no furniture that might hold clothing items like socks, underwear, athletic shirts, and so on.  This was the first time in my experience ever to stay in a hotel without some sort of bureau or chest of drawers.  There was a closet with hangers of course but no drawer space.  Really odd, in my humble opinion.  There was also no tissue boxes in the bathroom or anywhere else in the room.  This also was irksome. 
+And despite what this hotel's website indicates, there is no workout room with treadmills or eliptical trainers or any other cardio equipment.  They do have a pool but if there is a workout area it's kept well-hidden.  
+Concerning the personnel. the staff at the front desk consists of two young women, both of whom are friendly and competent, and one young man, who is anything but.   Besides his attitude problem, which runs heavily toward contempt and indifference, his overt behavior is best characterized as snarky.   He is, in other words, a jerk.  
+One surprising and much welcomed service that this hotel provides is their van, which...During a recent business trip to Denton, I stayed at the SpringHill Suites that was recommended by my hosts at the University of North Texas.  My experience was generally ok, but I was mostly not in the room except to sleep.  What was immediately evident, though, as one enters the room and begins to unpack is that there is no furniture that might hold clothing items like socks, underwear, athletic shirts, and so on.  This was the first time in my experience ever to stay in a hotel without some sort of bureau or chest of drawers.  There was a closet with hangers of course but no drawer space.  Really odd, in my humble opinion.  There was also no tissue boxes in the bathroom or anywhere else in the room.  This also was irksome. And despite what this hotel's website indicates, there is no workout room with treadmills or eliptical trainers or any other cardio equipment.  They do have a pool but if there is a workout area it's kept well-hidden.  Concerning the personnel. the staff at the front desk consists of two young women, both of whom are friendly and competent, and one young man, who is anything but.   Besides his attitude problem, which runs heavily toward contempt and indifference, his overt behavior is best characterized as snarky.   He is, in other words, a jerk.  One surprising and much welcomed service that this hotel provides is their van, which one can use for transportation in the evenings up until 9:00 pm for things like going out to a restaurant.  One of the staff will drive you there and then later come to pick you up.  Given that we did not have our own vehicle, this was a great service.So, all in all, my two-night stay in Denton was a bit unusual.   The place was clean and it does have a more expansive breakfast selection than one would find at many similar hotels (besides the usual bagel and banana, this place also serves scrambled eggs and sausage).   But overall I would not recommend SpringHill to a friend unless that had no use for a treadmill and wouldn't mind not having some drawers to store his or her underwear.MoreShow less</t>
+  </si>
+  <si>
+    <t>During a recent business trip to Denton, I stayed at the SpringHill Suites that was recommended by my hosts at the University of North Texas.  My experience was generally ok, but I was mostly not in the room except to sleep.  What was immediately evident, though, as one enters the room and begins to unpack is that there is no furniture that might hold clothing items like socks, underwear, athletic shirts, and so on.  This was the first time in my experience ever to stay in a hotel without some sort of bureau or chest of drawers.  There was a closet with hangers of course but no drawer space.  Really odd, in my humble opinion.  There was also no tissue boxes in the bathroom or anywhere else in the room.  This also was irksome. 
+And despite what this hotel's website indicates, there is no workout room with treadmills or eliptical trainers or any other cardio equipment.  They do have a pool but if there is a workout area it's kept well-hidden.  
+Concerning the personnel. the staff at the front desk consists of two young women, both of whom are friendly and competent, and one young man, who is anything but.   Besides his attitude problem, which runs heavily toward contempt and indifference, his overt behavior is best characterized as snarky.   He is, in other words, a jerk.  
+One surprising and much welcomed service that this hotel provides is their van, which...During a recent business trip to Denton, I stayed at the SpringHill Suites that was recommended by my hosts at the University of North Texas.  My experience was generally ok, but I was mostly not in the room except to sleep.  What was immediately evident, though, as one enters the room and begins to unpack is that there is no furniture that might hold clothing items like socks, underwear, athletic shirts, and so on.  This was the first time in my experience ever to stay in a hotel without some sort of bureau or chest of drawers.  There was a closet with hangers of course but no drawer space.  Really odd, in my humble opinion.  There was also no tissue boxes in the bathroom or anywhere else in the room.  This also was irksome. And despite what this hotel's website indicates, there is no workout room with treadmills or eliptical trainers or any other cardio equipment.  They do have a pool but if there is a workout area it's kept well-hidden.  Concerning the personnel. the staff at the front desk consists of two young women, both of whom are friendly and competent, and one young man, who is anything but.   Besides his attitude problem, which runs heavily toward contempt and indifference, his overt behavior is best characterized as snarky.   He is, in other words, a jerk.  One surprising and much welcomed service that this hotel provides is their van, which one can use for transportation in the evenings up until 9:00 pm for things like going out to a restaurant.  One of the staff will drive you there and then later come to pick you up.  Given that we did not have our own vehicle, this was a great service.So, all in all, my two-night stay in Denton was a bit unusual.   The place was clean and it does have a more expansive breakfast selection than one would find at many similar hotels (besides the usual bagel and banana, this place also serves scrambled eggs and sausage).   But overall I would not recommend SpringHill to a friend unless that had no use for a treadmill and wouldn't mind not having some drawers to store his or her underwear.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r468189385-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>468189385</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>We reserved a room and needed 2 beds and a pull out sofa bed. Gave them our card and the reserved it. Told them we'd be there in half hour. Got there and they had given away our room. Asked if they could give us 2 rooms and make a price adjustment do to her error but would not. We left and went to another hotel. They were not helpful nor accommodating.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>We reserved a room and needed 2 beds and a pull out sofa bed. Gave them our card and the reserved it. Told them we'd be there in half hour. Got there and they had given away our room. Asked if they could give us 2 rooms and make a price adjustment do to her error but would not. We left and went to another hotel. They were not helpful nor accommodating.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r447590798-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>447590798</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Very modern and clean hotel.</t>
+  </si>
+  <si>
+    <t>We stayed one night on our way back from Winstar casino. We were very pleased with the service and were very helpful with advice with local restaurants and attractions around Denton. The hotel is very clean and spacious and modern. Breakfast also is plenty and well stocked at all times. Only our wish they would extend the breakfast hours till at least 9:30.It is also a little tricky to find the hotel. Will stay again if we travel that way.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TerriR1508, General Manager at SpringHill Suites Denton, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>We stayed one night on our way back from Winstar casino. We were very pleased with the service and were very helpful with advice with local restaurants and attractions around Denton. The hotel is very clean and spacious and modern. Breakfast also is plenty and well stocked at all times. Only our wish they would extend the breakfast hours till at least 9:30.It is also a little tricky to find the hotel. Will stay again if we travel that way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r439038009-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>439038009</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We were in town for UNT's preview Saturday and one of the referred hotels was SpringHill Suites. We arrived around 10PM on Friday night after a very exhausting drive with lots of construction and traffic from the Houston, TX area. Needless to say, we were tired and ready for bed. Upon arrival, we are very impressed with the exterior. The inside did not disappoint, either. The hotel is very modern and clean. The lobby is fairly large. The staff was friendly. After receiving the keys, we arrived in our room and the entry way light was out. It was more of an inconvenience because I had to leave the door open while I searched for a lamp. Only one elevator was working but the other one came fairly quickly, so the wait wasn't too bad.
+Pros: 
+Room was clean and spacious
+Room is very modern 
+Refrigerator
+Coffee maker
+Microwave with paper plates and plastic utensils (very thoughtful)
+Downstairs Breakfast room is a nice size with comfortable seating
+Temp in room was comfortable and unit was fairly quiet
+Cons:
+There is not a place to put your soap while taking a shower... very awkward
+Bed was uncomfortable (It's day 2 and my back is still sore)
+We were advised to park on the side closest to our room, but I was a bit leery because the lighting is somewhat off. There was light in the lot, but none near the door....We were in town for UNT's preview Saturday and one of the referred hotels was SpringHill Suites. We arrived around 10PM on Friday night after a very exhausting drive with lots of construction and traffic from the Houston, TX area. Needless to say, we were tired and ready for bed. Upon arrival, we are very impressed with the exterior. The inside did not disappoint, either. The hotel is very modern and clean. The lobby is fairly large. The staff was friendly. After receiving the keys, we arrived in our room and the entry way light was out. It was more of an inconvenience because I had to leave the door open while I searched for a lamp. Only one elevator was working but the other one came fairly quickly, so the wait wasn't too bad.Pros: Room was clean and spaciousRoom is very modern RefrigeratorCoffee makerMicrowave with paper plates and plastic utensils (very thoughtful)Downstairs Breakfast room is a nice size with comfortable seatingTemp in room was comfortable and unit was fairly quietCons:There is not a place to put your soap while taking a shower... very awkwardBed was uncomfortable (It's day 2 and my back is still sore)We were advised to park on the side closest to our room, but I was a bit leery because the lighting is somewhat off. There was light in the lot, but none near the door.Overall, we had a nice stay and would consider staying here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We were in town for UNT's preview Saturday and one of the referred hotels was SpringHill Suites. We arrived around 10PM on Friday night after a very exhausting drive with lots of construction and traffic from the Houston, TX area. Needless to say, we were tired and ready for bed. Upon arrival, we are very impressed with the exterior. The inside did not disappoint, either. The hotel is very modern and clean. The lobby is fairly large. The staff was friendly. After receiving the keys, we arrived in our room and the entry way light was out. It was more of an inconvenience because I had to leave the door open while I searched for a lamp. Only one elevator was working but the other one came fairly quickly, so the wait wasn't too bad.
+Pros: 
+Room was clean and spacious
+Room is very modern 
+Refrigerator
+Coffee maker
+Microwave with paper plates and plastic utensils (very thoughtful)
+Downstairs Breakfast room is a nice size with comfortable seating
+Temp in room was comfortable and unit was fairly quiet
+Cons:
+There is not a place to put your soap while taking a shower... very awkward
+Bed was uncomfortable (It's day 2 and my back is still sore)
+We were advised to park on the side closest to our room, but I was a bit leery because the lighting is somewhat off. There was light in the lot, but none near the door....We were in town for UNT's preview Saturday and one of the referred hotels was SpringHill Suites. We arrived around 10PM on Friday night after a very exhausting drive with lots of construction and traffic from the Houston, TX area. Needless to say, we were tired and ready for bed. Upon arrival, we are very impressed with the exterior. The inside did not disappoint, either. The hotel is very modern and clean. The lobby is fairly large. The staff was friendly. After receiving the keys, we arrived in our room and the entry way light was out. It was more of an inconvenience because I had to leave the door open while I searched for a lamp. Only one elevator was working but the other one came fairly quickly, so the wait wasn't too bad.Pros: Room was clean and spaciousRoom is very modern RefrigeratorCoffee makerMicrowave with paper plates and plastic utensils (very thoughtful)Downstairs Breakfast room is a nice size with comfortable seatingTemp in room was comfortable and unit was fairly quietCons:There is not a place to put your soap while taking a shower... very awkwardBed was uncomfortable (It's day 2 and my back is still sore)We were advised to park on the side closest to our room, but I was a bit leery because the lighting is somewhat off. There was light in the lot, but none near the door.Overall, we had a nice stay and would consider staying here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r434944590-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>434944590</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Good property, bad service</t>
+  </si>
+  <si>
+    <t>The good..property is well appointed and my room was spacious, clean and comfortable.  There was an issue with some guest being stuck in one of the elevators, but it appeared to have been resolved quickly.  There is a gym with treadmills and an indoor pool (not heated). The bad..arranged for the hotel's shuttle to drop off and pick up at the UNT Stadium.  Driver told us that we'd be picked up at the drop off spot.  I called the hotel at the beginning of the 3rd quarter for a pickup but unfortunately they sent an employee with an attitude who did not know where the collection point was.  After waving goodbye to the departing team, we were finally picked up 1.5 hours after our call and were literally some of the last people to leave the stadium grounds.  Management offered us a free drink as compensation.  Not a bad value for a hotel.  The free breakfast is worth every penny I paid for it but don't expect much more than a decent room.MoreShow less</t>
+  </si>
+  <si>
+    <t>SpringHill S, General Manager at SpringHill Suites Denton, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>The good..property is well appointed and my room was spacious, clean and comfortable.  There was an issue with some guest being stuck in one of the elevators, but it appeared to have been resolved quickly.  There is a gym with treadmills and an indoor pool (not heated). The bad..arranged for the hotel's shuttle to drop off and pick up at the UNT Stadium.  Driver told us that we'd be picked up at the drop off spot.  I called the hotel at the beginning of the 3rd quarter for a pickup but unfortunately they sent an employee with an attitude who did not know where the collection point was.  After waving goodbye to the departing team, we were finally picked up 1.5 hours after our call and were literally some of the last people to leave the stadium grounds.  Management offered us a free drink as compensation.  Not a bad value for a hotel.  The free breakfast is worth every penny I paid for it but don't expect much more than a decent room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r422815085-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>422815085</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Conflicted, some good some bad...not worth the money.</t>
+  </si>
+  <si>
+    <t>I'm really conflicted with this review as I type it I realize there is more negative than positive so that is what led to the average rating. Pros: -The staff was very nice and accommodating to all requests. -Very generous late check out.-Helpful when the printer in the computer room wasn't working-Room was clean and comfortable.-Nice GymCons:-Apparently recently remodeled but cheaply done. For example bar in the elevator was weak (plastic) we had to hold down the flusher for the toilet until the flush was complete or it wouldn't flush completely.-When asked for breakfast service times I was given the wrong time twice for the weekends causing us to miss breakfast entirely Saturday (costing us $30 at a restaurant) and catching the tail-end scraps on Sunday. -Pool was closed our last day there, not the biggest deal but would have liked to know that ahead of time.Overall I just felt like it wasn't worth $179.99 a night we did have a few days at the group rate for a wedding and I do think it was worth that price $109.99 per night.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>SpringHill S, General Manager at SpringHill Suites Denton, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>I'm really conflicted with this review as I type it I realize there is more negative than positive so that is what led to the average rating. Pros: -The staff was very nice and accommodating to all requests. -Very generous late check out.-Helpful when the printer in the computer room wasn't working-Room was clean and comfortable.-Nice GymCons:-Apparently recently remodeled but cheaply done. For example bar in the elevator was weak (plastic) we had to hold down the flusher for the toilet until the flush was complete or it wouldn't flush completely.-When asked for breakfast service times I was given the wrong time twice for the weekends causing us to miss breakfast entirely Saturday (costing us $30 at a restaurant) and catching the tail-end scraps on Sunday. -Pool was closed our last day there, not the biggest deal but would have liked to know that ahead of time.Overall I just felt like it wasn't worth $179.99 a night we did have a few days at the group rate for a wedding and I do think it was worth that price $109.99 per night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r417775467-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>417775467</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>New Ownership</t>
+  </si>
+  <si>
+    <t>Had spent over 50 days at this property over the past couple of years for work. Did not make a reservation, and pulled in and it was under new ownership. Not many changes, but the lines, paint and appointments had been upgraded. All good. Still seemed the same. If you have stayed here before, the only thing you will notice are the small updates. Still a solid stay, and I will not change staying at this property.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r412780420-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>412780420</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Great price and acceptable</t>
+  </si>
+  <si>
+    <t>We were bringing our son to UNT and spent three nights here in late August, 2016.  We mentioned UNT when I called the hotel directly and got an exceptional rate. The cost  made this a great choice over our usual favorite, Hilton Garden Inn. That said, there were some downsides. The location was a bit farther away and the onsite restaurant stopped serving at 8 pm (quite a disappointment when we arrived, exhausted, after a long drive). I would also prefer to pay for a more varied breakfast menu than to have just a limited free option.  The room was clean and quite acceptable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r397642118-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>397642118</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Very hospitable - wish we'd stayed longer</t>
+  </si>
+  <si>
+    <t>In town one night to attend a surprise birthday party. Read every tripadvisor review on the top rated Denton hotels and chose this one. Thank you, reviewers! Our stay was so pleasant, we wished we had booked more nights. Lovely, spacious lobby &amp; friendly staff at check-in. Clean, uncluttered, nicely appointed room. Huge shower. Kicked back on the couch and relaxed with KNTU (88.1), the university's jazz station. Strong A/C and comfy bed made for a great night's sleep (bed so comfy, we missed the free breakfast). Amazingly quiet. Beautiful courtyard area for those of us who smoke (greatly appreciated, as we have been sent to the eerie bowels of the parking garage at other hotels). Nice location - short drive to the downtown area. Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>In town one night to attend a surprise birthday party. Read every tripadvisor review on the top rated Denton hotels and chose this one. Thank you, reviewers! Our stay was so pleasant, we wished we had booked more nights. Lovely, spacious lobby &amp; friendly staff at check-in. Clean, uncluttered, nicely appointed room. Huge shower. Kicked back on the couch and relaxed with KNTU (88.1), the university's jazz station. Strong A/C and comfy bed made for a great night's sleep (bed so comfy, we missed the free breakfast). Amazingly quiet. Beautiful courtyard area for those of us who smoke (greatly appreciated, as we have been sent to the eerie bowels of the parking garage at other hotels). Nice location - short drive to the downtown area. Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r397012911-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>397012911</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>4th of July</t>
+  </si>
+  <si>
+    <t>Lobby and bar area niceElevator floor stayed dirty me entire stayI left Saturday morning and did not return for about 8 hours and my room was not cleaned at all no trash was taken out covers on my bed were just pulled up. My brother and his family stayed and their room was not cleaned or freshen up. My dad was put in a handicap room and he is not disabled</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r394470008-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>394470008</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Road Trip and Great place to Stay</t>
+  </si>
+  <si>
+    <t>I am a Marriott Rewards member and prefer to stay at their properties when available. This was an outstanding place to stay and very clean. The staff is very friendly and they do have a happy hour bar and breakfast in the AM. Great location and parking was well lighted at night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r390197428-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>390197428</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay for work</t>
+  </si>
+  <si>
+    <t>Stayed here for a month for work. Overall, it was a great place. Friendly staff, lots of options for free breakfast, pool &amp; gym in good condition. Rooms near elevators are noisy and the bar closes super early.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r388586803-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>388586803</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Pretty Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is recently renovated and everything is shiny and new. The rooms are spacious and have a comfortable feel to them. I had many interactions with the staff and they were professional, helpful, and very accommodating. They really helped to improve my stay. The breakfast was pretty good and included eggs, sausage, oatmeal, waffles, juice. Pretty good for a hotel breakfast buffet. My only improvement is one that puzzles me. There were no dressers in the hotel. We were left to just open up our suitcases on the floor and make due with that. Maybe this is a new trend in hotels. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r388281110-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>388281110</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Not quite there...</t>
+  </si>
+  <si>
+    <t>I rate it as a "B+" because although it was all there it wasn't quite put together. Don't blame the staff. It was formerly a Holiday Inn of some variety. The room was huge. The bed comfortable. The staff on point and very helpful. The front desk seemed a trifle understaffed with only one person there to do everything much of the time. The breakfast was better than most. The location was excellent for my needs which is why I picked it. However somehow the overall place didn't quite click. The magic just wasn't quite there. They also offered a shuttle service to anywhere within 5 miles which is a real plus if you want to eat downtown and might not be able to drive after the meal.MoreShow less</t>
+  </si>
+  <si>
+    <t>I rate it as a "B+" because although it was all there it wasn't quite put together. Don't blame the staff. It was formerly a Holiday Inn of some variety. The room was huge. The bed comfortable. The staff on point and very helpful. The front desk seemed a trifle understaffed with only one person there to do everything much of the time. The breakfast was better than most. The location was excellent for my needs which is why I picked it. However somehow the overall place didn't quite click. The magic just wasn't quite there. They also offered a shuttle service to anywhere within 5 miles which is a real plus if you want to eat downtown and might not be able to drive after the meal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r378001070-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>378001070</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Not your typical Springhill</t>
+  </si>
+  <si>
+    <t>This is a large and new property just a couple of blocks off I-35 and close to just about everything in Denton.  There must be different rooms styles available because mine was nothing like the other Springhill Suites I've stayed in.  This room was very large but with minimal furnishings - only one chair but no ottoman.  The mini-fridge and microwave were in a cabinet next to the bed.  My idea of Springhill suite has a separate living area with a sofa and table - which this definitely was not. The bath room was huge, but rather dark and with a standard shower/tub combination .  The bed was fantastic.  Wi-Fi was spotty.I may have caught the staff on a bad day because almost everyone seemed grumpy.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This is a large and new property just a couple of blocks off I-35 and close to just about everything in Denton.  There must be different rooms styles available because mine was nothing like the other Springhill Suites I've stayed in.  This room was very large but with minimal furnishings - only one chair but no ottoman.  The mini-fridge and microwave were in a cabinet next to the bed.  My idea of Springhill suite has a separate living area with a sofa and table - which this definitely was not. The bath room was huge, but rather dark and with a standard shower/tub combination .  The bed was fantastic.  Wi-Fi was spotty.I may have caught the staff on a bad day because almost everyone seemed grumpy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r374073322-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>374073322</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Spectacular City</t>
+  </si>
+  <si>
+    <t>We had a 2 room suite that had climate controls in each room.  They were hard to control but we figured out if we ran the heat not cooling that it was easier to keep the temp comfortably warm.  This is a beautiful hotel with new remodeling and they didn't spare any expense which was nice.  Can be a lot of walking but the convention space was nice and the food was tasty.  Great breakfast buffet.  The curtains in the rooms didn't quite come together but we were lucky to have a west facing room.  The highways and interstates are under construction every where so it is tricky to find your way only because they use different types of entrance and exits that we do in MN.  Fun city and only 30 min. from either Fort Worth or Dallas.  Went to the stockyard tourist area in Fort Worth.  Fun for a few hours and good food.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We had a 2 room suite that had climate controls in each room.  They were hard to control but we figured out if we ran the heat not cooling that it was easier to keep the temp comfortably warm.  This is a beautiful hotel with new remodeling and they didn't spare any expense which was nice.  Can be a lot of walking but the convention space was nice and the food was tasty.  Great breakfast buffet.  The curtains in the rooms didn't quite come together but we were lucky to have a west facing room.  The highways and interstates are under construction every where so it is tricky to find your way only because they use different types of entrance and exits that we do in MN.  Fun city and only 30 min. from either Fort Worth or Dallas.  Went to the stockyard tourist area in Fort Worth.  Fun for a few hours and good food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r373128153-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>373128153</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Did not disappoint!</t>
+  </si>
+  <si>
+    <t>4.5 StarsAnother great experience at a Spring Hill Suites!  This property was a Holiday Inn originally, but Marriott purchased it and did a total renovation.   The staff was so welcoming and accommodating, answering questions and providing assistance when possible.  Housekeeping was also great, happily providing extra towels when requested.  Seriously, everyone smiled at this hotel!This particular Spring Hill Suites has a bar &amp; grill in it that opens at 5 pm.  Excellent service AND food.  They also have a free shuttle service available, which worked out fabulously for us as we were going to a graduation at TWU and didn't want to drive.  The shuttle driver, Robin, was awesome and returned promptly, when we called, to pick us up after the graduation!  Sincere kudos to her!The room was clean and although not spacious (tight between bathroom door &amp; closet), it was comfortable.  The only reason I'm not giving 5 stars is because the shower has NO soap dish and the rooms don't have a dresser or second nightstand!  Apparently the "powers that be" at Marriott have decided these features are not needed.   Not having a soap dish is not only inconvenient, but also a safety hazard.  I would hope the "powers that be" will revisit this decision and change it!  I still highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>4.5 StarsAnother great experience at a Spring Hill Suites!  This property was a Holiday Inn originally, but Marriott purchased it and did a total renovation.   The staff was so welcoming and accommodating, answering questions and providing assistance when possible.  Housekeeping was also great, happily providing extra towels when requested.  Seriously, everyone smiled at this hotel!This particular Spring Hill Suites has a bar &amp; grill in it that opens at 5 pm.  Excellent service AND food.  They also have a free shuttle service available, which worked out fabulously for us as we were going to a graduation at TWU and didn't want to drive.  The shuttle driver, Robin, was awesome and returned promptly, when we called, to pick us up after the graduation!  Sincere kudos to her!The room was clean and although not spacious (tight between bathroom door &amp; closet), it was comfortable.  The only reason I'm not giving 5 stars is because the shower has NO soap dish and the rooms don't have a dresser or second nightstand!  Apparently the "powers that be" at Marriott have decided these features are not needed.   Not having a soap dish is not only inconvenient, but also a safety hazard.  I would hope the "powers that be" will revisit this decision and change it!  I still highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r369026476-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>369026476</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>It is the second time I stay in a Marriott hotel chain and it was good experience. The Hotel is new, which means that everything is very nice. The only thing I did not like was how small and uncomfortable bathroom and little variety at breakfast. The staff is friendly, but I think they can be more energy and make each guest's stay unique.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r365491849-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>365491849</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel but no Gaming Console hookup</t>
+  </si>
+  <si>
+    <t>I stay on average 100+ nights a year on the road for business. I always bring my PS4 with me because I have downtime and I really don't watch a lot of TV. Typically I know all the tricks with how to get my console to work and actually got it to pull up on the TV in my room. Unfortunately I think they have the port blocked or something because it tells me cannot connect using SSL. For this reason I won't be staying here again. The rooms are nice and the hotel is great but this is a deal breaker. Usually I don't have this issue at Springhill.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay on average 100+ nights a year on the road for business. I always bring my PS4 with me because I have downtime and I really don't watch a lot of TV. Typically I know all the tricks with how to get my console to work and actually got it to pull up on the TV in my room. Unfortunately I think they have the port blocked or something because it tells me cannot connect using SSL. For this reason I won't be staying here again. The rooms are nice and the hotel is great but this is a deal breaker. Usually I don't have this issue at Springhill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r357997125-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>357997125</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>First time at Springhill Suites, great stay</t>
+  </si>
+  <si>
+    <t>This hotel was converted from previous Holiday Inn and they did a great job. My previous stay had been closer to I-35 and the noise from the highway kept me up all night. This hotel is further down the street and while there is still some noise, it was much less disturbing. This is a fairly large property and all the renovated areas were very nice and clean. The room was fine for the two nights I was there and the staff was friendly and helpful. They were close to several good restaurants,  the universities and Town Square in downtown Denton.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r342673149-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>342673149</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Should have gone somewhere else.</t>
+  </si>
+  <si>
+    <t>This hotel was recommended by my business sponsor. It was under renovation which made it difficult to  maneuver around boxes and equipment. The bar and restaurant area was also closed due to the remodel. I wasn't impressed and will do my own research on hotels next time Im in the area.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r341678154-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>341678154</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Has no business being open during its renovation.</t>
+  </si>
+  <si>
+    <t>The hotel is under construction.  The lobby is completely torn apart and covered in plastic.  There are noisy construction crews and open doors (i.e.: drafty halls) during all working hours.  Our hot water didn't work, and we had to call down to the front desk for service.  Waited 45 minutes for service, until a staff member asked why we hadn't checked out yet.... still waiting on the water for showers.  Drains couldn't keep up with the flow of water.  The reservation indicated continental breakfast, but it wasn't mentioned at checkin and any area that it would have been held was completely torn up.  I absolutely will not return.  For the price, get a different hotel.  Have tried to contact the hotel, but it's currently being transitioned from a Holiday Inn to a Springhill Suites, and isn't listed on either of the respective sites.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is under construction.  The lobby is completely torn apart and covered in plastic.  There are noisy construction crews and open doors (i.e.: drafty halls) during all working hours.  Our hot water didn't work, and we had to call down to the front desk for service.  Waited 45 minutes for service, until a staff member asked why we hadn't checked out yet.... still waiting on the water for showers.  Drains couldn't keep up with the flow of water.  The reservation indicated continental breakfast, but it wasn't mentioned at checkin and any area that it would have been held was completely torn up.  I absolutely will not return.  For the price, get a different hotel.  Have tried to contact the hotel, but it's currently being transitioned from a Holiday Inn to a Springhill Suites, and isn't listed on either of the respective sites.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r332676128-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>332676128</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Gem of a hotel near campus</t>
+  </si>
+  <si>
+    <t>Stayed here for my niece's graduation.  This 4-story hotel is tucked away among multi-family dwellings just a few minutes from the UNT campus.  It is currently undergoing renovation and everything is clean and new.  Rooms are large with lots of upgrades and large shower.  Booked through Hotwire, so the only drawback was the view of air conditioners on top of the roof. Cozy fireplace in lobby and complementary hot breakfast buffet.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Front Office Manager at SpringHill Suites Denton, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for my niece's graduation.  This 4-story hotel is tucked away among multi-family dwellings just a few minutes from the UNT campus.  It is currently undergoing renovation and everything is clean and new.  Rooms are large with lots of upgrades and large shower.  Booked through Hotwire, so the only drawback was the view of air conditioners on top of the roof. Cozy fireplace in lobby and complementary hot breakfast buffet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r319001204-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>319001204</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>homecoming unt</t>
+  </si>
+  <si>
+    <t>The hotel is renovating the rooms.  Customer service was very good. Everyone was very helpful.  Nice selection of food at the breakfast buffet.  Nice lobby to sit and chat with friends.  The hotel lobby appearance was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Front Office Manager at SpringHill Suites Denton, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is renovating the rooms.  Customer service was very good. Everyone was very helpful.  Nice selection of food at the breakfast buffet.  Nice lobby to sit and chat with friends.  The hotel lobby appearance was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r316706237-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>316706237</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Wonderful staff, okay facilities</t>
+  </si>
+  <si>
+    <t>Front desk and restaurant/bar were all very helpful and pleasant - among the nicest I've encountered.  Shuttle service is great.Breakfast buffet was a bit 'industrial' and the room appeared to be understaffed - though the staff there seemed to be trying really hard to keep up.With a major reno currently underway, the place looks a bit chaotic.  It also tends to be rather noisy in the morning (doors seem to bang, and voices carry) - but there is no outside noise, and the rooms are clean, comfortable, and decently equipped.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Front Office Manager at SpringHill Suites Denton, responded to this reviewResponded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2015</t>
+  </si>
+  <si>
+    <t>Front desk and restaurant/bar were all very helpful and pleasant - among the nicest I've encountered.  Shuttle service is great.Breakfast buffet was a bit 'industrial' and the room appeared to be understaffed - though the staff there seemed to be trying really hard to keep up.With a major reno currently underway, the place looks a bit chaotic.  It also tends to be rather noisy in the morning (doors seem to bang, and voices carry) - but there is no outside noise, and the rooms are clean, comfortable, and decently equipped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r316490391-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>316490391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorable </t>
+  </si>
+  <si>
+    <t>I stayed here from 12th to 29th September and what a peaceful and lovely place. Rooms, breakfast, staff and bar all awesome. Shuttle service is available in hotel that can take you to places within 2 mile radius. Room was neat, clean and comfy. Recommended ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here from 12th to 29th September and what a peaceful and lovely place. Rooms, breakfast, staff and bar all awesome. Shuttle service is available in hotel that can take you to places within 2 mile radius. Room was neat, clean and comfy. Recommended ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r300355812-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>300355812</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Doesn't honor reservations</t>
+  </si>
+  <si>
+    <t>I would have given a "zero star" but that wasn't an option, so I gave them a 1 star. We stayed here several times before, and I even gave the hotel a good review in April 2015. I have changed my opinion and will never stay here again. We reserved a room on April 18 for August 15 for our son's move in day to the college dorm. It is a big weekend in Denton when the college students move in, and all of the hotels fill up. I made the reservation early to secure a room. I thought we were taken care of, but was wrong. When we showed up at the hotel at 5:30pm after loading up 2 cars with dorm room stuff and driving 4 hours we were told that we had been randomly chosen to lose our room because there wasn't enough rooms. The front desk staff told us that all the other hotels in town were full.  They said there were rooms in nearby cities (25 minute drive without considering traffic and construction on I35.) They didn't apologize or explain why our reservation was not being honored while they were still checking in people who came in after us. We were just standing there - a nervous college freshman, 2 parents and 2 cars full of dorm supplies - while the front desk staff checked in people arriving after us. A woman behind us in...I would have given a "zero star" but that wasn't an option, so I gave them a 1 star. We stayed here several times before, and I even gave the hotel a good review in April 2015. I have changed my opinion and will never stay here again. We reserved a room on April 18 for August 15 for our son's move in day to the college dorm. It is a big weekend in Denton when the college students move in, and all of the hotels fill up. I made the reservation early to secure a room. I thought we were taken care of, but was wrong. When we showed up at the hotel at 5:30pm after loading up 2 cars with dorm room stuff and driving 4 hours we were told that we had been randomly chosen to lose our room because there wasn't enough rooms. The front desk staff told us that all the other hotels in town were full.  They said there were rooms in nearby cities (25 minute drive without considering traffic and construction on I35.) They didn't apologize or explain why our reservation was not being honored while they were still checking in people who came in after us. We were just standing there - a nervous college freshman, 2 parents and 2 cars full of dorm supplies - while the front desk staff checked in people arriving after us. A woman behind us in line said she made her reservation 3 weeks ago and she was given a room. The manager on duty, Rose, was not helpful or even apologetic. I would suggest some more training for hotel front desk staff and management. Nobody even offered us a glass of water or a paid night at another hotel for that night. One front desk clerk said we could stay in a hotel in Lewisville and handed me the phone to pay for that new room. We had an 8am move in time for the dorm for the next day and didn't want to drive back towards Lewisville in the dead stopped traffic now, or drive back to Denton early in the morning. We wanted the hotel to be responsible and honor our reservation. It shouldn't be that hard. Overbooking during a big weekend like this when patrons have no other hotel options if you bump them is not acceptable.  I will never stay at this hotel again and will not recommend it to anyone. What use is it to make a reservation just to have the hotel not hold the reservation? I'll tell you, it is no use at all. I'll stay else where during the next four years my student is in Denton.Holiday Inn has lost my business.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Front Office Manager at SpringHill Suites Denton, responded to this reviewResponded August 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2015</t>
+  </si>
+  <si>
+    <t>I would have given a "zero star" but that wasn't an option, so I gave them a 1 star. We stayed here several times before, and I even gave the hotel a good review in April 2015. I have changed my opinion and will never stay here again. We reserved a room on April 18 for August 15 for our son's move in day to the college dorm. It is a big weekend in Denton when the college students move in, and all of the hotels fill up. I made the reservation early to secure a room. I thought we were taken care of, but was wrong. When we showed up at the hotel at 5:30pm after loading up 2 cars with dorm room stuff and driving 4 hours we were told that we had been randomly chosen to lose our room because there wasn't enough rooms. The front desk staff told us that all the other hotels in town were full.  They said there were rooms in nearby cities (25 minute drive without considering traffic and construction on I35.) They didn't apologize or explain why our reservation was not being honored while they were still checking in people who came in after us. We were just standing there - a nervous college freshman, 2 parents and 2 cars full of dorm supplies - while the front desk staff checked in people arriving after us. A woman behind us in...I would have given a "zero star" but that wasn't an option, so I gave them a 1 star. We stayed here several times before, and I even gave the hotel a good review in April 2015. I have changed my opinion and will never stay here again. We reserved a room on April 18 for August 15 for our son's move in day to the college dorm. It is a big weekend in Denton when the college students move in, and all of the hotels fill up. I made the reservation early to secure a room. I thought we were taken care of, but was wrong. When we showed up at the hotel at 5:30pm after loading up 2 cars with dorm room stuff and driving 4 hours we were told that we had been randomly chosen to lose our room because there wasn't enough rooms. The front desk staff told us that all the other hotels in town were full.  They said there were rooms in nearby cities (25 minute drive without considering traffic and construction on I35.) They didn't apologize or explain why our reservation was not being honored while they were still checking in people who came in after us. We were just standing there - a nervous college freshman, 2 parents and 2 cars full of dorm supplies - while the front desk staff checked in people arriving after us. A woman behind us in line said she made her reservation 3 weeks ago and she was given a room. The manager on duty, Rose, was not helpful or even apologetic. I would suggest some more training for hotel front desk staff and management. Nobody even offered us a glass of water or a paid night at another hotel for that night. One front desk clerk said we could stay in a hotel in Lewisville and handed me the phone to pay for that new room. We had an 8am move in time for the dorm for the next day and didn't want to drive back towards Lewisville in the dead stopped traffic now, or drive back to Denton early in the morning. We wanted the hotel to be responsible and honor our reservation. It shouldn't be that hard. Overbooking during a big weekend like this when patrons have no other hotel options if you bump them is not acceptable.  I will never stay at this hotel again and will not recommend it to anyone. What use is it to make a reservation just to have the hotel not hold the reservation? I'll tell you, it is no use at all. I'll stay else where during the next four years my student is in Denton.Holiday Inn has lost my business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r300082367-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>300082367</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>This place does not resemble at hotel at this time.Too much construction and filthy workers hanging about.They should shut down the hotel and finish the work and reopen.I don't have a clue why they have not finished the up dating by now.I don't know who is running the show but they need to be fired.I won't be staying here again unless the work has been completed.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place does not resemble at hotel at this time.Too much construction and filthy workers hanging about.They should shut down the hotel and finish the work and reopen.I don't have a clue why they have not finished the up dating by now.I don't know who is running the show but they need to be fired.I won't be staying here again unless the work has been completed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r294219908-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>294219908</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Everything is Beautiful</t>
+  </si>
+  <si>
+    <t>A friend and I stayed there a few nights during the LexiCon Writers' Conference in July, 2015. The beds were very comfortable, the food was wonderful (The best breakfast I've EVER had at a hotel, anywhere), decent parking spaces, and when I had to call and ask for more lighting, (because we are writers and we need to protect our vision), it wasn't long before maintenance was upstairs with extra lights, lightbulbs, etc. The pool was a bit smaller than I would have preferred, but it was good enough for me to work out the tight muscles in my lower back. The location of the room was terrific, the elevators were quick, and the conference area of the hotel was wonderfully arranged. I had a wonderful time. I even lost two pounds while I was there!! At a conference!! Unbelievable!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Front Office Manager at SpringHill Suites Denton, responded to this reviewResponded August 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2015</t>
+  </si>
+  <si>
+    <t>A friend and I stayed there a few nights during the LexiCon Writers' Conference in July, 2015. The beds were very comfortable, the food was wonderful (The best breakfast I've EVER had at a hotel, anywhere), decent parking spaces, and when I had to call and ask for more lighting, (because we are writers and we need to protect our vision), it wasn't long before maintenance was upstairs with extra lights, lightbulbs, etc. The pool was a bit smaller than I would have preferred, but it was good enough for me to work out the tight muscles in my lower back. The location of the room was terrific, the elevators were quick, and the conference area of the hotel was wonderfully arranged. I had a wonderful time. I even lost two pounds while I was there!! At a conference!! Unbelievable!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r279632600-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>279632600</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>2 week staywas great!</t>
+  </si>
+  <si>
+    <t>Stayed at this property for a two week training. Great location, very clean rooms, tasty breakfast too. There is a free shuttle provided by the hotel that takes you anywhere within 5 miles of the property and it was outstanding. Big shout out to Robin who works the front desk and drives the shuttle. She was very kind, and very knowledgeable about the area. She seemed to really enjoy what she was doing and it showed. Highly recomend this place if in the Denton area.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Front Office Manager at SpringHill Suites Denton, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this property for a two week training. Great location, very clean rooms, tasty breakfast too. There is a free shuttle provided by the hotel that takes you anywhere within 5 miles of the property and it was outstanding. Big shout out to Robin who works the front desk and drives the shuttle. She was very kind, and very knowledgeable about the area. She seemed to really enjoy what she was doing and it showed. Highly recomend this place if in the Denton area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r272988726-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>272988726</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Very clean, comfortable, new facility. Plenty of safe parking. Convenient to the square &amp; the university. Can walk to a few restaurants too. Family friendly. Indoor pool was busy all the time. Air conditioner unit works really well!! Not very helpful at front desk. Breakfast costs.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Front Office Manager at SpringHill Suites Denton, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Very clean, comfortable, new facility. Plenty of safe parking. Convenient to the square &amp; the university. Can walk to a few restaurants too. Family friendly. Indoor pool was busy all the time. Air conditioner unit works really well!! Not very helpful at front desk. Breakfast costs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r272524399-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>272524399</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>No whirlpool</t>
+  </si>
+  <si>
+    <t>This hotel does NOT have a whirlpool. HI needs to update their list of amenities with every travel site.It was very disappointing to us. We walked all over UNT campus and we're looking forward to soaking in the whirlpool. Instead, all we had was a tepid swimming pool. Indoors yes, but warm? Not even close.The rest of the features of the hotel were okay. The TV in the sitting room didn't work, so we called staff and they fixed it. Didn't utilize any other amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at SpringHill Suites Denton, responded to this reviewResponded June 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2015</t>
+  </si>
+  <si>
+    <t>This hotel does NOT have a whirlpool. HI needs to update their list of amenities with every travel site.It was very disappointing to us. We walked all over UNT campus and we're looking forward to soaking in the whirlpool. Instead, all we had was a tepid swimming pool. Indoors yes, but warm? Not even close.The rest of the features of the hotel were okay. The TV in the sitting room didn't work, so we called staff and they fixed it. Didn't utilize any other amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r268418236-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>268418236</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and Classy</t>
+  </si>
+  <si>
+    <t>Looked liked a normal small Holiday Inn from the outside, but was amazed at how nice the lobby and seating area was compared to other small hotels. There is a small bar and small restaurant, which added a lot to my good opinion of the hotel. Everything was clean and new looking. Nice fireplace in the lobby and even an outdoor patio area with tables. Our room was clean and nicely appointed. The beds were very comfortable and the pillows were GREAT! Best pillows I have had in a hotel in years (actually support your head!) Bathroom had everything we needed including a hair dryer. Breakfast was included in our stay. The breakfast buffet included scrambled eggs, bacon, biscuits, yogurt, toast, pastries, milk, cereal, fruit, and you can make your own waffles. There was also a menu where you could order omelets, oatmeal, and even pancakes at very inexpensive prices. The hotel was very relaxing. Liked it so much we plan to stay here the next time we are in the area. Also, would like to thank the very nice front desk clerk who checked us in. She was extremely friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Front Office Manager at SpringHill Suites Denton, responded to this reviewResponded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Looked liked a normal small Holiday Inn from the outside, but was amazed at how nice the lobby and seating area was compared to other small hotels. There is a small bar and small restaurant, which added a lot to my good opinion of the hotel. Everything was clean and new looking. Nice fireplace in the lobby and even an outdoor patio area with tables. Our room was clean and nicely appointed. The beds were very comfortable and the pillows were GREAT! Best pillows I have had in a hotel in years (actually support your head!) Bathroom had everything we needed including a hair dryer. Breakfast was included in our stay. The breakfast buffet included scrambled eggs, bacon, biscuits, yogurt, toast, pastries, milk, cereal, fruit, and you can make your own waffles. There was also a menu where you could order omelets, oatmeal, and even pancakes at very inexpensive prices. The hotel was very relaxing. Liked it so much we plan to stay here the next time we are in the area. Also, would like to thank the very nice front desk clerk who checked us in. She was extremely friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r267236444-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>267236444</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Clean, comfortable hotel; friendly staff</t>
+  </si>
+  <si>
+    <t>Only stayed for one night, but will return when we're the area again later this year. Clean, comfortable room. Super nice staff. Breakfast buffet was great. I understand that this property will soon be a Marriott so you'll need to book by address not brand name.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMHIDenton, General Manager at SpringHill Suites Denton, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Only stayed for one night, but will return when we're the area again later this year. Clean, comfortable room. Super nice staff. Breakfast buffet was great. I understand that this property will soon be a Marriott so you'll need to book by address not brand name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r260799194-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>260799194</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Short but great stay</t>
+  </si>
+  <si>
+    <t>Fairly well connected to important establishments in Denton and close to UNT and Denton University , this place is right parallel to I35E and few seconds down the exit. I was here for a night when I travelled for business. Plush large rooms with great views and they serve decent food at their restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>GMHIDenton, General Manager at SpringHill Suites Denton, responded to this reviewResponded March 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2015</t>
+  </si>
+  <si>
+    <t>Fairly well connected to important establishments in Denton and close to UNT and Denton University , this place is right parallel to I35E and few seconds down the exit. I was here for a night when I travelled for business. Plush large rooms with great views and they serve decent food at their restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r256232982-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>256232982</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed there for UNT preview weekend. It is a very nice looking hotel and we found it very clean. The breakfast was delicious and we used the pool. We have no complaints. The staff was nice and the housekeeping staff on the 3rd floor do an excellent job. Our room was super clean. Hotel Impossible guy would be proud.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>GMHIDenton, General Manager at SpringHill Suites Denton, responded to this reviewResponded February 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2015</t>
+  </si>
+  <si>
+    <t>We stayed there for UNT preview weekend. It is a very nice looking hotel and we found it very clean. The breakfast was delicious and we used the pool. We have no complaints. The staff was nice and the housekeeping staff on the 3rd floor do an excellent job. Our room was super clean. Hotel Impossible guy would be proud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r247278132-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>247278132</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Room was cold</t>
+  </si>
+  <si>
+    <t>The hotel staff was very friendly and helpful. The dining room was very understaffed for breakfast but the waitress kept her cool and was professional, even when patrons were fussing about how long everything was taking.  The room and hallway were very cold (thermostat read 68). Setting the thermostat at 76 barely brought the heat on for a few minutes. Only way to stay warm was to get under the covers. Since the hallway was also colder than the rest of the hotel, I wonder if the heat in that section was not functioning well. Other than that, the room was comfortable and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Manager at SpringHill Suites Denton, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>The hotel staff was very friendly and helpful. The dining room was very understaffed for breakfast but the waitress kept her cool and was professional, even when patrons were fussing about how long everything was taking.  The room and hallway were very cold (thermostat read 68). Setting the thermostat at 76 barely brought the heat on for a few minutes. Only way to stay warm was to get under the covers. Since the hallway was also colder than the rest of the hotel, I wonder if the heat in that section was not functioning well. Other than that, the room was comfortable and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r242547344-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>242547344</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>The reasons I stay at Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>Very clean and nice atmosphere. The hotel is a couple blocks off the main road, so area was quiet and appeared to be a nice neighborhood. The staff was very friendly and courteous to say the least.  The snack bar of items to purchase was very convent. Prices a bit high, but that seems to be expected.  The only issue I see and its minor had to do with breakfast. This is the first Holiday Inn express that I've stayed in that has a waitress/waiter combo buffet type of breakfast. Almost everyone eating breakfast was unsure if there breakfast was included in the reservation price or if they had to pay the price on breakfast sign displayed in lobby. My reservation did clearly state mine was included. The waitress seem to be handle all the request just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Very clean and nice atmosphere. The hotel is a couple blocks off the main road, so area was quiet and appeared to be a nice neighborhood. The staff was very friendly and courteous to say the least.  The snack bar of items to purchase was very convent. Prices a bit high, but that seems to be expected.  The only issue I see and its minor had to do with breakfast. This is the first Holiday Inn express that I've stayed in that has a waitress/waiter combo buffet type of breakfast. Almost everyone eating breakfast was unsure if there breakfast was included in the reservation price or if they had to pay the price on breakfast sign displayed in lobby. My reservation did clearly state mine was included. The waitress seem to be handle all the request just fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r239929055-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>239929055</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Five Stars...Just like the Four Seasons at half the price!!! CLEAN...CLEAN...CLEAN!!!</t>
+  </si>
+  <si>
+    <t>I stayed here for two weeks during a recent business trip. This place is a great hotel and will stay here in on future trips. CLEAN is an understatement...It smells wonderful as you enter the main lobby and entrance as you are greeted a beautiful stone fire place centered around soft chairs and mini sofas. I would relax with my laptop and beverage in front of the fire place relaxing and working. Great king/suite bedroom with fresh towels, internet, fridge, ironing board/iron, dry cleaning service with bathroom amenities to include blow dryer. Super comfortable bed with perfect king size pillows. SAFE area for walks!!! Walking distance to dinner spots!!!P.S. BREAKFAST is off the hook served up every morning at 6:30 AM...eggs, bacon, sausage, biscuits/gravy, waffles, fresh fruit...great fresh coffee!!!There is a park(South Lake Park) less than a mile from the hotel with paved walking trails, pond, tennis courts, basketball court and the biggest jungle gym for children that I have ever seen.VERDICT: The total package at the Holiday Inn!!!Robyn(Front Desk Clerk) went above and beyond the call of duty in her recommendation of Denton restaurants and nightlife!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for two weeks during a recent business trip. This place is a great hotel and will stay here in on future trips. CLEAN is an understatement...It smells wonderful as you enter the main lobby and entrance as you are greeted a beautiful stone fire place centered around soft chairs and mini sofas. I would relax with my laptop and beverage in front of the fire place relaxing and working. Great king/suite bedroom with fresh towels, internet, fridge, ironing board/iron, dry cleaning service with bathroom amenities to include blow dryer. Super comfortable bed with perfect king size pillows. SAFE area for walks!!! Walking distance to dinner spots!!!P.S. BREAKFAST is off the hook served up every morning at 6:30 AM...eggs, bacon, sausage, biscuits/gravy, waffles, fresh fruit...great fresh coffee!!!There is a park(South Lake Park) less than a mile from the hotel with paved walking trails, pond, tennis courts, basketball court and the biggest jungle gym for children that I have ever seen.VERDICT: The total package at the Holiday Inn!!!Robyn(Front Desk Clerk) went above and beyond the call of duty in her recommendation of Denton restaurants and nightlife!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r239292926-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>239292926</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Clean and modern</t>
+  </si>
+  <si>
+    <t>No complaints here.  Check-in was fast and easy and we even received a call about 20 minutes later from the front desk making sure that everything was good with our room, which it was was.  The room, like all of the other areas of the hotel was clean with modern furnishings.  We appreciated the in-room microwave and refrigerator and the free wifi worked great.  My toddler enjoyed the indoor pool and we all thought the hotel restaurant's food was tasty and reasonably priced.  The convenience of an on-site restaurant was a plus for both dinner and breakfast.  We would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r238524949-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>238524949</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Good stay except the dining room</t>
+  </si>
+  <si>
+    <t>Our stay was very nice at this hotel however when we wanted to eat off the menu in the dining room we had to get the girl to wait on us then we had to eat with cheap plastic utensils. We did not find this very nice in a hotel like this. They had a banquet come in night before but would think they had dishwashers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r220240126-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>220240126</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Extremely...middle of the road</t>
+  </si>
+  <si>
+    <t>I stay in hotels 18 out of 30 days a month. I know what's average. I know what's nicer than average. I know this place on the outside looks great. 
+Once you step inside, things change a little bit. The nice young ladies at the front desk are more than helpful and efficient. They put my IHG # and realized I was a super triple platinum or whatever the highest tier is for their rewards program. Suddenly, VOILA! A free drink coupon! How excellent. Thank you. My room is nice, spacious, everything works, clean. I meet my coworkers at the bar and order my FREE DRINK! A Shiner bock, domestic deliciousness, made right here in beautiful Texas. It is so good, I have another. It's been a long hot day of work. When the bartender presents my tab, I give her my FREE DRINK COUPON, which states "good for one domestic beer or glass of house wine". She informs me that Shiner is not a domestic beer.... Now hold on pardner. Y'all are telling me that a beer that is made in the state of Texas and is served in the state of Texas is considering an import? We'll BURN MY BRITCHES!  I'm not rightly sure where all y'all get yer funny ideas, but in the rest of the world a beer that is made locally is what we call local or domestic. All right, enough rambling. 
+The nice ladies...I stay in hotels 18 out of 30 days a month. I know what's average. I know what's nicer than average. I know this place on the outside looks great. Once you step inside, things change a little bit. The nice young ladies at the front desk are more than helpful and efficient. They put my IHG # and realized I was a super triple platinum or whatever the highest tier is for their rewards program. Suddenly, VOILA! A free drink coupon! How excellent. Thank you. My room is nice, spacious, everything works, clean. I meet my coworkers at the bar and order my FREE DRINK! A Shiner bock, domestic deliciousness, made right here in beautiful Texas. It is so good, I have another. It's been a long hot day of work. When the bartender presents my tab, I give her my FREE DRINK COUPON, which states "good for one domestic beer or glass of house wine". She informs me that Shiner is not a domestic beer.... Now hold on pardner. Y'all are telling me that a beer that is made in the state of Texas and is served in the state of Texas is considering an import? We'll BURN MY BRITCHES!  I'm not rightly sure where all y'all get yer funny ideas, but in the rest of the world a beer that is made locally is what we call local or domestic. All right, enough rambling. The nice ladies at the front desk offer us a shuttle to the Square where we get a burger and a bite, (including more of them fancy import Shiner beers). Thank you ladies for the recommendation. Upon our return, I figure they forgot to give me my free breakfast coupon, after all I am basically the Prince of IHG, being a platinum super gold triple high life member and all. So I ask the gals at the front desk for my free breakfast coupon. I am informed that I am not entitled to that. "We don't give free breakfast."  Ummm, we have 6 rooms here tonight, my company books rooms here all the time, and no go on the breakfast?  Nope, sorry sir. Arrgh, whatever. This morning my belly is rumbling. I need some food. So I head down. I ask the young gal who happens to be the only one working if the buffet is the only option. She states yes. So I tell her buffet for one. Before I sit down I head to the buffet and find some eggs that are not powdered eggs (YES!) a croissant (YES!) and some sausage that looks like it's been sitting out for at least a week. Side note: Ever seen one of those YouTube videos of Mcdonalds hamburgers sitting out for a year and still looking the same as the day it was served?) Yea, that's what the sausage looked like. Decided not to try it. Well I got back to my table and sat down and what did I find? A breakfast menu!  ARRGggghhh! I could have had a freshly cooked breakfast. I asked the waitress why she didn't tell me there was a menu to order off of? She must have misunderstood me. Ah dang it. She brings my coffee, I begrudgingly eat my stale cold eggs and cold hard potatoes. I ask her for a warm up of my coffee. Now when you ask for a warm up on your coffee, what are you expecting?  .......She takes my half cup of coffee away, is gone for a couple of minutes, and brings my half cup of coffee back to me scalding hot. Ummmm, that's not exactly what I was thinking. I really just wanted you to... Oh never mind. So you see, beauty is in the eyes of the beholder. The hotel is very nice on the outside. And it's very nice on the inside. But a building is only part of the experience. What matters most to people like me is the interaction, the food, the people, the value. I gotta tell you, I'm not seeing the value at this hotel. The food? Fuuuget about it! The people? Well, the only experience I've had has been with nice, young, cute girls my daughters age, who likely are all on their first summer job. They are all very sweet, but they don't really know much about running a hotel. Will I stay here again?  Yes. I have no choice. This hotel is on my company's list of hotels to stay in when we are in this area ( International medevac flight team). Will I eat here again? I'll give you three guesses. Will I order a real domestic beer for free next time, like a Miller Lite? Come on, who drinks that garbage?  The 2 Buck Chuck is gonna have to do.  Insure hope your experience is better than mine. MoreShow less</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Manager at SpringHill Suites Denton, responded to this reviewResponded August 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2014</t>
+  </si>
+  <si>
+    <t>I stay in hotels 18 out of 30 days a month. I know what's average. I know what's nicer than average. I know this place on the outside looks great. 
+Once you step inside, things change a little bit. The nice young ladies at the front desk are more than helpful and efficient. They put my IHG # and realized I was a super triple platinum or whatever the highest tier is for their rewards program. Suddenly, VOILA! A free drink coupon! How excellent. Thank you. My room is nice, spacious, everything works, clean. I meet my coworkers at the bar and order my FREE DRINK! A Shiner bock, domestic deliciousness, made right here in beautiful Texas. It is so good, I have another. It's been a long hot day of work. When the bartender presents my tab, I give her my FREE DRINK COUPON, which states "good for one domestic beer or glass of house wine". She informs me that Shiner is not a domestic beer.... Now hold on pardner. Y'all are telling me that a beer that is made in the state of Texas and is served in the state of Texas is considering an import? We'll BURN MY BRITCHES!  I'm not rightly sure where all y'all get yer funny ideas, but in the rest of the world a beer that is made locally is what we call local or domestic. All right, enough rambling. 
+The nice ladies...I stay in hotels 18 out of 30 days a month. I know what's average. I know what's nicer than average. I know this place on the outside looks great. Once you step inside, things change a little bit. The nice young ladies at the front desk are more than helpful and efficient. They put my IHG # and realized I was a super triple platinum or whatever the highest tier is for their rewards program. Suddenly, VOILA! A free drink coupon! How excellent. Thank you. My room is nice, spacious, everything works, clean. I meet my coworkers at the bar and order my FREE DRINK! A Shiner bock, domestic deliciousness, made right here in beautiful Texas. It is so good, I have another. It's been a long hot day of work. When the bartender presents my tab, I give her my FREE DRINK COUPON, which states "good for one domestic beer or glass of house wine". She informs me that Shiner is not a domestic beer.... Now hold on pardner. Y'all are telling me that a beer that is made in the state of Texas and is served in the state of Texas is considering an import? We'll BURN MY BRITCHES!  I'm not rightly sure where all y'all get yer funny ideas, but in the rest of the world a beer that is made locally is what we call local or domestic. All right, enough rambling. The nice ladies at the front desk offer us a shuttle to the Square where we get a burger and a bite, (including more of them fancy import Shiner beers). Thank you ladies for the recommendation. Upon our return, I figure they forgot to give me my free breakfast coupon, after all I am basically the Prince of IHG, being a platinum super gold triple high life member and all. So I ask the gals at the front desk for my free breakfast coupon. I am informed that I am not entitled to that. "We don't give free breakfast."  Ummm, we have 6 rooms here tonight, my company books rooms here all the time, and no go on the breakfast?  Nope, sorry sir. Arrgh, whatever. This morning my belly is rumbling. I need some food. So I head down. I ask the young gal who happens to be the only one working if the buffet is the only option. She states yes. So I tell her buffet for one. Before I sit down I head to the buffet and find some eggs that are not powdered eggs (YES!) a croissant (YES!) and some sausage that looks like it's been sitting out for at least a week. Side note: Ever seen one of those YouTube videos of Mcdonalds hamburgers sitting out for a year and still looking the same as the day it was served?) Yea, that's what the sausage looked like. Decided not to try it. Well I got back to my table and sat down and what did I find? A breakfast menu!  ARRGggghhh! I could have had a freshly cooked breakfast. I asked the waitress why she didn't tell me there was a menu to order off of? She must have misunderstood me. Ah dang it. She brings my coffee, I begrudgingly eat my stale cold eggs and cold hard potatoes. I ask her for a warm up of my coffee. Now when you ask for a warm up on your coffee, what are you expecting?  .......She takes my half cup of coffee away, is gone for a couple of minutes, and brings my half cup of coffee back to me scalding hot. Ummmm, that's not exactly what I was thinking. I really just wanted you to... Oh never mind. So you see, beauty is in the eyes of the beholder. The hotel is very nice on the outside. And it's very nice on the inside. But a building is only part of the experience. What matters most to people like me is the interaction, the food, the people, the value. I gotta tell you, I'm not seeing the value at this hotel. The food? Fuuuget about it! The people? Well, the only experience I've had has been with nice, young, cute girls my daughters age, who likely are all on their first summer job. They are all very sweet, but they don't really know much about running a hotel. Will I stay here again?  Yes. I have no choice. This hotel is on my company's list of hotels to stay in when we are in this area ( International medevac flight team). Will I eat here again? I'll give you three guesses. Will I order a real domestic beer for free next time, like a Miller Lite? Come on, who drinks that garbage?  The 2 Buck Chuck is gonna have to do.  Insure hope your experience is better than mine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r215912229-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>215912229</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>New and nice!</t>
+  </si>
+  <si>
+    <t>Seriously impressed. Didn't think I'd come across such a nice hotel in Denton (no offense, Dentonians!), but this HI really blew me away.It's obviously new construction, but there were still very nice touches. The lobby was breathtaking with a huge fireplace filling the room. All the modern conveniences were there: free wifi, mini fridge, a super-comfy bed with the best pillows ever, a shower that gets hot and stays hot with that all-important water pressure.Three things keep this from being a 5-star recommendation: (1) On Day 2 of my stay, I left my room at 8 a.m. and returned at 5 p.m.... and the room was never cleaned. That's odd because it had been cleaned before.(2) The bathroom door either had to stay closed fully, or be wide open. The door kept swinging open ads though the ground weren't level.(3) A modern hotel like this should have more outlets! In addition, USB outlets would be the right thing to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>GMHIDenton, General Manager at SpringHill Suites Denton, responded to this reviewResponded July 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2014</t>
+  </si>
+  <si>
+    <t>Seriously impressed. Didn't think I'd come across such a nice hotel in Denton (no offense, Dentonians!), but this HI really blew me away.It's obviously new construction, but there were still very nice touches. The lobby was breathtaking with a huge fireplace filling the room. All the modern conveniences were there: free wifi, mini fridge, a super-comfy bed with the best pillows ever, a shower that gets hot and stays hot with that all-important water pressure.Three things keep this from being a 5-star recommendation: (1) On Day 2 of my stay, I left my room at 8 a.m. and returned at 5 p.m.... and the room was never cleaned. That's odd because it had been cleaned before.(2) The bathroom door either had to stay closed fully, or be wide open. The door kept swinging open ads though the ground weren't level.(3) A modern hotel like this should have more outlets! In addition, USB outlets would be the right thing to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r204935292-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>204935292</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>pleasant surprise</t>
+  </si>
+  <si>
+    <t>I recently had to stay here for two weeks for work. Everyone was so incredibly friendly, especially the young men and woman working at night in the restaurant. Everything was extremely clean and comfortable. My only concern was that there was no AC in the gym, and I saw some health code sign hanging that the pool was closed. I don't swim in hotel pools so I really can't rate it, but it definitely stood out to me that it was closed for health.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Manager at SpringHill Suites Denton, responded to this reviewResponded May 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2014</t>
+  </si>
+  <si>
+    <t>I recently had to stay here for two weeks for work. Everyone was so incredibly friendly, especially the young men and woman working at night in the restaurant. Everything was extremely clean and comfortable. My only concern was that there was no AC in the gym, and I saw some health code sign hanging that the pool was closed. I don't swim in hotel pools so I really can't rate it, but it definitely stood out to me that it was closed for health.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r188698357-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>188698357</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Good experience overall</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn property for one night, and I must preface this review by saying that I am giving it five stars, first of all, as a hats-off to the ICH brands because of their stellar loyalty rewards program. I stayed for free due to the fact that their loyalty points do not expire. This is the best rewards program of any kind that I am aware of, and I am also a member of Hilton, Omni, and Best Western. There were no additional treats (complimentary bottle of water upon arrival, etc) but I was still very happy to enjoy my King Room for no charge.  The location is near the interstate, but entry is rather odd, since the property is tucked away within some student apartment complexes. Still, I only had to drive about three miles parallel to the interstate to get to my social destination that evening at The Pourhouse Grille. The room was clean and the staff was quite friendly and helpful. There was a sofa and table in my room, which I most enjoyed using. I hate to have to sit on a bed to work.  My room was quiet and the hotel sundries store was well stocked.  I have stayed in more opulent accommodations in more interesting settings, but this hotel was exactly what I needed for one night. The lobby is very inviting, by the way, complete with a sitting area...I stayed at this Holiday Inn property for one night, and I must preface this review by saying that I am giving it five stars, first of all, as a hats-off to the ICH brands because of their stellar loyalty rewards program. I stayed for free due to the fact that their loyalty points do not expire. This is the best rewards program of any kind that I am aware of, and I am also a member of Hilton, Omni, and Best Western. There were no additional treats (complimentary bottle of water upon arrival, etc) but I was still very happy to enjoy my King Room for no charge.  The location is near the interstate, but entry is rather odd, since the property is tucked away within some student apartment complexes. Still, I only had to drive about three miles parallel to the interstate to get to my social destination that evening at The Pourhouse Grille. The room was clean and the staff was quite friendly and helpful. There was a sofa and table in my room, which I most enjoyed using. I hate to have to sit on a bed to work.  My room was quiet and the hotel sundries store was well stocked.  I have stayed in more opulent accommodations in more interesting settings, but this hotel was exactly what I needed for one night. The lobby is very inviting, by the way, complete with a sitting area with fireplace. I wish I'd had more time, as I would've enjoyed sitting by the fire and reading a book on that cold evening.  Anyway, I felt safe and secure throughout my stay. One thing, the cable didn't work at first on the TV, but when I alerted the desk clerk, he explained that the system had been upgraded hotel-wide and told me what to do, while also offering to come to my room and re-set it for me. It was an easy fix, so I did it myself.  There is a restaurant and bar in this hotel, but I never needed those services. I recommend this property as being just fine, if you need to stay near the University area of Denton,.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>GMHIDenton, General Manager at SpringHill Suites Denton, responded to this reviewResponded December 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn property for one night, and I must preface this review by saying that I am giving it five stars, first of all, as a hats-off to the ICH brands because of their stellar loyalty rewards program. I stayed for free due to the fact that their loyalty points do not expire. This is the best rewards program of any kind that I am aware of, and I am also a member of Hilton, Omni, and Best Western. There were no additional treats (complimentary bottle of water upon arrival, etc) but I was still very happy to enjoy my King Room for no charge.  The location is near the interstate, but entry is rather odd, since the property is tucked away within some student apartment complexes. Still, I only had to drive about three miles parallel to the interstate to get to my social destination that evening at The Pourhouse Grille. The room was clean and the staff was quite friendly and helpful. There was a sofa and table in my room, which I most enjoyed using. I hate to have to sit on a bed to work.  My room was quiet and the hotel sundries store was well stocked.  I have stayed in more opulent accommodations in more interesting settings, but this hotel was exactly what I needed for one night. The lobby is very inviting, by the way, complete with a sitting area...I stayed at this Holiday Inn property for one night, and I must preface this review by saying that I am giving it five stars, first of all, as a hats-off to the ICH brands because of their stellar loyalty rewards program. I stayed for free due to the fact that their loyalty points do not expire. This is the best rewards program of any kind that I am aware of, and I am also a member of Hilton, Omni, and Best Western. There were no additional treats (complimentary bottle of water upon arrival, etc) but I was still very happy to enjoy my King Room for no charge.  The location is near the interstate, but entry is rather odd, since the property is tucked away within some student apartment complexes. Still, I only had to drive about three miles parallel to the interstate to get to my social destination that evening at The Pourhouse Grille. The room was clean and the staff was quite friendly and helpful. There was a sofa and table in my room, which I most enjoyed using. I hate to have to sit on a bed to work.  My room was quiet and the hotel sundries store was well stocked.  I have stayed in more opulent accommodations in more interesting settings, but this hotel was exactly what I needed for one night. The lobby is very inviting, by the way, complete with a sitting area with fireplace. I wish I'd had more time, as I would've enjoyed sitting by the fire and reading a book on that cold evening.  Anyway, I felt safe and secure throughout my stay. One thing, the cable didn't work at first on the TV, but when I alerted the desk clerk, he explained that the system had been upgraded hotel-wide and told me what to do, while also offering to come to my room and re-set it for me. It was an easy fix, so I did it myself.  There is a restaurant and bar in this hotel, but I never needed those services. I recommend this property as being just fine, if you need to stay near the University area of Denton,.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r188323683-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>188323683</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>TWU graduation</t>
+  </si>
+  <si>
+    <t>Perfect place to stay for TWU graduation.  Quiet, clean and very friendly staff.  Great breakfast but you do have to pay for it.  It is well worth the price. Fresh coffee available all day.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMHIDenton, Sales Coordinator at SpringHill Suites Denton, responded to this reviewResponded December 30, 2013</t>
+  </si>
+  <si>
+    <t>Perfect place to stay for TWU graduation.  Quiet, clean and very friendly staff.  Great breakfast but you do have to pay for it.  It is well worth the price. Fresh coffee available all day.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r185010102-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>185010102</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>First stay at a Holiday Inn after several years - Much Improved!</t>
+  </si>
+  <si>
+    <t>I had not stayed at a Holiday Inn for several years. I've stayed at other brands in the IC Hotels group, but had given up on Holiday Inn due to the other brands were newer and a better deal.I will re-think that - due to my very good stay at this Holiday Inn. The property is fairly new and fresh. Location is very quiet and safe - it is a few blocks off I-35 in an area of student apartments for UNT. The rooms are clean, good AC/Heat even though it is the under-the-window type unit. Real tile bathroom, mini-fridge, microwave. The front desk had my check-in ready. The restaurant was short-handed the next morning so they improvised with a buffet breakfast - on the house!  Real scrambled eggs and bacon, etc. Can recommend staying here. It is a quiet, very clean, great service hotel in a good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>GMHIDenton, General Manager at SpringHill Suites Denton, responded to this reviewResponded November 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2013</t>
+  </si>
+  <si>
+    <t>I had not stayed at a Holiday Inn for several years. I've stayed at other brands in the IC Hotels group, but had given up on Holiday Inn due to the other brands were newer and a better deal.I will re-think that - due to my very good stay at this Holiday Inn. The property is fairly new and fresh. Location is very quiet and safe - it is a few blocks off I-35 in an area of student apartments for UNT. The rooms are clean, good AC/Heat even though it is the under-the-window type unit. Real tile bathroom, mini-fridge, microwave. The front desk had my check-in ready. The restaurant was short-handed the next morning so they improvised with a buffet breakfast - on the house!  Real scrambled eggs and bacon, etc. Can recommend staying here. It is a quiet, very clean, great service hotel in a good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r180340278-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>180340278</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>friendly staff and immaculate property</t>
+  </si>
+  <si>
+    <t>We stayed overnight as part of the Komen Race for the Cure. The hotel staff was both welcoming and professional. I had forgotten toothpaste but by going to the front desk at 4:30AM I was able to solve that problem. The hotel was on a side street and, initially, hard to find but, once there, was easy to return to that evening. The room was comfortable and served our needs beautifully. The hotel is near the University of North Texas campus and I would recommend this property for anyone staying overnight in the Denton area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Keith55732, General Manager at SpringHill Suites Denton, responded to this reviewResponded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2013</t>
+  </si>
+  <si>
+    <t>We stayed overnight as part of the Komen Race for the Cure. The hotel staff was both welcoming and professional. I had forgotten toothpaste but by going to the front desk at 4:30AM I was able to solve that problem. The hotel was on a side street and, initially, hard to find but, once there, was easy to return to that evening. The room was comfortable and served our needs beautifully. The hotel is near the University of North Texas campus and I would recommend this property for anyone staying overnight in the Denton area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r177309593-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>177309593</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>My worst hotel experience</t>
+  </si>
+  <si>
+    <t>I have been in many hotels and of all types, from the fanciests ( business trips) to more modest ones. I had also previous stays at other Holiday Inns that were satisfactory.
+This one has been such a bad experience that I don't know where to start from, and will try to keep factual; I will however stress that the staff was very nice, and all the issues we had seem more due to very poor management than anything.
+- DAY 1 ( arrival day) room appeared nice and clean. There was a coffee pot, but when my husband tried to make coffee he noticed there was no cup. He called the desk to ask for cups but was told there was not enough staff and that he had to come down and get some. He proceeded to use the plastic glasses, by doubling them. 
+- DAY 2: my husband goes down to get a coffee cup before breakfast. Breakfast OK, but not much choice. Anyway, before leaving for the day we let the staff know that we were missing coffee cups in the room.
+When we return, in the evening: the coffee pot had not been clean, not Turned off, and still no cups, but also no coffee packets. We call again only to be told, again, that the desk person was by herself ( she was wiling to help), and therefore nobody could come. So my husband goes...I have been in many hotels and of all types, from the fanciests ( business trips) to more modest ones. I had also previous stays at other Holiday Inns that were satisfactory.This one has been such a bad experience that I don't know where to start from, and will try to keep factual; I will however stress that the staff was very nice, and all the issues we had seem more due to very poor management than anything.- DAY 1 ( arrival day) room appeared nice and clean. There was a coffee pot, but when my husband tried to make coffee he noticed there was no cup. He called the desk to ask for cups but was told there was not enough staff and that he had to come down and get some. He proceeded to use the plastic glasses, by doubling them. - DAY 2: my husband goes down to get a coffee cup before breakfast. Breakfast OK, but not much choice. Anyway, before leaving for the day we let the staff know that we were missing coffee cups in the room.When we return, in the evening: the coffee pot had not been clean, not Turned off, and still no cups, but also no coffee packets. We call again only to be told, again, that the desk person was by herself ( she was wiling to help), and therefore nobody could come. So my husband goes for a cup and a coffee packet.Room service: one of the dishes I wanted to order, they were out of, and I had to order another one. The same thing happened to one of our friends who travelled with us, in another room, and for another dish. We were told to leave the tray in front of the door, as per common usage, which we did.- DAY 3: I almost tripped on the tray that had not been picked up. This time, for breakfast, they were out of grapefruit juice. The breakfast selection was the same as the day before. This time also, the plates were already greasy and my friend's glass had dried OJ pulp on it. We mention again before leaving, that there had been no cups, and no coffee packets. This time, our contact was the manager himself who was on duty at the desk.When we return, in the evening, the room had cups but still no coffee packets. Coffee pot from the eve had not been cleaned once again.We also notice that the half-full glass of CocaCola from the eve's room service had not been picked up ( we had forgotten to put it back in the tray), nor were the salt and pepper. The tissue box in the bathroom was now empty. Learning from experience, I chose to take it out its case, and display it on top of it to be sure it will be noticed by the housekeepers the next day.- DAY 4: This time, there is grapefruit juice, but the breakfast selection otherwise has not changed. Before we leave we request again for packets of coffee.When we return, in the evening, we have 8 packets of ... decaf' and cups, and I notice right away that the tissue box has been replaced...since it layed right there, on top of its case ( and not inside ). The glass of coca-cola was still there, where it had been left, and so was the salt and pepper.- DAY 5: out of grapefruit juice again. Breakfast selection the same again. Silverware unclean.This day we came back earlier as usual, so when we met the housekeeping manager, we took the opportunity to mention the glass of coke, that had stayed for three days now, only to be told that it was because they had assumed we wanted to finish it !!At this time, we also noticed that the sheet did not cover completely the mattress, or at least that its size made it uncover the mattress almost as soon as somebody was in bed.- LAST DAY. a picture is more than a thousand words: see picture of the glass I was handed for Breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Keith55732, General Manager at SpringHill Suites Denton, responded to this reviewResponded September 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2013</t>
+  </si>
+  <si>
+    <t>I have been in many hotels and of all types, from the fanciests ( business trips) to more modest ones. I had also previous stays at other Holiday Inns that were satisfactory.
+This one has been such a bad experience that I don't know where to start from, and will try to keep factual; I will however stress that the staff was very nice, and all the issues we had seem more due to very poor management than anything.
+- DAY 1 ( arrival day) room appeared nice and clean. There was a coffee pot, but when my husband tried to make coffee he noticed there was no cup. He called the desk to ask for cups but was told there was not enough staff and that he had to come down and get some. He proceeded to use the plastic glasses, by doubling them. 
+- DAY 2: my husband goes down to get a coffee cup before breakfast. Breakfast OK, but not much choice. Anyway, before leaving for the day we let the staff know that we were missing coffee cups in the room.
+When we return, in the evening: the coffee pot had not been clean, not Turned off, and still no cups, but also no coffee packets. We call again only to be told, again, that the desk person was by herself ( she was wiling to help), and therefore nobody could come. So my husband goes...I have been in many hotels and of all types, from the fanciests ( business trips) to more modest ones. I had also previous stays at other Holiday Inns that were satisfactory.This one has been such a bad experience that I don't know where to start from, and will try to keep factual; I will however stress that the staff was very nice, and all the issues we had seem more due to very poor management than anything.- DAY 1 ( arrival day) room appeared nice and clean. There was a coffee pot, but when my husband tried to make coffee he noticed there was no cup. He called the desk to ask for cups but was told there was not enough staff and that he had to come down and get some. He proceeded to use the plastic glasses, by doubling them. - DAY 2: my husband goes down to get a coffee cup before breakfast. Breakfast OK, but not much choice. Anyway, before leaving for the day we let the staff know that we were missing coffee cups in the room.When we return, in the evening: the coffee pot had not been clean, not Turned off, and still no cups, but also no coffee packets. We call again only to be told, again, that the desk person was by herself ( she was wiling to help), and therefore nobody could come. So my husband goes for a cup and a coffee packet.Room service: one of the dishes I wanted to order, they were out of, and I had to order another one. The same thing happened to one of our friends who travelled with us, in another room, and for another dish. We were told to leave the tray in front of the door, as per common usage, which we did.- DAY 3: I almost tripped on the tray that had not been picked up. This time, for breakfast, they were out of grapefruit juice. The breakfast selection was the same as the day before. This time also, the plates were already greasy and my friend's glass had dried OJ pulp on it. We mention again before leaving, that there had been no cups, and no coffee packets. This time, our contact was the manager himself who was on duty at the desk.When we return, in the evening, the room had cups but still no coffee packets. Coffee pot from the eve had not been cleaned once again.We also notice that the half-full glass of CocaCola from the eve's room service had not been picked up ( we had forgotten to put it back in the tray), nor were the salt and pepper. The tissue box in the bathroom was now empty. Learning from experience, I chose to take it out its case, and display it on top of it to be sure it will be noticed by the housekeepers the next day.- DAY 4: This time, there is grapefruit juice, but the breakfast selection otherwise has not changed. Before we leave we request again for packets of coffee.When we return, in the evening, we have 8 packets of ... decaf' and cups, and I notice right away that the tissue box has been replaced...since it layed right there, on top of its case ( and not inside ). The glass of coca-cola was still there, where it had been left, and so was the salt and pepper.- DAY 5: out of grapefruit juice again. Breakfast selection the same again. Silverware unclean.This day we came back earlier as usual, so when we met the housekeeping manager, we took the opportunity to mention the glass of coke, that had stayed for three days now, only to be told that it was because they had assumed we wanted to finish it !!At this time, we also noticed that the sheet did not cover completely the mattress, or at least that its size made it uncover the mattress almost as soon as somebody was in bed.- LAST DAY. a picture is more than a thousand words: see picture of the glass I was handed for Breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r170885516-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>170885516</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>What a great surprise!</t>
+  </si>
+  <si>
+    <t>I recently stayed in this hotel for a week of business meetings. When I had a hard time finding the hotel I was a little leary, but was it ever a great spot! Rooms felt high end, very comfortable. Food in the restaurant and meeting rooms was terrific!! The meeting rooms were state of the art and the staff so accomodating. I have stayed at a lot of Holiday Inns but none that I enjoyed better.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r170034966-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>170034966</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Besides the Jehovah witness convention for the deaf we were extremely pleased. The reservationist Sarah was very helpful and professional. Excellent accommodations beautiful hotel. We received a free drink coupon for the bar and used it. However we arrived at 9pm and the bar, kitchen, and room service all close down at 10 pm! We ordered sandwiches for room service and it took almost an hour to receive. Poor quality food and cold.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r162833565-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>162833565</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Not great</t>
+  </si>
+  <si>
+    <t>Their fitness facility is a joke.  A couple machines for cardio and that's it.  If you are a man you won't be interested.  They charge $6 for breakfast.  Everywhere else is free but not here, they are cheap!  Air conditioning is noisy too.  Stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Keith55732, General Manager at SpringHill Suites Denton, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Their fitness facility is a joke.  A couple machines for cardio and that's it.  If you are a man you won't be interested.  They charge $6 for breakfast.  Everywhere else is free but not here, they are cheap!  Air conditioning is noisy too.  Stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r161717646-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>161717646</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>Comfort at a good price</t>
+  </si>
+  <si>
+    <t>I have stayed at this property for 3 or 4 times now. I prefer it to the other hotels in Denton even thought it is a few dollars more in price. It has a restaurant that features real eggs and fresh fruit as well as a full breakfast buffet. It also has a bar for your evening glass of wine. The rooms are well appointed, comfortable and quiet. Each time I stay here I get a good night’s sleep. The staff, especially the night manager on this trip, is always friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Keith55732, General Manager at SpringHill Suites Denton, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this property for 3 or 4 times now. I prefer it to the other hotels in Denton even thought it is a few dollars more in price. It has a restaurant that features real eggs and fresh fruit as well as a full breakfast buffet. It also has a bar for your evening glass of wine. The rooms are well appointed, comfortable and quiet. Each time I stay here I get a good night’s sleep. The staff, especially the night manager on this trip, is always friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r152345703-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>152345703</t>
+  </si>
+  <si>
+    <t>02/17/2013</t>
+  </si>
+  <si>
+    <t>Nice place in an odd location.</t>
+  </si>
+  <si>
+    <t>The hotel property is nice but getting there may be a challenge for some.  It is located well off the main highway and there was apartment construction going on all around it when we were there.  A brief hike up a hill was the best way to get to any restaurants in the area and there were not many.  The hotel rooms were nice and comfortable and the staff was friendly and courteous.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r151644127-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>151644127</t>
+  </si>
+  <si>
+    <t>02/07/2013</t>
+  </si>
+  <si>
+    <t>Friendly and Helpful staff</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 3 nights visiting Denton, Ashley the front desk clerk was very helpful, and informative.  She went out of her way to provide the service I needed and was very knowledgeable   and answered all of my questions, and saw to it that I had an easy and relaxing stay.  The rooms were lovely and I also loved the bar and restaurant's staff as well.  The hotel as and whole deserves a top rating in my book, but the rooms and Ashley at the front desk made me feel as if I were at home.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r151211306-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>151211306</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>Good service</t>
+  </si>
+  <si>
+    <t>Its good service and good people here for helpLike Ashley front desk is greart Manager Tony Hollm is always ready to work and good manager.And got good shuttle service and all.But I did not find more vegitables in breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r145407070-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>145407070</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>NASCAR Guests More Important Than Priority Club Members</t>
+  </si>
+  <si>
+    <t>I came to this property for UNT Homecoming weekend. I had booked a couple of weeks in advance and guaranteed my stay on my Visa card. After a tiring trip from the Houston area to Denton, me and my wife were flat tired and were ready to crawl into bed. To my total disbelief, when I got to the front desk to check in, I was told that my room had been sold to NASCAR guests. We along with several other guests I knew were all sent away to the LaQuinta Inn on the far north end of Denton. I watched as a room key was given to a NASCAR guest right in front of me. The front desk attendent rudely said the NASCAR guest got here earlier. Not to mention, all of the guests who were being bumped to the LaQuinta Inn just happened to be African American like me and they all were told the same thing as me. Hmmm, I guess NASCAR takes priority over Priority Club members.MoreShow less</t>
+  </si>
+  <si>
+    <t>I came to this property for UNT Homecoming weekend. I had booked a couple of weeks in advance and guaranteed my stay on my Visa card. After a tiring trip from the Houston area to Denton, me and my wife were flat tired and were ready to crawl into bed. To my total disbelief, when I got to the front desk to check in, I was told that my room had been sold to NASCAR guests. We along with several other guests I knew were all sent away to the LaQuinta Inn on the far north end of Denton. I watched as a room key was given to a NASCAR guest right in front of me. The front desk attendent rudely said the NASCAR guest got here earlier. Not to mention, all of the guests who were being bumped to the LaQuinta Inn just happened to be African American like me and they all were told the same thing as me. Hmmm, I guess NASCAR takes priority over Priority Club members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r140040727-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>140040727</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>This place sucks</t>
+  </si>
+  <si>
+    <t>No honor or integrity. I only did one star because it was required. On a scale of 1 to 10 this place is a minus 1000 ! If you book here do not  expect to get the room that you booked. I booked a jacuzzi room for our 18 th anniversary  and 50 th birthday. We showed up and were told there was no jacuzzi room available, someone wanted to stay one more night so they got our room that was booked one month earlier. The girl behind the counter said they could not kick them out. So the plans we made meant nothing to the management. Then they wanted to upgrade us but how do you upgrade to a room with out a jacuzzi. She said we could get the room the next night. Pretty bad seeing we had the room booked for two nights. I am retired military. I have honor and integrity. I would not lie about this.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at SpringHill Suites Denton, responded to this reviewResponded September 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2012</t>
+  </si>
+  <si>
+    <t>No honor or integrity. I only did one star because it was required. On a scale of 1 to 10 this place is a minus 1000 ! If you book here do not  expect to get the room that you booked. I booked a jacuzzi room for our 18 th anniversary  and 50 th birthday. We showed up and were told there was no jacuzzi room available, someone wanted to stay one more night so they got our room that was booked one month earlier. The girl behind the counter said they could not kick them out. So the plans we made meant nothing to the management. Then they wanted to upgrade us but how do you upgrade to a room with out a jacuzzi. She said we could get the room the next night. Pretty bad seeing we had the room booked for two nights. I am retired military. I have honor and integrity. I would not lie about this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r137796086-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>137796086</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Great Place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights on a business trip and couldn't ask for Better. Rooms was very clean and staff were great particularly Linda in the bar. I will stay here again when I am next in Denton. The cost of rooms were also not over expensive.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r133400908-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>133400908</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Wonderful overnight stay</t>
+  </si>
+  <si>
+    <t>I was traveling with a teenager and a senior citizen on this trip, as we stopped for a night to tour the University of North Texas. We had a small suite with two beds, two televisions &amp; a fold out couch. The couch had a decent mattress &amp; was pre-made when we folded it out. There was a heavy door between the two beds &amp; the couch &amp; the other television so that we really could watch two television shows at the same time. My son enjoyed the free wi-fi &amp; his own television, and my mom enjoyed the comfortable room &amp; wide variety of television channels available. There was a good refrigerator &amp; a microwave in the room, which was wonderful to store extra drinks for our cooler. The pool was a bit of a disappointment to my son, as it was no deeper than 4 feet at any point, so a six-foot teen couldn't even tread water. Would have been great when he was younger. The breakfast was included since I was a Priority Club member, and it was tasty. It was a buffet with made to order eggs, which was just what we needed before we left for the tour. Since check-out wasn't until 12, we were able to take the tour &amp; come back to the room to freshen up before we left town, which was wonderful since it was already in the upper 90s. The...I was traveling with a teenager and a senior citizen on this trip, as we stopped for a night to tour the University of North Texas. We had a small suite with two beds, two televisions &amp; a fold out couch. The couch had a decent mattress &amp; was pre-made when we folded it out. There was a heavy door between the two beds &amp; the couch &amp; the other television so that we really could watch two television shows at the same time. My son enjoyed the free wi-fi &amp; his own television, and my mom enjoyed the comfortable room &amp; wide variety of television channels available. There was a good refrigerator &amp; a microwave in the room, which was wonderful to store extra drinks for our cooler. The pool was a bit of a disappointment to my son, as it was no deeper than 4 feet at any point, so a six-foot teen couldn't even tread water. Would have been great when he was younger. The breakfast was included since I was a Priority Club member, and it was tasty. It was a buffet with made to order eggs, which was just what we needed before we left for the tour. Since check-out wasn't until 12, we were able to take the tour &amp; come back to the room to freshen up before we left town, which was wonderful since it was already in the upper 90s. The staff at the location was wonderful. We even saw them cleaning super-tall air-vents in the ceiling, which more places should do more often!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I was traveling with a teenager and a senior citizen on this trip, as we stopped for a night to tour the University of North Texas. We had a small suite with two beds, two televisions &amp; a fold out couch. The couch had a decent mattress &amp; was pre-made when we folded it out. There was a heavy door between the two beds &amp; the couch &amp; the other television so that we really could watch two television shows at the same time. My son enjoyed the free wi-fi &amp; his own television, and my mom enjoyed the comfortable room &amp; wide variety of television channels available. There was a good refrigerator &amp; a microwave in the room, which was wonderful to store extra drinks for our cooler. The pool was a bit of a disappointment to my son, as it was no deeper than 4 feet at any point, so a six-foot teen couldn't even tread water. Would have been great when he was younger. The breakfast was included since I was a Priority Club member, and it was tasty. It was a buffet with made to order eggs, which was just what we needed before we left for the tour. Since check-out wasn't until 12, we were able to take the tour &amp; come back to the room to freshen up before we left town, which was wonderful since it was already in the upper 90s. The...I was traveling with a teenager and a senior citizen on this trip, as we stopped for a night to tour the University of North Texas. We had a small suite with two beds, two televisions &amp; a fold out couch. The couch had a decent mattress &amp; was pre-made when we folded it out. There was a heavy door between the two beds &amp; the couch &amp; the other television so that we really could watch two television shows at the same time. My son enjoyed the free wi-fi &amp; his own television, and my mom enjoyed the comfortable room &amp; wide variety of television channels available. There was a good refrigerator &amp; a microwave in the room, which was wonderful to store extra drinks for our cooler. The pool was a bit of a disappointment to my son, as it was no deeper than 4 feet at any point, so a six-foot teen couldn't even tread water. Would have been great when he was younger. The breakfast was included since I was a Priority Club member, and it was tasty. It was a buffet with made to order eggs, which was just what we needed before we left for the tour. Since check-out wasn't until 12, we were able to take the tour &amp; come back to the room to freshen up before we left town, which was wonderful since it was already in the upper 90s. The staff at the location was wonderful. We even saw them cleaning super-tall air-vents in the ceiling, which more places should do more often!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r126902054-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>126902054</t>
+  </si>
+  <si>
+    <t>03/29/2012</t>
+  </si>
+  <si>
+    <t>Quiet location and value</t>
+  </si>
+  <si>
+    <t>Quiet location yet close to everything.  Great value.  Staff was very helpful.  Breakfast was fine.  Only complaint was the breakfast menu had eggs Benedict on the menu yet I was not able to get Egss Benedict any of the four mornings we stayed at the Holiday Inn as the kitchen didn't have hollandaise sauce any day.  It would have been an easy fix.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r124787310-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>124787310</t>
+  </si>
+  <si>
+    <t>02/18/2012</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best holiday inn I have ever stayed at. Friendly staff and beautiful property. Will Stay here anytime I visit Denton. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r121803545-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>121803545</t>
+  </si>
+  <si>
+    <t>12/16/2011</t>
+  </si>
+  <si>
+    <t>Great Staff, Great Accommodations</t>
+  </si>
+  <si>
+    <t>The hotel staff are great.  Friendly, accommodating and met all our needs.  A super place for a meeting or just to stay.  I highly recommend them.  Check them out.  We will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Keith55732, General Manager at SpringHill Suites Denton, responded to this reviewResponded December 22, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2011</t>
+  </si>
+  <si>
+    <t>The hotel staff are great.  Friendly, accommodating and met all our needs.  A super place for a meeting or just to stay.  I highly recommend them.  Check them out.  We will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r121681887-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>121681887</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>Christmas dinner party</t>
+  </si>
+  <si>
+    <t>This is a great place to have a large dinner party.  The hotel is very attractive, and the staff is  extremely friendly and accommodating.    Thanks, Donna Munoz , for your cheerfulness and willingness to make our evening a success.  The only problem was the lack of gravy and cranberry sauce on each table, but this could have been due to time constraints.  There was not much time to set up for our party due to a prior party.  Despite this glich, the food was  good.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>This is a great place to have a large dinner party.  The hotel is very attractive, and the staff is  extremely friendly and accommodating.    Thanks, Donna Munoz , for your cheerfulness and willingness to make our evening a success.  The only problem was the lack of gravy and cranberry sauce on each table, but this could have been due to time constraints.  There was not much time to set up for our party due to a prior party.  Despite this glich, the food was  good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r121677468-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>121677468</t>
+  </si>
+  <si>
+    <t>Business Christmas Event</t>
+  </si>
+  <si>
+    <t>We held our business Christmas event at the Holiday Inn and it was a total success.  The food was great and the staff was excellent.  Keith, Amber, Donna &amp; Chef took care of every detail - right down to the decorations.  Our group had a wonderful evening and everyone was impressed.  We look forward to holding events there in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>We held our business Christmas event at the Holiday Inn and it was a total success.  The food was great and the staff was excellent.  Keith, Amber, Donna &amp; Chef took care of every detail - right down to the decorations.  Our group had a wonderful evening and everyone was impressed.  We look forward to holding events there in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r120573423-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>120573423</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>This place has friendly staff and is efficient. I chose it because it has a pool and small gym. My room was bright and clean. It is just 20 mins walk to Denton from here. Breakfast is a either Buffet or a la carte and is a well presented , I had no problems sleeping and the bed and pillows were great. It has a friendly bar and is just a nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Keith55732, General Manager at SpringHill Suites Denton, responded to this reviewResponded November 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2011</t>
+  </si>
+  <si>
+    <t>This place has friendly staff and is efficient. I chose it because it has a pool and small gym. My room was bright and clean. It is just 20 mins walk to Denton from here. Breakfast is a either Buffet or a la carte and is a well presented , I had no problems sleeping and the bed and pillows were great. It has a friendly bar and is just a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r119914893-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>119914893</t>
+  </si>
+  <si>
+    <t>10/30/2011</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed in the jacuzzi suite and the room was great. It was large and very modern. The bed and pillows were comfortable, but the downfall was there was no comforter, which was a big disappointment. I didn't ask if there was one, so I don't know if they're available, but I've never stayed in a hotel that didn't have one already in the room. The bathroom was also large and the jacuzzi was great, and very relaxing. The staff was also very friendly and helpful. We were on the first floor and there was a family above us who decided to allow their children to run around their room til almost midnight, and they were extremely noisy. I called the front desk and they took care of the issue within a matter of minutes. I didn't have lunch or dinner in the restaurant but the breakfast was very good. It is also in a great location. We stayed for an event that was near by and will definitely be staying again for the event next year and trying to block out rooms for our party. We'll probably go back before that just to get away for the weekend. And if you need internet, the connection was very fast.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Keith55732, General Manager at SpringHill Suites Denton, responded to this reviewResponded November 4, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2011</t>
+  </si>
+  <si>
+    <t>My husband and I stayed in the jacuzzi suite and the room was great. It was large and very modern. The bed and pillows were comfortable, but the downfall was there was no comforter, which was a big disappointment. I didn't ask if there was one, so I don't know if they're available, but I've never stayed in a hotel that didn't have one already in the room. The bathroom was also large and the jacuzzi was great, and very relaxing. The staff was also very friendly and helpful. We were on the first floor and there was a family above us who decided to allow their children to run around their room til almost midnight, and they were extremely noisy. I called the front desk and they took care of the issue within a matter of minutes. I didn't have lunch or dinner in the restaurant but the breakfast was very good. It is also in a great location. We stayed for an event that was near by and will definitely be staying again for the event next year and trying to block out rooms for our party. We'll probably go back before that just to get away for the weekend. And if you need internet, the connection was very fast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r119146994-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>119146994</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>Great decor, Poor quality beds, linens and pillows</t>
+  </si>
+  <si>
+    <t>First impression of the hotel is updated, modern, maybe even luxurious, however this deteriorates quickly as soon as you recline on the bed. Beds are hard, unforgiving, and uncomfortable industrial beds common to many less expensive hotels. The linens are average, not soft or plush. No comforter on the bed or down (or down alternative) duvet common in better hotels. Pillows were labeled as "soft" but were anything but! They felt like they were filled with foam rubber pieces, lumpy and unyielding. I have stayed in the Best Western Premier in Denton as well as the Hilton Garden -- both hotels far surpass the quality, lack there of, found in the Holiday Inn and Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>First impression of the hotel is updated, modern, maybe even luxurious, however this deteriorates quickly as soon as you recline on the bed. Beds are hard, unforgiving, and uncomfortable industrial beds common to many less expensive hotels. The linens are average, not soft or plush. No comforter on the bed or down (or down alternative) duvet common in better hotels. Pillows were labeled as "soft" but were anything but! They felt like they were filled with foam rubber pieces, lumpy and unyielding. I have stayed in the Best Western Premier in Denton as well as the Hilton Garden -- both hotels far surpass the quality, lack there of, found in the Holiday Inn and Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r117516939-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>117516939</t>
+  </si>
+  <si>
+    <t>08/31/2011</t>
+  </si>
+  <si>
+    <t>No blankets or comforters? Shame on you!!</t>
+  </si>
+  <si>
+    <t>There was no blanket on my bed, just two sheets....the bottom one was a regular sheet and the top one was more decorative and made of some sort of synthetic...not warm. I called to have a blanket delivered and what did they bring me? Another of those flimsy toppers! I couldn't believe this was all they offered, so I called the front desk again and asked to be shown another room and, sure enough, there were the same two thin sheets on both beds. This is unacceptable!Last night I stayed at the Holiday Inn &amp; Suites in Round Rock. They had the EXACT SAME topper and in between it and the sheet was a nice, cozy comforter. That goes to show that the Denton location should have the same. Why don't they? Cutting corners, perhaps? Did they just forget? Either way it doesn't look good.Besides this issue and terribly sloooooooow internet, it was a nice facility, but I can't give a good rating to a hotel that requires me to bring my own blanket.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>Keith55732, General Manager at SpringHill Suites Denton, responded to this reviewResponded September 2, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2011</t>
+  </si>
+  <si>
+    <t>There was no blanket on my bed, just two sheets....the bottom one was a regular sheet and the top one was more decorative and made of some sort of synthetic...not warm. I called to have a blanket delivered and what did they bring me? Another of those flimsy toppers! I couldn't believe this was all they offered, so I called the front desk again and asked to be shown another room and, sure enough, there were the same two thin sheets on both beds. This is unacceptable!Last night I stayed at the Holiday Inn &amp; Suites in Round Rock. They had the EXACT SAME topper and in between it and the sheet was a nice, cozy comforter. That goes to show that the Denton location should have the same. Why don't they? Cutting corners, perhaps? Did they just forget? Either way it doesn't look good.Besides this issue and terribly sloooooooow internet, it was a nice facility, but I can't give a good rating to a hotel that requires me to bring my own blanket.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r116278314-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>116278314</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Great place  :)</t>
+  </si>
+  <si>
+    <t>Clean.  Spacious room.  Great service by friendly people.  Free shuttle service for 5 mile radius, which we used to eat at a local restaurant at the Courthouse Square area.   Pool and whirlpool were clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Keith55732, General Manager at SpringHill Suites Denton, responded to this reviewResponded August 6, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2011</t>
+  </si>
+  <si>
+    <t>Clean.  Spacious room.  Great service by friendly people.  Free shuttle service for 5 mile radius, which we used to eat at a local restaurant at the Courthouse Square area.   Pool and whirlpool were clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r116042029-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>116042029</t>
+  </si>
+  <si>
+    <t>07/30/2011</t>
+  </si>
+  <si>
+    <t>Great Value near UNT</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, well maintained hotel near UNT, on a side road to shield from highway noise. Wonderful beds, great AC in room. Excellent housekeeping staff, very gracious as well. Rooms were perfectly appointed. Fitness machines were in great condition and the fitness room was nicely appointed. Hallways and fitness room were not sufficiently cooled. Free Internet signal was poor. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Keith55732, General Manager at SpringHill Suites Denton, responded to this reviewResponded August 2, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2011</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, well maintained hotel near UNT, on a side road to shield from highway noise. Wonderful beds, great AC in room. Excellent housekeeping staff, very gracious as well. Rooms were perfectly appointed. Fitness machines were in great condition and the fitness room was nicely appointed. Hallways and fitness room were not sufficiently cooled. Free Internet signal was poor. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r110302314-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>110302314</t>
+  </si>
+  <si>
+    <t>05/28/2011</t>
+  </si>
+  <si>
+    <t>Better than it looks - give it a try</t>
+  </si>
+  <si>
+    <t>I only have positive things to say about this place. I attended a conference at the local university and therefore received a rate of $85 a night plus taxes, so it was a good deal. This Holiday Inn is well presented throughout. The foyer is lovely, elevators are clean and modern, hallways are tidy and like new, and most importantly, the rooms were also like new and well appointed for the price. There is a small fridge, iron, coffee maker, free wireless (although a bit slow), plenty of car parking and good airconditioning (allbeit a bit loud). The staff were excellent, very courteous and professional. Checkin was ultra-fast. The only slightly bad thing is the location. It's not that far away from the highway, although you can't hear it, it's just not a nice location. Saying that, most of Denton is a bit of a dump, so you won't find too many places with a better location.All in all, I would happily recommend this place to friends and family, especially if you can get a good rate, and even without it, it still seems good value. In fact, I wish I could have stayed more than 3 days. This will be hard to beat without paying 150+.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>I only have positive things to say about this place. I attended a conference at the local university and therefore received a rate of $85 a night plus taxes, so it was a good deal. This Holiday Inn is well presented throughout. The foyer is lovely, elevators are clean and modern, hallways are tidy and like new, and most importantly, the rooms were also like new and well appointed for the price. There is a small fridge, iron, coffee maker, free wireless (although a bit slow), plenty of car parking and good airconditioning (allbeit a bit loud). The staff were excellent, very courteous and professional. Checkin was ultra-fast. The only slightly bad thing is the location. It's not that far away from the highway, although you can't hear it, it's just not a nice location. Saying that, most of Denton is a bit of a dump, so you won't find too many places with a better location.All in all, I would happily recommend this place to friends and family, especially if you can get a good rate, and even without it, it still seems good value. In fact, I wish I could have stayed more than 3 days. This will be hard to beat without paying 150+.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r105398089-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>105398089</t>
+  </si>
+  <si>
+    <t>04/25/2011</t>
+  </si>
+  <si>
+    <t>worst service</t>
+  </si>
+  <si>
+    <t>this hotel does not have a good cleaning room service, more than 36 hr. to fix the room, they does not give amenities in the bathroom. bad attention to the guest</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r101641677-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>101641677</t>
+  </si>
+  <si>
+    <t>03/26/2011</t>
+  </si>
+  <si>
+    <t>Still the World's Slowest Internet - and Now with Bonus Flood Damage</t>
+  </si>
+  <si>
+    <t>I stayed here on business fall 2010 and had a very positive experience with the exception of extremely slow internet which I wrote about in a previous review. I came back for a night on business and found the same issues with the very slow internet again - this is for wifi, hard wired connection in the room, and in the computers in the business center. 
+I gave the hotel an overall positive review last time, but am not extending that to this recent stay.  The issue was not addressed and it's unacceptable for six months to go by with the same situation. This is terribly inconvenient for people like me traveling on business who need at least a semi-decent connection to get work done. 
+Additionally, the hotel experienced some type of flood on its ground floor.  The front desk had been relocated to a large conference table in the lobby, and there was wallpaper peeled up from just about the floor throughout most of the first floor.  Looked very unsightly, and there was no work that I could see to address the situation. I would imagine that once work begins the first floor will be pretty torn up in spots.   You would also think they would be proactive and mention this on their website, to at least expect things to be out of place and an expected date of completion. 
+The upper floors were fine and the quality of...I stayed here on business fall 2010 and had a very positive experience with the exception of extremely slow internet which I wrote about in a previous review. I came back for a night on business and found the same issues with the very slow internet again - this is for wifi, hard wired connection in the room, and in the computers in the business center. I gave the hotel an overall positive review last time, but am not extending that to this recent stay.  The issue was not addressed and it's unacceptable for six months to go by with the same situation. This is terribly inconvenient for people like me traveling on business who need at least a semi-decent connection to get work done. Additionally, the hotel experienced some type of flood on its ground floor.  The front desk had been relocated to a large conference table in the lobby, and there was wallpaper peeled up from just about the floor throughout most of the first floor.  Looked very unsightly, and there was no work that I could see to address the situation. I would imagine that once work begins the first floor will be pretty torn up in spots.   You would also think they would be proactive and mention this on their website, to at least expect things to be out of place and an expected date of completion. The upper floors were fine and the quality of the bed and sleep experience was again very, very good, and this Holiday Inn has one of the more modern decor schemes you will find. If you can live without internet, or at least decently functioning service, you'll probably enjoy your stay, unless construction really disrupts the main floor fixing the flood damage.MoreShow less</t>
+  </si>
+  <si>
+    <t>ILyons, Director of Sales at SpringHill Suites Denton, responded to this reviewResponded March 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2011</t>
+  </si>
+  <si>
+    <t>I stayed here on business fall 2010 and had a very positive experience with the exception of extremely slow internet which I wrote about in a previous review. I came back for a night on business and found the same issues with the very slow internet again - this is for wifi, hard wired connection in the room, and in the computers in the business center. 
+I gave the hotel an overall positive review last time, but am not extending that to this recent stay.  The issue was not addressed and it's unacceptable for six months to go by with the same situation. This is terribly inconvenient for people like me traveling on business who need at least a semi-decent connection to get work done. 
+Additionally, the hotel experienced some type of flood on its ground floor.  The front desk had been relocated to a large conference table in the lobby, and there was wallpaper peeled up from just about the floor throughout most of the first floor.  Looked very unsightly, and there was no work that I could see to address the situation. I would imagine that once work begins the first floor will be pretty torn up in spots.   You would also think they would be proactive and mention this on their website, to at least expect things to be out of place and an expected date of completion. 
+The upper floors were fine and the quality of...I stayed here on business fall 2010 and had a very positive experience with the exception of extremely slow internet which I wrote about in a previous review. I came back for a night on business and found the same issues with the very slow internet again - this is for wifi, hard wired connection in the room, and in the computers in the business center. I gave the hotel an overall positive review last time, but am not extending that to this recent stay.  The issue was not addressed and it's unacceptable for six months to go by with the same situation. This is terribly inconvenient for people like me traveling on business who need at least a semi-decent connection to get work done. Additionally, the hotel experienced some type of flood on its ground floor.  The front desk had been relocated to a large conference table in the lobby, and there was wallpaper peeled up from just about the floor throughout most of the first floor.  Looked very unsightly, and there was no work that I could see to address the situation. I would imagine that once work begins the first floor will be pretty torn up in spots.   You would also think they would be proactive and mention this on their website, to at least expect things to be out of place and an expected date of completion. The upper floors were fine and the quality of the bed and sleep experience was again very, very good, and this Holiday Inn has one of the more modern decor schemes you will find. If you can live without internet, or at least decently functioning service, you'll probably enjoy your stay, unless construction really disrupts the main floor fixing the flood damage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r92116649-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>92116649</t>
+  </si>
+  <si>
+    <t>01/07/2011</t>
+  </si>
+  <si>
+    <t>BEST HOTEL IN MY 3k Mile Trip</t>
+  </si>
+  <si>
+    <t>I try to stay at any of the newer Holiday Inn's when I can. When I arrived, the exterior fooled me. It looked new, but not like the new prototypes that I have seen while traveling, but decided to try it out anyways. Boy was I surprised. This place is only a year old, but still smells new. The styling is magnificent and modern. Also appreciated the LCD/VGA hook up so I could watch the movies on my laptop on the huge LCD TV. Never judge a book by its cover!!!!</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r83767663-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>83767663</t>
+  </si>
+  <si>
+    <t>10/16/2010</t>
+  </si>
+  <si>
+    <t>Very Nice, Modern Hotel - Beware Extremely Slow Internet</t>
+  </si>
+  <si>
+    <t>I really liked this Holiday Inn - it is very modern with a unique, upscale and cutting-edge design that will completely change your view of  a Holiday Inn if  you have not stayed in one in a while.  Very clean and comfortable. My platinum status garnered an upgrade to a suite that had a full kitchen (no oven) and reminded me of Staybridge Suites, their sister property.This hotel is not hard to find - off the Teasley Rd. exit of I-35 on a quiet street just down the street from a Hampton Inn.  5 minutes to UNT and far enough off of 35 that you hear absolutely no highway noise. I would stay here again - if they can get their Internet situation straightened out.  The wireless was useless anywhere in the hotel, and even the plug-in "high speed" connection in the room was very slow, circa 1990 or something, and the computers in the hotel business center were just as slow.  Business travelers take note of this if you have a lot of work to do using the internet or checking email.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 5, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2011</t>
+  </si>
+  <si>
+    <t>I really liked this Holiday Inn - it is very modern with a unique, upscale and cutting-edge design that will completely change your view of  a Holiday Inn if  you have not stayed in one in a while.  Very clean and comfortable. My platinum status garnered an upgrade to a suite that had a full kitchen (no oven) and reminded me of Staybridge Suites, their sister property.This hotel is not hard to find - off the Teasley Rd. exit of I-35 on a quiet street just down the street from a Hampton Inn.  5 minutes to UNT and far enough off of 35 that you hear absolutely no highway noise. I would stay here again - if they can get their Internet situation straightened out.  The wireless was useless anywhere in the hotel, and even the plug-in "high speed" connection in the room was very slow, circa 1990 or something, and the computers in the hotel business center were just as slow.  Business travelers take note of this if you have a lot of work to do using the internet or checking email.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r66420179-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>66420179</t>
+  </si>
+  <si>
+    <t>06/04/2010</t>
+  </si>
+  <si>
+    <t>Excellent hotel.</t>
+  </si>
+  <si>
+    <t>I found this hotel to be very clean, quiet, and comfortable.  The cost is a bit high, but I felt it was worth it.  The property is a bit hard to find because it is not located on the I-35 frontage road.  The parking lot is spacious and well designed.  I will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r45725186-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>45725186</t>
+  </si>
+  <si>
+    <t>10/03/2009</t>
+  </si>
+  <si>
+    <t>For the price, a free newspaper would've been nice.</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed two nights for UNT's Parents Weekend. The Hotel was clean and reasonably comfortable, but less than I expected.  It's a fairly new hotel with plenty of parking - there was also a gray fox hanging out in the parking lot the first night we stayed. Finding the hotel wasn't a problem, but ONLY because my GPS led me right to it. It is near UNT and on a short road just off the freeway so access was ok. This is not a Holiday Inn Express, so no free breakfast or newspaper. There was decent free coffee (Starbucks brew) in the room. The room was in good shape. There was a microwave and a small fridge. The TV had premium cable but no pay channels. There was a cable internet connection in the room. The bathroom was bright and clean with a curved shower curtain that had a clear panel across the top. The bathroom clothes hook was broken. There were plenty of towels, blankets, and pillows. I didn't like the pillows, they're square (not rectangular) and, while they had labels "soft" and "firm", they were all firm. On Saturday the maid made the beds and left new towels. I assume she cleaned, but she did not replenish the bathroom supplies and missed that we were nearly out of toilet paper. Bottom line: it's an adequate hotel, probably nicer than average for Denton but, for the...My daughter and I stayed two nights for UNT's Parents Weekend. The Hotel was clean and reasonably comfortable, but less than I expected.  It's a fairly new hotel with plenty of parking - there was also a gray fox hanging out in the parking lot the first night we stayed. Finding the hotel wasn't a problem, but ONLY because my GPS led me right to it. It is near UNT and on a short road just off the freeway so access was ok. This is not a Holiday Inn Express, so no free breakfast or newspaper. There was decent free coffee (Starbucks brew) in the room. The room was in good shape. There was a microwave and a small fridge. The TV had premium cable but no pay channels. There was a cable internet connection in the room. The bathroom was bright and clean with a curved shower curtain that had a clear panel across the top. The bathroom clothes hook was broken. There were plenty of towels, blankets, and pillows. I didn't like the pillows, they're square (not rectangular) and, while they had labels "soft" and "firm", they were all firm. On Saturday the maid made the beds and left new towels. I assume she cleaned, but she did not replenish the bathroom supplies and missed that we were nearly out of toilet paper. Bottom line: it's an adequate hotel, probably nicer than average for Denton but, for the price and being a Holiday Inn, I expected more.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed two nights for UNT's Parents Weekend. The Hotel was clean and reasonably comfortable, but less than I expected.  It's a fairly new hotel with plenty of parking - there was also a gray fox hanging out in the parking lot the first night we stayed. Finding the hotel wasn't a problem, but ONLY because my GPS led me right to it. It is near UNT and on a short road just off the freeway so access was ok. This is not a Holiday Inn Express, so no free breakfast or newspaper. There was decent free coffee (Starbucks brew) in the room. The room was in good shape. There was a microwave and a small fridge. The TV had premium cable but no pay channels. There was a cable internet connection in the room. The bathroom was bright and clean with a curved shower curtain that had a clear panel across the top. The bathroom clothes hook was broken. There were plenty of towels, blankets, and pillows. I didn't like the pillows, they're square (not rectangular) and, while they had labels "soft" and "firm", they were all firm. On Saturday the maid made the beds and left new towels. I assume she cleaned, but she did not replenish the bathroom supplies and missed that we were nearly out of toilet paper. Bottom line: it's an adequate hotel, probably nicer than average for Denton but, for the...My daughter and I stayed two nights for UNT's Parents Weekend. The Hotel was clean and reasonably comfortable, but less than I expected.  It's a fairly new hotel with plenty of parking - there was also a gray fox hanging out in the parking lot the first night we stayed. Finding the hotel wasn't a problem, but ONLY because my GPS led me right to it. It is near UNT and on a short road just off the freeway so access was ok. This is not a Holiday Inn Express, so no free breakfast or newspaper. There was decent free coffee (Starbucks brew) in the room. The room was in good shape. There was a microwave and a small fridge. The TV had premium cable but no pay channels. There was a cable internet connection in the room. The bathroom was bright and clean with a curved shower curtain that had a clear panel across the top. The bathroom clothes hook was broken. There were plenty of towels, blankets, and pillows. I didn't like the pillows, they're square (not rectangular) and, while they had labels "soft" and "firm", they were all firm. On Saturday the maid made the beds and left new towels. I assume she cleaned, but she did not replenish the bathroom supplies and missed that we were nearly out of toilet paper. Bottom line: it's an adequate hotel, probably nicer than average for Denton but, for the price and being a Holiday Inn, I expected more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r42225627-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>42225627</t>
+  </si>
+  <si>
+    <t>09/16/2009</t>
+  </si>
+  <si>
+    <t>Only Place To Stay In Denton</t>
+  </si>
+  <si>
+    <t>Have stayed at all the places in Denton. Thought they were all the same until i stayed here. Nice, new, clean, modern place to stay. Nice lobby area. Bar w/ nice TVs. Can get food at their grill. Pool, courtyard. I'll never stay any other place in Denton. Worth the little extra $$ you will spend to stay there.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r38964575-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>38964575</t>
+  </si>
+  <si>
+    <t>08/27/2009</t>
+  </si>
+  <si>
+    <t>Best hotel I've found in Denton, TX near University of North Texas</t>
+  </si>
+  <si>
+    <t>Very good hotel.  The best Holiday Inn Express &amp; Suites that I've stayed at.  Reflects very well what Holiday Inn is doing with their multi-million dollar upgrade plan.  Set back well from the 35E highway, so it's very quiet.  Nice bar and breakfast area.  Reasonable rates.  Van shuttle available.  My wife used it to get to and from University of North Texas when I was elsewhere with the rental car one day.  Only concern I had was that the trash can outside the side entry door didn't get emptied once during the three days I was there and was still smelling when I left.  Not the best impression when you arrive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very good hotel.  The best Holiday Inn Express &amp; Suites that I've stayed at.  Reflects very well what Holiday Inn is doing with their multi-million dollar upgrade plan.  Set back well from the 35E highway, so it's very quiet.  Nice bar and breakfast area.  Reasonable rates.  Van shuttle available.  My wife used it to get to and from University of North Texas when I was elsewhere with the rental car one day.  Only concern I had was that the trash can outside the side entry door didn't get emptied once during the three days I was there and was still smelling when I left.  Not the best impression when you arrive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r19395655-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>19395655</t>
+  </si>
+  <si>
+    <t>08/26/2008</t>
+  </si>
+  <si>
+    <t>Love it</t>
+  </si>
+  <si>
+    <t>wonderful hotel. Great service. looks all upscale!</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r15621770-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>15621770</t>
+  </si>
+  <si>
+    <t>05/03/2008</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>I was in Denton for a conference at NTU. This hotel is hard to find-the shuttle from the airport had to stop for direction a couple of times. The hotel is fine. Rooms are standard and are pretty clean. The restaurant is mildly overpriced, but the food is not too bad. The fitness room is small but adequate. Did not use the pool. The hotel was remarkably quiet. It's your average, reliable Holiday Inn. Overall the only big negative was that the whole place, including non-smoking rooms, literally reeked with smoke. Fortunately I am not allergic to cigarette smoke, but people who are should stay away from this property.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r15504501-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>15504501</t>
+  </si>
+  <si>
+    <t>04/30/2008</t>
+  </si>
+  <si>
+    <t>What a great hotel!</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  It is brand new and very clean.  This is a full service Holiday Inn not an express.  The rooms were new and clean with very modern decor.  The beds were very very comfortable and full of comfy pillows.  Since my husband and I are Priortity Club members, we were upgraded to a suite!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r7712823-SpringHill_Suites_Denton-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>7712823</t>
+  </si>
+  <si>
+    <t>05/28/2007</t>
+  </si>
+  <si>
+    <t>WOW This is a great Hotel</t>
+  </si>
+  <si>
+    <t>I booked this lovely hotel after seeing that it was less than 2 months old. I must say that being new has it's perks and benefits. First let me say that the bedding was of the best i've ever slept in with the new Down's pillows and comforters. They were huge in size. There is a restaurant at this hotel with very tasty food. Try the grill salmon, yum yum. Don't forget to get your coupon for the kids 12 yrs and under to eat free with a paying adult. Let me mention that the restaurant is only open for breakfast and dinner. And last the service personnel, They were the best. I hope this never change. They all had smiles on their faces and greet you with "How is your stay? or What can I do to make it better?"  WOW what a treat. The front desk clerk Alesha was a Gem in my book. She not only helped with directions but any other questions I asked she answered with a great smile. Thanks You Alesha you are truly one-of-a kind. I would definitely stay at this hotel again and reccomend it to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>I booked this lovely hotel after seeing that it was less than 2 months old. I must say that being new has it's perks and benefits. First let me say that the bedding was of the best i've ever slept in with the new Down's pillows and comforters. They were huge in size. There is a restaurant at this hotel with very tasty food. Try the grill salmon, yum yum. Don't forget to get your coupon for the kids 12 yrs and under to eat free with a paying adult. Let me mention that the restaurant is only open for breakfast and dinner. And last the service personnel, They were the best. I hope this never change. They all had smiles on their faces and greet you with "How is your stay? or What can I do to make it better?"  WOW what a treat. The front desk clerk Alesha was a Gem in my book. She not only helped with directions but any other questions I asked she answered with a great smile. Thanks You Alesha you are truly one-of-a kind. I would definitely stay at this hotel again and reccomend it to family and friends.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3008,6981 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>201</v>
+      </c>
+      <c r="X24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>209</v>
+      </c>
+      <c r="X25" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>216</v>
+      </c>
+      <c r="X26" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>216</v>
+      </c>
+      <c r="X27" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" t="s">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>216</v>
+      </c>
+      <c r="X28" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>238</v>
+      </c>
+      <c r="X29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>246</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>253</v>
+      </c>
+      <c r="X31" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>262</v>
+      </c>
+      <c r="X32" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" t="s">
+        <v>273</v>
+      </c>
+      <c r="K34" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" t="s">
+        <v>275</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L36" t="s">
+        <v>287</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>281</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>289</v>
+      </c>
+      <c r="J37" t="s">
+        <v>290</v>
+      </c>
+      <c r="K37" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" t="s">
+        <v>292</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J39" t="s">
+        <v>301</v>
+      </c>
+      <c r="K39" t="s">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s">
+        <v>303</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>281</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>305</v>
+      </c>
+      <c r="J40" t="s">
+        <v>306</v>
+      </c>
+      <c r="K40" t="s">
+        <v>307</v>
+      </c>
+      <c r="L40" t="s">
+        <v>308</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>281</v>
+      </c>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>311</v>
+      </c>
+      <c r="J41" t="s">
+        <v>312</v>
+      </c>
+      <c r="K41" t="s">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s">
+        <v>314</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>315</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>318</v>
+      </c>
+      <c r="J42" t="s">
+        <v>319</v>
+      </c>
+      <c r="K42" t="s">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s">
+        <v>321</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>322</v>
+      </c>
+      <c r="O42" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>324</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J43" t="s">
+        <v>326</v>
+      </c>
+      <c r="K43" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s">
+        <v>328</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>315</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>331</v>
+      </c>
+      <c r="J44" t="s">
+        <v>332</v>
+      </c>
+      <c r="K44" t="s">
+        <v>333</v>
+      </c>
+      <c r="L44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>322</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>335</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>336</v>
+      </c>
+      <c r="J45" t="s">
+        <v>337</v>
+      </c>
+      <c r="K45" t="s">
+        <v>338</v>
+      </c>
+      <c r="L45" t="s">
+        <v>339</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>322</v>
+      </c>
+      <c r="O45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>341</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>342</v>
+      </c>
+      <c r="J46" t="s">
+        <v>343</v>
+      </c>
+      <c r="K46" t="s">
+        <v>344</v>
+      </c>
+      <c r="L46" t="s">
+        <v>345</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>346</v>
+      </c>
+      <c r="O46" t="s">
+        <v>80</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>347</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47" t="s">
+        <v>349</v>
+      </c>
+      <c r="K47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s">
+        <v>351</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>352</v>
+      </c>
+      <c r="O47" t="s">
+        <v>97</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>353</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>354</v>
+      </c>
+      <c r="J48" t="s">
+        <v>355</v>
+      </c>
+      <c r="K48" t="s">
+        <v>356</v>
+      </c>
+      <c r="L48" t="s">
+        <v>357</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J49" t="s">
+        <v>361</v>
+      </c>
+      <c r="K49" t="s">
+        <v>362</v>
+      </c>
+      <c r="L49" t="s">
+        <v>363</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>364</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>365</v>
+      </c>
+      <c r="X49" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>373</v>
+      </c>
+      <c r="O50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>374</v>
+      </c>
+      <c r="X50" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>377</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>378</v>
+      </c>
+      <c r="J51" t="s">
+        <v>379</v>
+      </c>
+      <c r="K51" t="s">
+        <v>380</v>
+      </c>
+      <c r="L51" t="s">
+        <v>381</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>382</v>
+      </c>
+      <c r="O51" t="s">
+        <v>97</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>383</v>
+      </c>
+      <c r="X51" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>386</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>387</v>
+      </c>
+      <c r="J52" t="s">
+        <v>379</v>
+      </c>
+      <c r="K52" t="s">
+        <v>388</v>
+      </c>
+      <c r="L52" t="s">
+        <v>389</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>382</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>383</v>
+      </c>
+      <c r="X52" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>392</v>
+      </c>
+      <c r="J53" t="s">
+        <v>393</v>
+      </c>
+      <c r="K53" t="s">
+        <v>394</v>
+      </c>
+      <c r="L53" t="s">
+        <v>395</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>396</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>397</v>
+      </c>
+      <c r="X53" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>400</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J54" t="s">
+        <v>402</v>
+      </c>
+      <c r="K54" t="s">
+        <v>403</v>
+      </c>
+      <c r="L54" t="s">
+        <v>404</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>396</v>
+      </c>
+      <c r="O54" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>397</v>
+      </c>
+      <c r="X54" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>406</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>407</v>
+      </c>
+      <c r="J55" t="s">
+        <v>408</v>
+      </c>
+      <c r="K55" t="s">
+        <v>409</v>
+      </c>
+      <c r="L55" t="s">
+        <v>410</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>411</v>
+      </c>
+      <c r="O55" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>412</v>
+      </c>
+      <c r="X55" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>415</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>416</v>
+      </c>
+      <c r="J56" t="s">
+        <v>417</v>
+      </c>
+      <c r="K56" t="s">
+        <v>418</v>
+      </c>
+      <c r="L56" t="s">
+        <v>419</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>420</v>
+      </c>
+      <c r="X56" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>423</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>424</v>
+      </c>
+      <c r="J57" t="s">
+        <v>425</v>
+      </c>
+      <c r="K57" t="s">
+        <v>426</v>
+      </c>
+      <c r="L57" t="s">
+        <v>427</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>428</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>429</v>
+      </c>
+      <c r="X57" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>432</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>433</v>
+      </c>
+      <c r="J58" t="s">
+        <v>434</v>
+      </c>
+      <c r="K58" t="s">
+        <v>435</v>
+      </c>
+      <c r="L58" t="s">
+        <v>436</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>428</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>437</v>
+      </c>
+      <c r="X58" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>440</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>441</v>
+      </c>
+      <c r="J59" t="s">
+        <v>442</v>
+      </c>
+      <c r="K59" t="s">
+        <v>443</v>
+      </c>
+      <c r="L59" t="s">
+        <v>444</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>446</v>
+      </c>
+      <c r="X59" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>449</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>450</v>
+      </c>
+      <c r="J60" t="s">
+        <v>451</v>
+      </c>
+      <c r="K60" t="s">
+        <v>452</v>
+      </c>
+      <c r="L60" t="s">
+        <v>453</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>445</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>454</v>
+      </c>
+      <c r="X60" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>457</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>458</v>
+      </c>
+      <c r="J61" t="s">
+        <v>459</v>
+      </c>
+      <c r="K61" t="s">
+        <v>460</v>
+      </c>
+      <c r="L61" t="s">
+        <v>461</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>462</v>
+      </c>
+      <c r="O61" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>463</v>
+      </c>
+      <c r="X61" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>466</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>467</v>
+      </c>
+      <c r="J62" t="s">
+        <v>468</v>
+      </c>
+      <c r="K62" t="s">
+        <v>469</v>
+      </c>
+      <c r="L62" t="s">
+        <v>470</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>471</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>472</v>
+      </c>
+      <c r="X62" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>475</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>476</v>
+      </c>
+      <c r="J63" t="s">
+        <v>477</v>
+      </c>
+      <c r="K63" t="s">
+        <v>478</v>
+      </c>
+      <c r="L63" t="s">
+        <v>479</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>480</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>481</v>
+      </c>
+      <c r="X63" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>484</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>485</v>
+      </c>
+      <c r="J64" t="s">
+        <v>486</v>
+      </c>
+      <c r="K64" t="s">
+        <v>487</v>
+      </c>
+      <c r="L64" t="s">
+        <v>488</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>489</v>
+      </c>
+      <c r="O64" t="s">
+        <v>97</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>491</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>492</v>
+      </c>
+      <c r="J65" t="s">
+        <v>493</v>
+      </c>
+      <c r="K65" t="s">
+        <v>494</v>
+      </c>
+      <c r="L65" t="s">
+        <v>495</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>489</v>
+      </c>
+      <c r="O65" t="s">
+        <v>97</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>498</v>
+      </c>
+      <c r="J66" t="s">
+        <v>499</v>
+      </c>
+      <c r="K66" t="s">
+        <v>500</v>
+      </c>
+      <c r="L66" t="s">
+        <v>501</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>489</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>502</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>503</v>
+      </c>
+      <c r="J67" t="s">
+        <v>504</v>
+      </c>
+      <c r="K67" t="s">
+        <v>505</v>
+      </c>
+      <c r="L67" t="s">
+        <v>506</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>489</v>
+      </c>
+      <c r="O67" t="s">
+        <v>80</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>507</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>508</v>
+      </c>
+      <c r="J68" t="s">
+        <v>509</v>
+      </c>
+      <c r="K68" t="s">
+        <v>510</v>
+      </c>
+      <c r="L68" t="s">
+        <v>511</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>512</v>
+      </c>
+      <c r="X68" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>515</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>516</v>
+      </c>
+      <c r="J69" t="s">
+        <v>517</v>
+      </c>
+      <c r="K69" t="s">
+        <v>518</v>
+      </c>
+      <c r="L69" t="s">
+        <v>519</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>520</v>
+      </c>
+      <c r="O69" t="s">
+        <v>97</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>521</v>
+      </c>
+      <c r="X69" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>524</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>525</v>
+      </c>
+      <c r="J70" t="s">
+        <v>526</v>
+      </c>
+      <c r="K70" t="s">
+        <v>527</v>
+      </c>
+      <c r="L70" t="s">
+        <v>528</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>529</v>
+      </c>
+      <c r="O70" t="s">
+        <v>97</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>530</v>
+      </c>
+      <c r="X70" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>533</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>534</v>
+      </c>
+      <c r="J71" t="s">
+        <v>535</v>
+      </c>
+      <c r="K71" t="s">
+        <v>536</v>
+      </c>
+      <c r="L71" t="s">
+        <v>537</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>538</v>
+      </c>
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>539</v>
+      </c>
+      <c r="X71" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>542</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>543</v>
+      </c>
+      <c r="J72" t="s">
+        <v>544</v>
+      </c>
+      <c r="K72" t="s">
+        <v>545</v>
+      </c>
+      <c r="L72" t="s">
+        <v>546</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>538</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>547</v>
+      </c>
+      <c r="X72" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>549</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>550</v>
+      </c>
+      <c r="J73" t="s">
+        <v>551</v>
+      </c>
+      <c r="K73" t="s">
+        <v>552</v>
+      </c>
+      <c r="L73" t="s">
+        <v>553</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>554</v>
+      </c>
+      <c r="O73" t="s">
+        <v>97</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>555</v>
+      </c>
+      <c r="X73" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>558</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>559</v>
+      </c>
+      <c r="J74" t="s">
+        <v>560</v>
+      </c>
+      <c r="K74" t="s">
+        <v>561</v>
+      </c>
+      <c r="L74" t="s">
+        <v>562</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>563</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>564</v>
+      </c>
+      <c r="X74" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>567</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>568</v>
+      </c>
+      <c r="J75" t="s">
+        <v>569</v>
+      </c>
+      <c r="K75" t="s">
+        <v>570</v>
+      </c>
+      <c r="L75" t="s">
+        <v>571</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>563</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>572</v>
+      </c>
+      <c r="X75" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>575</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>576</v>
+      </c>
+      <c r="J76" t="s">
+        <v>577</v>
+      </c>
+      <c r="K76" t="s">
+        <v>578</v>
+      </c>
+      <c r="L76" t="s">
+        <v>579</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>580</v>
+      </c>
+      <c r="O76" t="s">
+        <v>97</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>581</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>582</v>
+      </c>
+      <c r="J77" t="s">
+        <v>583</v>
+      </c>
+      <c r="K77" t="s">
+        <v>584</v>
+      </c>
+      <c r="L77" t="s">
+        <v>585</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>586</v>
+      </c>
+      <c r="O77" t="s">
+        <v>97</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>587</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>588</v>
+      </c>
+      <c r="J78" t="s">
+        <v>589</v>
+      </c>
+      <c r="K78" t="s">
+        <v>590</v>
+      </c>
+      <c r="L78" t="s">
+        <v>591</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>580</v>
+      </c>
+      <c r="O78" t="s">
+        <v>97</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>592</v>
+      </c>
+      <c r="X78" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>595</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>596</v>
+      </c>
+      <c r="J79" t="s">
+        <v>597</v>
+      </c>
+      <c r="K79" t="s">
+        <v>598</v>
+      </c>
+      <c r="L79" t="s">
+        <v>599</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>600</v>
+      </c>
+      <c r="O79" t="s">
+        <v>97</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>601</v>
+      </c>
+      <c r="X79" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>604</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>605</v>
+      </c>
+      <c r="J80" t="s">
+        <v>606</v>
+      </c>
+      <c r="K80" t="s">
+        <v>607</v>
+      </c>
+      <c r="L80" t="s">
+        <v>608</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>609</v>
+      </c>
+      <c r="O80" t="s">
+        <v>97</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>610</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>611</v>
+      </c>
+      <c r="J81" t="s">
+        <v>612</v>
+      </c>
+      <c r="K81" t="s">
+        <v>613</v>
+      </c>
+      <c r="L81" t="s">
+        <v>614</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>615</v>
+      </c>
+      <c r="O81" t="s">
+        <v>70</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>616</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>617</v>
+      </c>
+      <c r="J82" t="s">
+        <v>618</v>
+      </c>
+      <c r="K82" t="s">
+        <v>619</v>
+      </c>
+      <c r="L82" t="s">
+        <v>620</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>615</v>
+      </c>
+      <c r="O82" t="s">
+        <v>97</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>621</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>622</v>
+      </c>
+      <c r="J83" t="s">
+        <v>623</v>
+      </c>
+      <c r="K83" t="s">
+        <v>624</v>
+      </c>
+      <c r="L83" t="s">
+        <v>625</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>609</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>627</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>628</v>
+      </c>
+      <c r="J84" t="s">
+        <v>629</v>
+      </c>
+      <c r="K84" t="s">
+        <v>630</v>
+      </c>
+      <c r="L84" t="s">
+        <v>631</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>632</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>633</v>
+      </c>
+      <c r="X84" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>636</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>637</v>
+      </c>
+      <c r="J85" t="s">
+        <v>638</v>
+      </c>
+      <c r="K85" t="s">
+        <v>639</v>
+      </c>
+      <c r="L85" t="s">
+        <v>640</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>641</v>
+      </c>
+      <c r="O85" t="s">
+        <v>97</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>642</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>643</v>
+      </c>
+      <c r="J86" t="s">
+        <v>644</v>
+      </c>
+      <c r="K86" t="s">
+        <v>645</v>
+      </c>
+      <c r="L86" t="s">
+        <v>646</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>647</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>649</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>650</v>
+      </c>
+      <c r="J87" t="s">
+        <v>651</v>
+      </c>
+      <c r="K87" t="s">
+        <v>652</v>
+      </c>
+      <c r="L87" t="s">
+        <v>653</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>654</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>655</v>
+      </c>
+      <c r="J88" t="s">
+        <v>656</v>
+      </c>
+      <c r="K88" t="s">
+        <v>657</v>
+      </c>
+      <c r="L88" t="s">
+        <v>658</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>659</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>660</v>
+      </c>
+      <c r="J89" t="s">
+        <v>661</v>
+      </c>
+      <c r="K89" t="s">
+        <v>662</v>
+      </c>
+      <c r="L89" t="s">
+        <v>663</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>664</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>665</v>
+      </c>
+      <c r="X89" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>668</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>669</v>
+      </c>
+      <c r="J90" t="s">
+        <v>670</v>
+      </c>
+      <c r="K90" t="s">
+        <v>671</v>
+      </c>
+      <c r="L90" t="s">
+        <v>672</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>673</v>
+      </c>
+      <c r="O90" t="s">
+        <v>80</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>665</v>
+      </c>
+      <c r="X90" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>675</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>676</v>
+      </c>
+      <c r="J91" t="s">
+        <v>670</v>
+      </c>
+      <c r="K91" t="s">
+        <v>677</v>
+      </c>
+      <c r="L91" t="s">
+        <v>678</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>673</v>
+      </c>
+      <c r="O91" t="s">
+        <v>97</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>665</v>
+      </c>
+      <c r="X91" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>680</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>681</v>
+      </c>
+      <c r="J92" t="s">
+        <v>682</v>
+      </c>
+      <c r="K92" t="s">
+        <v>683</v>
+      </c>
+      <c r="L92" t="s">
+        <v>684</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>664</v>
+      </c>
+      <c r="O92" t="s">
+        <v>97</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>685</v>
+      </c>
+      <c r="X92" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>688</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>689</v>
+      </c>
+      <c r="J93" t="s">
+        <v>690</v>
+      </c>
+      <c r="K93" t="s">
+        <v>691</v>
+      </c>
+      <c r="L93" t="s">
+        <v>692</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>693</v>
+      </c>
+      <c r="O93" t="s">
+        <v>80</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>694</v>
+      </c>
+      <c r="X93" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>697</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>698</v>
+      </c>
+      <c r="J94" t="s">
+        <v>699</v>
+      </c>
+      <c r="K94" t="s">
+        <v>700</v>
+      </c>
+      <c r="L94" t="s">
+        <v>701</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>693</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>694</v>
+      </c>
+      <c r="X94" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>703</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>704</v>
+      </c>
+      <c r="J95" t="s">
+        <v>705</v>
+      </c>
+      <c r="K95" t="s">
+        <v>706</v>
+      </c>
+      <c r="L95" t="s">
+        <v>707</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>708</v>
+      </c>
+      <c r="O95" t="s">
+        <v>70</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>709</v>
+      </c>
+      <c r="X95" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>712</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>713</v>
+      </c>
+      <c r="J96" t="s">
+        <v>714</v>
+      </c>
+      <c r="K96" t="s">
+        <v>715</v>
+      </c>
+      <c r="L96" t="s">
+        <v>716</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>717</v>
+      </c>
+      <c r="O96" t="s">
+        <v>80</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>718</v>
+      </c>
+      <c r="X96" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>721</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>722</v>
+      </c>
+      <c r="J97" t="s">
+        <v>723</v>
+      </c>
+      <c r="K97" t="s">
+        <v>724</v>
+      </c>
+      <c r="L97" t="s">
+        <v>725</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>726</v>
+      </c>
+      <c r="X97" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>729</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>730</v>
+      </c>
+      <c r="J98" t="s">
+        <v>731</v>
+      </c>
+      <c r="K98" t="s">
+        <v>732</v>
+      </c>
+      <c r="L98" t="s">
+        <v>733</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>734</v>
+      </c>
+      <c r="O98" t="s">
+        <v>97</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>736</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>737</v>
+      </c>
+      <c r="J99" t="s">
+        <v>738</v>
+      </c>
+      <c r="K99" t="s">
+        <v>739</v>
+      </c>
+      <c r="L99" t="s">
+        <v>740</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>741</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>742</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>743</v>
+      </c>
+      <c r="J100" t="s">
+        <v>744</v>
+      </c>
+      <c r="K100" t="s">
+        <v>745</v>
+      </c>
+      <c r="L100" t="s">
+        <v>746</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>708</v>
+      </c>
+      <c r="O100" t="s">
+        <v>97</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>747</v>
+      </c>
+      <c r="X100" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>750</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>751</v>
+      </c>
+      <c r="J101" t="s">
+        <v>752</v>
+      </c>
+      <c r="K101" t="s">
+        <v>753</v>
+      </c>
+      <c r="L101" t="s">
+        <v>754</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>755</v>
+      </c>
+      <c r="O101" t="s">
+        <v>97</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>756</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>757</v>
+      </c>
+      <c r="J102" t="s">
+        <v>758</v>
+      </c>
+      <c r="K102" t="s">
+        <v>759</v>
+      </c>
+      <c r="L102" t="s">
+        <v>760</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>761</v>
+      </c>
+      <c r="O102" t="s">
+        <v>97</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>762</v>
+      </c>
+      <c r="X102" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>765</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>766</v>
+      </c>
+      <c r="J103" t="s">
+        <v>767</v>
+      </c>
+      <c r="K103" t="s">
+        <v>768</v>
+      </c>
+      <c r="L103" t="s">
+        <v>769</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>770</v>
+      </c>
+      <c r="O103" t="s">
+        <v>70</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>771</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>772</v>
+      </c>
+      <c r="J104" t="s">
+        <v>773</v>
+      </c>
+      <c r="K104" t="s">
+        <v>774</v>
+      </c>
+      <c r="L104" t="s">
+        <v>775</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>776</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>778</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>779</v>
+      </c>
+      <c r="J105" t="s">
+        <v>780</v>
+      </c>
+      <c r="K105" t="s">
+        <v>781</v>
+      </c>
+      <c r="L105" t="s">
+        <v>782</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>783</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>784</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>785</v>
+      </c>
+      <c r="J106" t="s">
+        <v>786</v>
+      </c>
+      <c r="K106" t="s">
+        <v>787</v>
+      </c>
+      <c r="L106" t="s">
+        <v>788</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>783</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>790</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>791</v>
+      </c>
+      <c r="J107" t="s">
+        <v>792</v>
+      </c>
+      <c r="K107" t="s">
+        <v>793</v>
+      </c>
+      <c r="L107" t="s">
+        <v>794</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>795</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>796</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>797</v>
+      </c>
+      <c r="J108" t="s">
+        <v>798</v>
+      </c>
+      <c r="K108" t="s">
+        <v>799</v>
+      </c>
+      <c r="L108" t="s">
+        <v>800</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>801</v>
+      </c>
+      <c r="O108" t="s">
+        <v>97</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>802</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>803</v>
+      </c>
+      <c r="J109" t="s">
+        <v>804</v>
+      </c>
+      <c r="K109" t="s">
+        <v>805</v>
+      </c>
+      <c r="L109" t="s">
+        <v>806</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>801</v>
+      </c>
+      <c r="O109" t="s">
+        <v>63</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>53944</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>807</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>808</v>
+      </c>
+      <c r="J110" t="s">
+        <v>809</v>
+      </c>
+      <c r="K110" t="s">
+        <v>810</v>
+      </c>
+      <c r="L110" t="s">
+        <v>811</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>812</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>813</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_691.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_691.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="920">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Agnes Y</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I booked for 21 nights stay and in fact I am still staying here! This is the fourth nights in a row that we don’t have hot water after 7pm.  This is absolutely unacceptable!!! Our room is often found without room cleaning and soiled towels still laying around after we came back at the end of the day! It’s awful to find the room in this condition after a full day of activities. We simply want a clean and tidy hotel they we can have a hot shower at night, it is absolutely unbelievable to come across this scenario especially this is one of Marriott’s! Been complaining all along but not much the hotel did to help, hopefully we will have a clean room and hot shower for the rest of our stay, fingers x ! More</t>
   </si>
   <si>
+    <t>rocknout_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r571961308-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Minetta S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r566578836-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>This was my first stay here. The common areas and the room were nicely appointed. My bed was comfortable however the room had no tub and the lighting was poor for makeup. I left my room at 9am and returned at 10pm expecting to walk into a room that was fresh again. My room had not been serviced all day. The bed was still unmade, towels in bathroom, trash cans not emptied. I called the front desk to report it and requested some shampoo. No on delivered the shampoo or called to say they couldn't. On checkout I reported the lack of service and gave the clerk a comment card to give to the manager. I come to Denton each year in March but I'll have to think long and hard about booking here again.More</t>
   </si>
   <si>
+    <t>DJMich013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r557316162-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Reebok74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r556567522-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>I was looking for a nice hotel nearby to where I was making a quick visit. After reviewing several other hotels I settled on the Springhill Suites in Denton, TX. The location is nice, the hotel is not far from the DFW airport which was very nice because sometimes traffic is a beast. Early landing w my flight and I was again lucky to be able to check in early. The grounds and parking lot were clear of debris/litter. There was no back up with waiting to check in. The lobby was fashionable and had up to date fixtures, very chic. The front desk employee, I believe his name was Alex had great customer service. Was able to answer all questions and provided information on their amenities. I took advantage of the exercise room which was clean and had working equipment. There was also a small indoor pool available but I did not use.  The room was a big surprise; the photos didn’t do it justice. The lounge area could be converted to a room as the sofa, was a sofa bed. The main bed was comfortable. The shower head and water pressure was great! The house keeping staff and the staffers working the breakfast area were friendly. I would definitely come back for another stay and would refer friends and family to use this hotel. It turned out to be close to just about everywhere  I needed go. Over...I was looking for a nice hotel nearby to where I was making a quick visit. After reviewing several other hotels I settled on the Springhill Suites in Denton, TX. The location is nice, the hotel is not far from the DFW airport which was very nice because sometimes traffic is a beast. Early landing w my flight and I was again lucky to be able to check in early. The grounds and parking lot were clear of debris/litter. There was no back up with waiting to check in. The lobby was fashionable and had up to date fixtures, very chic. The front desk employee, I believe his name was Alex had great customer service. Was able to answer all questions and provided information on their amenities. I took advantage of the exercise room which was clean and had working equipment. There was also a small indoor pool available but I did not use.  The room was a big surprise; the photos didn’t do it justice. The lounge area could be converted to a room as the sofa, was a sofa bed. The main bed was comfortable. The shower head and water pressure was great! The house keeping staff and the staffers working the breakfast area were friendly. I would definitely come back for another stay and would refer friends and family to use this hotel. It turned out to be close to just about everywhere  I needed go. Over night I also notice a Police or security type vehicle patrolling the parking lot which gave a bit more comfort. The area did not seem to be a high crime location but for me, it’s always a relief to know that there is an extra layer of security in the area.More</t>
   </si>
   <si>
+    <t>Trina P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r556531787-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t xml:space="preserve">Always love staying here!! The staff is so accommodating and nice! The beds are beyond comfy!!  I could sleep in all day long! And the breakfast in the morning.... wow!! It was so great!! Everything was so clean and organized. Loved the service. Felt very welcoming! I will defiantly continue to come back any time I’m in the area! </t>
   </si>
   <si>
+    <t>greek632018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r556193016-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>ponchochloe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r555739344-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>I stayed at this property with my whole family for weekend. I could be happier with my decision to stay here. Rooms were very clean and the beds were comfortable. We arrived late for breakfast and general manger Justin went out of his way to ensure we were still able eat some breakfast. Front desk staff were very professional and accommodated every each od our request. They gave us room next to each other which was really important for us. We will definitely be back and recommend this hotel to our friends. Thank you for everything.</t>
   </si>
   <si>
+    <t>Amanda O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r555717662-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>This is the second time we've stayed in this hotel. The room was nice, but the breakfast was limited to cold wrapped pastries and fruit (not even coffee available) two days in a row.  The pool was FREEZING.  Room is clean, but we also asked for the room to be made up before noon so that our son could nap and the room wasn't made up, and they started drilling next door half an hour into nap time. Ugh. The first experience was similar. Not sure we'll be back.More</t>
   </si>
   <si>
+    <t>LittleBit27641</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r551641234-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>wny4ever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r549991504-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>Just returned from six night stay over Christmas. We were visiting our daughter and her family. I specifically chose this hotel for 3 reasons - 1) It’s a Marriott property, 2) location, 3) indoor pool. Upon checking on 12/21 I checked the pool. It was FRIGID! When I called earlier in the day I asked for the pool temperature and was told it was 80. WHY WAS I LIED TO? Not only I was very disappointed and frustrated, but more importantly my young grandchildren! I immediately asked desk if pool heater was working, and was told it was not heated, but only the room! I have never heard of such a thing. I asked to speak with management and was told the will be back on Tuesday after Christmas. I asked my complaint to be logged and me called by management. I was told yes they will. I couple days later I stopped in at desk and reminded them of my complaint. I was again told it would be Tuesday until response from management. I specially stated both times hat I expect management to do something or me, that is reduced rate, free nights, etc. I reminded desk that I wanted a call. On Wednesday I checked out and didn’t mention anything as I was in a hurry. WHAT KIND OF OPERATION IS MARRIOTT OPERATING IN THAT MANAGEMENT DIES NOT RESPOND TO COMPLAINTS?????!!!!More</t>
   </si>
   <si>
+    <t>dabby52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r530889967-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t>Five first cousins went to a QuickQuotes scrapbooking mini-reserve at this hotel for the weekend.  From the time we arrived to the time we left we got nothing but good, friendly service (it is Texas, after all!!!)j  The three in my car had baggage, scrapbooking tools, and walkers.  We were having a hard time getting everything moving on the luggage carrier once we arrived (there is no bellboy assistance at the hotel).  As we were started toward the doors and young man in a dark uniform came to our rescue...he was a cook!!!!  Once we got into the hotel, one of the housekeeping staff joined us.  The two helped us all the way to our room on the third floor, well above and beyond their duties.The staff everywhere in the hotel was very friendly and helpful.  QuickQuotes arranged for a couple of buffet lunches in the hotel restaurant, both of which worked out well, quick and easy for an hour lunch period.  One time we ordered drinks and food, though, and that was pretty slow...good food and drink, just took longer than it should have.All in all, a great stay!More</t>
   </si>
   <si>
+    <t>dukeroberson65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r527142604-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -429,6 +468,9 @@
     <t>As the Social Chairman for the Denton High School Class of 1967's 50th Reunion, I was tasked with securing a site for both lodging and a banquet. The SpringHill Suites in Denton provided a great location to meet all of our needs from the block of rooms to a completely catered banquet. The Marriott Corporation can be proud of this Hotel and more importantly its staff. Ms. Karla Massey assisted me in all aspects of our weekend's events from extending the bar hours for our Friday Night's meet and greet to recommendations for the banquet dinner. In addition, her staff was very courteous and friendly. If we asked for assistance, they were there to ensure our event had everything it needed with a "Can Do" attitude. The chef for our meal must also be complemented as well. The complete buffet was presented in a very professional manner and was delicious. On behalf of the DHS Class of 1967,  I want to thank the Hotel and all it's staff for helping make our Reunion a success.More</t>
   </si>
   <si>
+    <t>BouncyIsis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r519101279-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -450,6 +492,9 @@
     <t>Traveled here for business but booked my room the week before.  Due to the disaster here rooms are hard to get and prices have shot up tremendously; however, the hotel is bright, airy, clean and the staff is wonderful and very helpful.  Breakfast is free and a lot to choose from.  Evenings offer meals at cost, it has a decent and reasonable menu.  My room was clean, the bed is comfortable, as well as firm pillows. There is free Wi-F. I don't know if it is pet friendly.  There is plenty of free parking and the parking lot is well lit at night.  There is a gym and a pool.More</t>
   </si>
   <si>
+    <t>LindaSPage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r514452321-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -465,6 +510,9 @@
     <t>We stayed two nights last weekend. We have a very large two room suite. The furnishings were very nice. The bed was perfect. Extremely comfortable. We liked having so much room. The breakfast bar was excellent. Very fresh. Loved the Texas shaped waffles! Very friendly staff. Easy access to the freeway and restaurants and shopping.</t>
   </si>
   <si>
+    <t>Carrie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r504579233-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -492,6 +540,9 @@
     <t>We were in town for funeral services. We stayed two nights. The first night we needed an early check in to which they were very accommodating. However, once in our room we noticed there were greasy handprints all over the door to the bed room, the bathtub was grimy, the floor in the bathroom had tiny hairs on the floor, (yes, those kinds of hair), and splatters on the mirror. Long story short, they didn't clean the room. They simply replaced towels, soaps and such. I'm not 100% sure they changed the bedding. I asked for our room to be cleaned again. They offered to move us to another room, but we had four children with us who were already settling in from our very long drive. They "re-cleaned" the bathroom, scrubbed the tub, sweeper the floor, yet still handprints, and spit on the mirror. The second night we moved to a different room. The room was slightly cleaner. We went down to the bar area to visit with in town family, but we were extremely uncomfortable as the temperate was 78 degrees down there. We were all sweating! The food was decent and that was appreciated. The next morning as we waited for the breakfast area to open we noticed tables had not been cleaned from the day before. We went to sit down and noticed the table had syrup and crumbs all over it. The hotel is pleasing...We were in town for funeral services. We stayed two nights. The first night we needed an early check in to which they were very accommodating. However, once in our room we noticed there were greasy handprints all over the door to the bed room, the bathtub was grimy, the floor in the bathroom had tiny hairs on the floor, (yes, those kinds of hair), and splatters on the mirror. Long story short, they didn't clean the room. They simply replaced towels, soaps and such. I'm not 100% sure they changed the bedding. I asked for our room to be cleaned again. They offered to move us to another room, but we had four children with us who were already settling in from our very long drive. They "re-cleaned" the bathroom, scrubbed the tub, sweeper the floor, yet still handprints, and spit on the mirror. The second night we moved to a different room. The room was slightly cleaner. We went down to the bar area to visit with in town family, but we were extremely uncomfortable as the temperate was 78 degrees down there. We were all sweating! The food was decent and that was appreciated. The next morning as we waited for the breakfast area to open we noticed tables had not been cleaned from the day before. We went to sit down and noticed the table had syrup and crumbs all over it. The hotel is pleasing to the eye with their modern decor, however it is not well maintained. They have very young people managing the desk. It's just not clean. Oh, one last thought-we found a dead roach in the corner of our room, who had not been there the night before. At least he was dead. More</t>
   </si>
   <si>
+    <t>Dakjmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r503918798-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -513,6 +564,9 @@
     <t>Selected this hotel because it had the best price for a room big enough for my family (2 queen size bed plus a sofa bed).  Room was always clean, kids loved the pool.  Breakfast options were great (if you are staying more than one day, you don't want to eat the same thing every day and we didn't).  Bartender was very friendly.  Only downside is that there were not enough towels in the room.  When you reserve a room for 5 people, there should be 5 towels at least.  We contacted front desk and this was fixed.  The gentleman in the front desk was amazing.  I had a hard time printing some tickets for the zoo and he helped me print them from the front desk.  I would stay here again.More</t>
   </si>
   <si>
+    <t>Margaret C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r502595215-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -528,6 +582,9 @@
     <t>The hotel is very spacious - the lobby, hallways, and rooms.  The bed was quite comfortable and loved the linens. The walk-in shower was large but there was no tub, if you like a tub. The AC worked great. We were impressed with the free breakfast. They had various pastries, fruit, yogurt, eggs, sausage, and more. It was clean and well stocked.  The only complaint was a musty smell in the hallways and hot elevators. I would stay there again.</t>
   </si>
   <si>
+    <t>ButchKin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r492618601-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -552,6 +609,9 @@
     <t>I'm a bit disappointed. Arrived at room and there was trash and carpet stains outside door. Inside the couch pillows were either out of place or on the floor. The microwave was obviously burned on the outside. There was also a piece of furniture (like a dresser) missing. So there were no drawers in my room. You can see pics below. Rest of the room was fine, nothing special. Hotel is way off the beaten path in a residential neighborhood with apartments and small homes all around. Not much in the way of restaurants and no stores at all nearby. There are plenty of choices in Denton. I'll probably go somewhere else next visit.More</t>
   </si>
   <si>
+    <t>Craigh-KRPH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r492324052-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -567,6 +627,9 @@
     <t>The good:1) clean rooms2) quiet hotel3) great service4) very nice breakfast5) convenient locationThe not so good:1) design of sink makes it impossible to see yourself in mirror for shaving if you are near-sighted.  Large square / tall sink looks nice but is inconvenient for shaving.  A side shaving/makeup mirror would help.2) Parking lot lights shine directly into rooms, and curtains are NOT blackout curtains.  Could not get room dark enough for my preference.Other than the two problems noted, it was a very nice hotel for the price.</t>
   </si>
   <si>
+    <t>Lucrown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r490090400-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -582,6 +645,9 @@
     <t>Visited Denton for a wedding.  We used our room as a dressing room for the Bride and it worked beautifully.  Lots of areas to plug in hair dryers, curling wands, phones, etc.  Very roomy and spacious.  The hotel staff were very helpful, especially when it was pouring rain and we needed to keep the bride dry!  Gorgeous lobby, spacious rooms, friendly staff...all added up to a great visit.</t>
   </si>
   <si>
+    <t>themosh1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r484310124-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -601,6 +667,9 @@
   </si>
   <si>
     <t>Stayed for 1 night for UNT graduation.  This is a larger SpringHill Suites than I am used to seeing, but it seems very new, modern, clean and bright.  Staff was friendly at check-in and throughout.The first thing I noticed when I got up to my room was "wait...somebody stole the dresser".  Out of curiosity I used the "chat" function on the Marriott app and asked about it.  Within a few minutes I received a response that not having a dresser is part of the "new SpringHill Suites design", and that if I wanted to, I could stop by the front desk for "alternative clothing storage options".  Not sure what those would be, but honestly I never unpack anyway and it does make for much more space in the room. It's just something you may want to be aware of - it didn't matter to me one way or another. The room itself does have a sleeping area and a sitting area, but they are not as separated as I am accustomed to, which again was not the end of the world, just different.  It was clean, tastefully decorated, and comfortable.  The fitness center is modern and nice, on the smaller side but larger than a lot of the SpringHill Suites I have stayed in.  Overall my wife and I enjoyed our stay, and I would more than likely return if I'm in Denton again.More</t>
+  </si>
+  <si>
+    <t>nanalibrarian</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r479613353-SpringHill_Suites_Denton-Denton_Texas.html</t>
@@ -632,6 +701,9 @@
 1) the bathroom, right inside the door to the hall, has a door that opens OUT into the room. If the door is open at all you cannot get in or out of the main door. 2) all the furnishings are ultra modern, so the sink is one of those squares that sits on top of the cabinet. I measured it - 41inches from the floor to the top edge of the sink. For a 5"2" woman this made it impossible for me to spit into the sink while brushing my teeth and I resorted to spitting into the toilet. It also meant the mirror, which had very dim lighting around it that did not project out into the room, was too high and far away for me to see to put on make-up and blow dry my hair - had to go to the closet mirror in the bedroom. One short man in our group said he had to go to the bedroom closet mirror to shave. 3) since the bathroom is at the door to the...We stayed at this location one night on an 8 night bus tour of the South- our first time to stay at a SpringHill Suites. We were very disappointed at this brand which carries the Marriott name. The staff was friendly, and our first impression of the suite was WOW - then we got down to actually trying to make ourselves comfortable. 1) the bathroom, right inside the door to the hall, has a door that opens OUT into the room. If the door is open at all you cannot get in or out of the main door. 2) all the furnishings are ultra modern, so the sink is one of those squares that sits on top of the cabinet. I measured it - 41inches from the floor to the top edge of the sink. For a 5"2" woman this made it impossible for me to spit into the sink while brushing my teeth and I resorted to spitting into the toilet. It also meant the mirror, which had very dim lighting around it that did not project out into the room, was too high and far away for me to see to put on make-up and blow dry my hair - had to go to the closet mirror in the bedroom. One short man in our group said he had to go to the bedroom closet mirror to shave. 3) since the bathroom is at the door to the hall that means it is in a different room from the bedroom and a long walk for those of us who have to make a trip during the night. Some of our group left the TV on in the "sofa room" as a night light - I opened the microwave door and left it open for extra light to get to the bathroom.  4) there was not one drawer in either room - 1 wardrobe in the bedroom, 1 closet in the other room, and slatted tables that allowed small items to drop through. Not too bad for our one night stay but very inconvenient if you tried to stay a few days. 5) no kleenex - neither in the bedroom nor the bathroom- we had to use the toilet paper (which someone said was missing in his room) which wasn't very good for blowing your nose. 6) while there are ice machines on each floor there are no vending machines in the hotel - there is a small "courtesy room" off the registration desk. The selection was pathetic - 2 kinds of candy bars, a few personal hygiene items, no cola sodas, and 2-3 frozen treats. I was glad I had picked up diet coke at a convenience store stop the bus made earlier in the afternoon.I would not recommend this hotel for a family with children or shorter than average family members. We will assume that this is standard decor and floor plan for this brand and not choose it again when we have a choice. There is a lot of room in the suite but we did not find it to be comfortable and we found the annoyances to be too much to make us want to stay there again.More</t>
   </si>
   <si>
+    <t>GypsyGitanoAtHeart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r479284594-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -675,6 +747,9 @@
   </si>
   <si>
     <t>This Hotel was very Clean and a Great Staff ! It was in an excellent location to all the places we wanted to visit. I would definitely recommend it to anyone staying in the area.It was very close to the College.More</t>
+  </si>
+  <si>
+    <t>Jim D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r475381345-SpringHill_Suites_Denton-Denton_Texas.html</t>
@@ -701,6 +776,9 @@
 One surprising and much welcomed service that this hotel provides is their van, which...During a recent business trip to Denton, I stayed at the SpringHill Suites that was recommended by my hosts at the University of North Texas.  My experience was generally ok, but I was mostly not in the room except to sleep.  What was immediately evident, though, as one enters the room and begins to unpack is that there is no furniture that might hold clothing items like socks, underwear, athletic shirts, and so on.  This was the first time in my experience ever to stay in a hotel without some sort of bureau or chest of drawers.  There was a closet with hangers of course but no drawer space.  Really odd, in my humble opinion.  There was also no tissue boxes in the bathroom or anywhere else in the room.  This also was irksome. And despite what this hotel's website indicates, there is no workout room with treadmills or eliptical trainers or any other cardio equipment.  They do have a pool but if there is a workout area it's kept well-hidden.  Concerning the personnel. the staff at the front desk consists of two young women, both of whom are friendly and competent, and one young man, who is anything but.   Besides his attitude problem, which runs heavily toward contempt and indifference, his overt behavior is best characterized as snarky.   He is, in other words, a jerk.  One surprising and much welcomed service that this hotel provides is their van, which one can use for transportation in the evenings up until 9:00 pm for things like going out to a restaurant.  One of the staff will drive you there and then later come to pick you up.  Given that we did not have our own vehicle, this was a great service.So, all in all, my two-night stay in Denton was a bit unusual.   The place was clean and it does have a more expansive breakfast selection than one would find at many similar hotels (besides the usual bagel and banana, this place also serves scrambled eggs and sausage).   But overall I would not recommend SpringHill to a friend unless that had no use for a treadmill and wouldn't mind not having some drawers to store his or her underwear.More</t>
   </si>
   <si>
+    <t>Vicki G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r468189385-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -722,6 +800,9 @@
     <t>We reserved a room and needed 2 beds and a pull out sofa bed. Gave them our card and the reserved it. Told them we'd be there in half hour. Got there and they had given away our room. Asked if they could give us 2 rooms and make a price adjustment do to her error but would not. We left and went to another hotel. They were not helpful nor accommodating.  More</t>
   </si>
   <si>
+    <t>DuttaTx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r447590798-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -747,6 +828,9 @@
   </si>
   <si>
     <t>We stayed one night on our way back from Winstar casino. We were very pleased with the service and were very helpful with advice with local restaurants and attractions around Denton. The hotel is very clean and spacious and modern. Breakfast also is plenty and well stocked at all times. Only our wish they would extend the breakfast hours till at least 9:30.It is also a little tricky to find the hotel. Will stay again if we travel that way.More</t>
+  </si>
+  <si>
+    <t>Jenniferts</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r439038009-SpringHill_Suites_Denton-Denton_Texas.html</t>
@@ -794,6 +878,9 @@
 We were advised to park on the side closest to our room, but I was a bit leery because the lighting is somewhat off. There was light in the lot, but none near the door....We were in town for UNT's preview Saturday and one of the referred hotels was SpringHill Suites. We arrived around 10PM on Friday night after a very exhausting drive with lots of construction and traffic from the Houston, TX area. Needless to say, we were tired and ready for bed. Upon arrival, we are very impressed with the exterior. The inside did not disappoint, either. The hotel is very modern and clean. The lobby is fairly large. The staff was friendly. After receiving the keys, we arrived in our room and the entry way light was out. It was more of an inconvenience because I had to leave the door open while I searched for a lamp. Only one elevator was working but the other one came fairly quickly, so the wait wasn't too bad.Pros: Room was clean and spaciousRoom is very modern RefrigeratorCoffee makerMicrowave with paper plates and plastic utensils (very thoughtful)Downstairs Breakfast room is a nice size with comfortable seatingTemp in room was comfortable and unit was fairly quietCons:There is not a place to put your soap while taking a shower... very awkwardBed was uncomfortable (It's day 2 and my back is still sore)We were advised to park on the side closest to our room, but I was a bit leery because the lighting is somewhat off. There was light in the lot, but none near the door.Overall, we had a nice stay and would consider staying here in the future.More</t>
   </si>
   <si>
+    <t>Charles N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r434944590-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -818,6 +905,9 @@
     <t>The good..property is well appointed and my room was spacious, clean and comfortable.  There was an issue with some guest being stuck in one of the elevators, but it appeared to have been resolved quickly.  There is a gym with treadmills and an indoor pool (not heated). The bad..arranged for the hotel's shuttle to drop off and pick up at the UNT Stadium.  Driver told us that we'd be picked up at the drop off spot.  I called the hotel at the beginning of the 3rd quarter for a pickup but unfortunately they sent an employee with an attitude who did not know where the collection point was.  After waving goodbye to the departing team, we were finally picked up 1.5 hours after our call and were literally some of the last people to leave the stadium grounds.  Management offered us a free drink as compensation.  Not a bad value for a hotel.  The free breakfast is worth every penny I paid for it but don't expect much more than a decent room.More</t>
   </si>
   <si>
+    <t>Amber D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r422815085-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -845,6 +935,9 @@
     <t>I'm really conflicted with this review as I type it I realize there is more negative than positive so that is what led to the average rating. Pros: -The staff was very nice and accommodating to all requests. -Very generous late check out.-Helpful when the printer in the computer room wasn't working-Room was clean and comfortable.-Nice GymCons:-Apparently recently remodeled but cheaply done. For example bar in the elevator was weak (plastic) we had to hold down the flusher for the toilet until the flush was complete or it wouldn't flush completely.-When asked for breakfast service times I was given the wrong time twice for the weekends causing us to miss breakfast entirely Saturday (costing us $30 at a restaurant) and catching the tail-end scraps on Sunday. -Pool was closed our last day there, not the biggest deal but would have liked to know that ahead of time.Overall I just felt like it wasn't worth $179.99 a night we did have a few days at the group rate for a wedding and I do think it was worth that price $109.99 per night.More</t>
   </si>
   <si>
+    <t>cam0313</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r417775467-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -863,6 +956,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>enigmander</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r412780420-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -878,6 +974,9 @@
     <t>We were bringing our son to UNT and spent three nights here in late August, 2016.  We mentioned UNT when I called the hotel directly and got an exceptional rate. The cost  made this a great choice over our usual favorite, Hilton Garden Inn. That said, there were some downsides. The location was a bit farther away and the onsite restaurant stopped serving at 8 pm (quite a disappointment when we arrived, exhausted, after a long drive). I would also prefer to pay for a more varied breakfast menu than to have just a limited free option.  The room was clean and quite acceptable.</t>
   </si>
   <si>
+    <t>1shoe2many</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r397642118-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -899,6 +998,9 @@
     <t>In town one night to attend a surprise birthday party. Read every tripadvisor review on the top rated Denton hotels and chose this one. Thank you, reviewers! Our stay was so pleasant, we wished we had booked more nights. Lovely, spacious lobby &amp; friendly staff at check-in. Clean, uncluttered, nicely appointed room. Huge shower. Kicked back on the couch and relaxed with KNTU (88.1), the university's jazz station. Strong A/C and comfy bed made for a great night's sleep (bed so comfy, we missed the free breakfast). Amazingly quiet. Beautiful courtyard area for those of us who smoke (greatly appreciated, as we have been sent to the eerie bowels of the parking garage at other hotels). Nice location - short drive to the downtown area. Highly recommend!More</t>
   </si>
   <si>
+    <t>STEPHANIE G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r397012911-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -914,6 +1016,9 @@
     <t>Lobby and bar area niceElevator floor stayed dirty me entire stayI left Saturday morning and did not return for about 8 hours and my room was not cleaned at all no trash was taken out covers on my bed were just pulled up. My brother and his family stayed and their room was not cleaned or freshen up. My dad was put in a handicap room and he is not disabled</t>
   </si>
   <si>
+    <t>Marc C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r394470008-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -929,6 +1034,9 @@
     <t>I am a Marriott Rewards member and prefer to stay at their properties when available. This was an outstanding place to stay and very clean. The staff is very friendly and they do have a happy hour bar and breakfast in the AM. Great location and parking was well lighted at night.</t>
   </si>
   <si>
+    <t>Michelle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r390197428-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1055,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Bryant N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r388586803-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -962,6 +1073,9 @@
     <t xml:space="preserve">This hotel is recently renovated and everything is shiny and new. The rooms are spacious and have a comfortable feel to them. I had many interactions with the staff and they were professional, helpful, and very accommodating. They really helped to improve my stay. The breakfast was pretty good and included eggs, sausage, oatmeal, waffles, juice. Pretty good for a hotel breakfast buffet. My only improvement is one that puzzles me. There were no dressers in the hotel. We were left to just open up our suitcases on the floor and make due with that. Maybe this is a new trend in hotels. </t>
   </si>
   <si>
+    <t>Sussex_County_Hiker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r388281110-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -980,6 +1094,9 @@
     <t>I rate it as a "B+" because although it was all there it wasn't quite put together. Don't blame the staff. It was formerly a Holiday Inn of some variety. The room was huge. The bed comfortable. The staff on point and very helpful. The front desk seemed a trifle understaffed with only one person there to do everything much of the time. The breakfast was better than most. The location was excellent for my needs which is why I picked it. However somehow the overall place didn't quite click. The magic just wasn't quite there. They also offered a shuttle service to anywhere within 5 miles which is a real plus if you want to eat downtown and might not be able to drive after the meal.More</t>
   </si>
   <si>
+    <t>48traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r378001070-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1001,6 +1118,9 @@
     <t>This is a large and new property just a couple of blocks off I-35 and close to just about everything in Denton.  There must be different rooms styles available because mine was nothing like the other Springhill Suites I've stayed in.  This room was very large but with minimal furnishings - only one chair but no ottoman.  The mini-fridge and microwave were in a cabinet next to the bed.  My idea of Springhill suite has a separate living area with a sofa and table - which this definitely was not. The bath room was huge, but rather dark and with a standard shower/tub combination .  The bed was fantastic.  Wi-Fi was spotty.I may have caught the staff on a bad day because almost everyone seemed grumpy.More</t>
   </si>
   <si>
+    <t>christa m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r374073322-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1142,9 @@
     <t>We had a 2 room suite that had climate controls in each room.  They were hard to control but we figured out if we ran the heat not cooling that it was easier to keep the temp comfortably warm.  This is a beautiful hotel with new remodeling and they didn't spare any expense which was nice.  Can be a lot of walking but the convention space was nice and the food was tasty.  Great breakfast buffet.  The curtains in the rooms didn't quite come together but we were lucky to have a west facing room.  The highways and interstates are under construction every where so it is tricky to find your way only because they use different types of entrance and exits that we do in MN.  Fun city and only 30 min. from either Fort Worth or Dallas.  Went to the stockyard tourist area in Fort Worth.  Fun for a few hours and good food.More</t>
   </si>
   <si>
+    <t>Heidi H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r373128153-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1163,9 @@
     <t>4.5 StarsAnother great experience at a Spring Hill Suites!  This property was a Holiday Inn originally, but Marriott purchased it and did a total renovation.   The staff was so welcoming and accommodating, answering questions and providing assistance when possible.  Housekeeping was also great, happily providing extra towels when requested.  Seriously, everyone smiled at this hotel!This particular Spring Hill Suites has a bar &amp; grill in it that opens at 5 pm.  Excellent service AND food.  They also have a free shuttle service available, which worked out fabulously for us as we were going to a graduation at TWU and didn't want to drive.  The shuttle driver, Robin, was awesome and returned promptly, when we called, to pick us up after the graduation!  Sincere kudos to her!The room was clean and although not spacious (tight between bathroom door &amp; closet), it was comfortable.  The only reason I'm not giving 5 stars is because the shower has NO soap dish and the rooms don't have a dresser or second nightstand!  Apparently the "powers that be" at Marriott have decided these features are not needed.   Not having a soap dish is not only inconvenient, but also a safety hazard.  I would hope the "powers that be" will revisit this decision and change it!  I still highly recommend this hotel!More</t>
   </si>
   <si>
+    <t>CyderEyes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r369026476-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1055,6 +1181,9 @@
     <t>It is the second time I stay in a Marriott hotel chain and it was good experience. The Hotel is new, which means that everything is very nice. The only thing I did not like was how small and uncomfortable bathroom and little variety at breakfast. The staff is friendly, but I think they can be more energy and make each guest's stay unique.</t>
   </si>
   <si>
+    <t>hank3512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r365491849-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1202,9 @@
     <t>I stay on average 100+ nights a year on the road for business. I always bring my PS4 with me because I have downtime and I really don't watch a lot of TV. Typically I know all the tricks with how to get my console to work and actually got it to pull up on the TV in my room. Unfortunately I think they have the port blocked or something because it tells me cannot connect using SSL. For this reason I won't be staying here again. The rooms are nice and the hotel is great but this is a deal breaker. Usually I don't have this issue at Springhill.More</t>
   </si>
   <si>
+    <t>Lou Anne H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r357997125-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1091,6 +1223,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>spokes276</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r342673149-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1244,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Kim Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r341678154-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1127,6 +1265,9 @@
     <t>The hotel is under construction.  The lobby is completely torn apart and covered in plastic.  There are noisy construction crews and open doors (i.e.: drafty halls) during all working hours.  Our hot water didn't work, and we had to call down to the front desk for service.  Waited 45 minutes for service, until a staff member asked why we hadn't checked out yet.... still waiting on the water for showers.  Drains couldn't keep up with the flow of water.  The reservation indicated continental breakfast, but it wasn't mentioned at checkin and any area that it would have been held was completely torn up.  I absolutely will not return.  For the price, get a different hotel.  Have tried to contact the hotel, but it's currently being transitioned from a Holiday Inn to a Springhill Suites, and isn't listed on either of the respective sites.  More</t>
   </si>
   <si>
+    <t>2dare2dream</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r332676128-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1295,9 @@
     <t>Stayed here for my niece's graduation.  This 4-story hotel is tucked away among multi-family dwellings just a few minutes from the UNT campus.  It is currently undergoing renovation and everything is clean and new.  Rooms are large with lots of upgrades and large shower.  Booked through Hotwire, so the only drawback was the view of air conditioners on top of the roof. Cozy fireplace in lobby and complementary hot breakfast buffet.More</t>
   </si>
   <si>
+    <t>S T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r319001204-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1181,6 +1325,9 @@
     <t>The hotel is renovating the rooms.  Customer service was very good. Everyone was very helpful.  Nice selection of food at the breakfast buffet.  Nice lobby to sit and chat with friends.  The hotel lobby appearance was clean.More</t>
   </si>
   <si>
+    <t>sjn11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r316706237-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1208,6 +1355,9 @@
     <t>Front desk and restaurant/bar were all very helpful and pleasant - among the nicest I've encountered.  Shuttle service is great.Breakfast buffet was a bit 'industrial' and the room appeared to be understaffed - though the staff there seemed to be trying really hard to keep up.With a major reno currently underway, the place looks a bit chaotic.  It also tends to be rather noisy in the morning (doors seem to bang, and voices carry) - but there is no outside noise, and the rooms are clean, comfortable, and decently equipped.More</t>
   </si>
   <si>
+    <t>Ali M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r316490391-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1223,6 +1373,9 @@
     <t>I stayed here from 12th to 29th September and what a peaceful and lovely place. Rooms, breakfast, staff and bar all awesome. Shuttle service is available in hotel that can take you to places within 2 mile radius. Room was neat, clean and comfy. Recommended ;)More</t>
   </si>
   <si>
+    <t>ARB1615</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r300355812-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1250,6 +1403,9 @@
     <t>I would have given a "zero star" but that wasn't an option, so I gave them a 1 star. We stayed here several times before, and I even gave the hotel a good review in April 2015. I have changed my opinion and will never stay here again. We reserved a room on April 18 for August 15 for our son's move in day to the college dorm. It is a big weekend in Denton when the college students move in, and all of the hotels fill up. I made the reservation early to secure a room. I thought we were taken care of, but was wrong. When we showed up at the hotel at 5:30pm after loading up 2 cars with dorm room stuff and driving 4 hours we were told that we had been randomly chosen to lose our room because there wasn't enough rooms. The front desk staff told us that all the other hotels in town were full.  They said there were rooms in nearby cities (25 minute drive without considering traffic and construction on I35.) They didn't apologize or explain why our reservation was not being honored while they were still checking in people who came in after us. We were just standing there - a nervous college freshman, 2 parents and 2 cars full of dorm supplies - while the front desk staff checked in people arriving after us. A woman behind us in...I would have given a "zero star" but that wasn't an option, so I gave them a 1 star. We stayed here several times before, and I even gave the hotel a good review in April 2015. I have changed my opinion and will never stay here again. We reserved a room on April 18 for August 15 for our son's move in day to the college dorm. It is a big weekend in Denton when the college students move in, and all of the hotels fill up. I made the reservation early to secure a room. I thought we were taken care of, but was wrong. When we showed up at the hotel at 5:30pm after loading up 2 cars with dorm room stuff and driving 4 hours we were told that we had been randomly chosen to lose our room because there wasn't enough rooms. The front desk staff told us that all the other hotels in town were full.  They said there were rooms in nearby cities (25 minute drive without considering traffic and construction on I35.) They didn't apologize or explain why our reservation was not being honored while they were still checking in people who came in after us. We were just standing there - a nervous college freshman, 2 parents and 2 cars full of dorm supplies - while the front desk staff checked in people arriving after us. A woman behind us in line said she made her reservation 3 weeks ago and she was given a room. The manager on duty, Rose, was not helpful or even apologetic. I would suggest some more training for hotel front desk staff and management. Nobody even offered us a glass of water or a paid night at another hotel for that night. One front desk clerk said we could stay in a hotel in Lewisville and handed me the phone to pay for that new room. We had an 8am move in time for the dorm for the next day and didn't want to drive back towards Lewisville in the dead stopped traffic now, or drive back to Denton early in the morning. We wanted the hotel to be responsible and honor our reservation. It shouldn't be that hard. Overbooking during a big weekend like this when patrons have no other hotel options if you bump them is not acceptable.  I will never stay at this hotel again and will not recommend it to anyone. What use is it to make a reservation just to have the hotel not hold the reservation? I'll tell you, it is no use at all. I'll stay else where during the next four years my student is in Denton.Holiday Inn has lost my business.More</t>
   </si>
   <si>
+    <t>ColesDad1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r300082367-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1268,6 +1424,9 @@
     <t>This place does not resemble at hotel at this time.Too much construction and filthy workers hanging about.They should shut down the hotel and finish the work and reopen.I don't have a clue why they have not finished the up dating by now.I don't know who is running the show but they need to be fired.I won't be staying here again unless the work has been completed.More</t>
   </si>
   <si>
+    <t>Renee' L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r294219908-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1295,6 +1454,9 @@
     <t>A friend and I stayed there a few nights during the LexiCon Writers' Conference in July, 2015. The beds were very comfortable, the food was wonderful (The best breakfast I've EVER had at a hotel, anywhere), decent parking spaces, and when I had to call and ask for more lighting, (because we are writers and we need to protect our vision), it wasn't long before maintenance was upstairs with extra lights, lightbulbs, etc. The pool was a bit smaller than I would have preferred, but it was good enough for me to work out the tight muscles in my lower back. The location of the room was terrific, the elevators were quick, and the conference area of the hotel was wonderfully arranged. I had a wonderful time. I even lost two pounds while I was there!! At a conference!! Unbelievable!!More</t>
   </si>
   <si>
+    <t>the_rev_jjk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r279632600-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1319,6 +1481,9 @@
     <t>Stayed at this property for a two week training. Great location, very clean rooms, tasty breakfast too. There is a free shuttle provided by the hotel that takes you anywhere within 5 miles of the property and it was outstanding. Big shout out to Robin who works the front desk and drives the shuttle. She was very kind, and very knowledgeable about the area. She seemed to really enjoy what she was doing and it showed. Highly recomend this place if in the Denton area.More</t>
   </si>
   <si>
+    <t>Allrosewood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r272988726-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1346,6 +1511,9 @@
     <t>Very clean, comfortable, new facility. Plenty of safe parking. Convenient to the square &amp; the university. Can walk to a few restaurants too. Family friendly. Indoor pool was busy all the time. Air conditioner unit works really well!! Not very helpful at front desk. Breakfast costs.More</t>
   </si>
   <si>
+    <t>cannonball3804</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r272524399-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1565,9 @@
     <t>Looked liked a normal small Holiday Inn from the outside, but was amazed at how nice the lobby and seating area was compared to other small hotels. There is a small bar and small restaurant, which added a lot to my good opinion of the hotel. Everything was clean and new looking. Nice fireplace in the lobby and even an outdoor patio area with tables. Our room was clean and nicely appointed. The beds were very comfortable and the pillows were GREAT! Best pillows I have had in a hotel in years (actually support your head!) Bathroom had everything we needed including a hair dryer. Breakfast was included in our stay. The breakfast buffet included scrambled eggs, bacon, biscuits, yogurt, toast, pastries, milk, cereal, fruit, and you can make your own waffles. There was also a menu where you could order omelets, oatmeal, and even pancakes at very inexpensive prices. The hotel was very relaxing. Liked it so much we plan to stay here the next time we are in the area. Also, would like to thank the very nice front desk clerk who checked us in. She was extremely friendly and helpful.More</t>
   </si>
   <si>
+    <t>TXGirl72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r267236444-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1421,6 +1592,9 @@
     <t>Only stayed for one night, but will return when we're the area again later this year. Clean, comfortable room. Super nice staff. Breakfast buffet was great. I understand that this property will soon be a Marriott so you'll need to book by address not brand name.More</t>
   </si>
   <si>
+    <t>SunRav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r260799194-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1448,6 +1622,9 @@
     <t>Fairly well connected to important establishments in Denton and close to UNT and Denton University , this place is right parallel to I35E and few seconds down the exit. I was here for a night when I travelled for business. Plush large rooms with great views and they serve decent food at their restaurant.More</t>
   </si>
   <si>
+    <t>Tinais43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r256232982-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1475,6 +1652,9 @@
     <t>We stayed there for UNT preview weekend. It is a very nice looking hotel and we found it very clean. The breakfast was delicious and we used the pool. We have no complaints. The staff was nice and the housekeeping staff on the 3rd floor do an excellent job. Our room was super clean. Hotel Impossible guy would be proud.More</t>
   </si>
   <si>
+    <t>NOLAgal2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r247278132-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1502,6 +1682,9 @@
     <t>The hotel staff was very friendly and helpful. The dining room was very understaffed for breakfast but the waitress kept her cool and was professional, even when patrons were fussing about how long everything was taking.  The room and hallway were very cold (thermostat read 68). Setting the thermostat at 76 barely brought the heat on for a few minutes. Only way to stay warm was to get under the covers. Since the hallway was also colder than the rest of the hotel, I wonder if the heat in that section was not functioning well. Other than that, the room was comfortable and clean.More</t>
   </si>
   <si>
+    <t>hd02fatboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r242547344-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1523,6 +1706,9 @@
     <t>Very clean and nice atmosphere. The hotel is a couple blocks off the main road, so area was quiet and appeared to be a nice neighborhood. The staff was very friendly and courteous to say the least.  The snack bar of items to purchase was very convent. Prices a bit high, but that seems to be expected.  The only issue I see and its minor had to do with breakfast. This is the first Holiday Inn express that I've stayed in that has a waitress/waiter combo buffet type of breakfast. Almost everyone eating breakfast was unsure if there breakfast was included in the reservation price or if they had to pay the price on breakfast sign displayed in lobby. My reservation did clearly state mine was included. The waitress seem to be handle all the request just fine.More</t>
   </si>
   <si>
+    <t>TheHungryDetective</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r239929055-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1541,6 +1727,9 @@
     <t>I stayed here for two weeks during a recent business trip. This place is a great hotel and will stay here in on future trips. CLEAN is an understatement...It smells wonderful as you enter the main lobby and entrance as you are greeted a beautiful stone fire place centered around soft chairs and mini sofas. I would relax with my laptop and beverage in front of the fire place relaxing and working. Great king/suite bedroom with fresh towels, internet, fridge, ironing board/iron, dry cleaning service with bathroom amenities to include blow dryer. Super comfortable bed with perfect king size pillows. SAFE area for walks!!! Walking distance to dinner spots!!!P.S. BREAKFAST is off the hook served up every morning at 6:30 AM...eggs, bacon, sausage, biscuits/gravy, waffles, fresh fruit...great fresh coffee!!!There is a park(South Lake Park) less than a mile from the hotel with paved walking trails, pond, tennis courts, basketball court and the biggest jungle gym for children that I have ever seen.VERDICT: The total package at the Holiday Inn!!!Robyn(Front Desk Clerk) went above and beyond the call of duty in her recommendation of Denton restaurants and nightlife!!!More</t>
   </si>
   <si>
+    <t>Graciedottie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r239292926-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1556,6 +1745,9 @@
     <t>No complaints here.  Check-in was fast and easy and we even received a call about 20 minutes later from the front desk making sure that everything was good with our room, which it was was.  The room, like all of the other areas of the hotel was clean with modern furnishings.  We appreciated the in-room microwave and refrigerator and the free wifi worked great.  My toddler enjoyed the indoor pool and we all thought the hotel restaurant's food was tasty and reasonably priced.  The convenience of an on-site restaurant was a plus for both dinner and breakfast.  We would stay here again.</t>
   </si>
   <si>
+    <t>OKflowergal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r238524949-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1761,9 @@
   </si>
   <si>
     <t>Our stay was very nice at this hotel however when we wanted to eat off the menu in the dining room we had to get the girl to wait on us then we had to eat with cheap plastic utensils. We did not find this very nice in a hotel like this. They had a banquet come in night before but would think they had dishwashers.</t>
+  </si>
+  <si>
+    <t>Steven S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r220240126-SpringHill_Suites_Denton-Denton_Texas.html</t>
@@ -1599,6 +1794,9 @@
 The nice ladies...I stay in hotels 18 out of 30 days a month. I know what's average. I know what's nicer than average. I know this place on the outside looks great. Once you step inside, things change a little bit. The nice young ladies at the front desk are more than helpful and efficient. They put my IHG # and realized I was a super triple platinum or whatever the highest tier is for their rewards program. Suddenly, VOILA! A free drink coupon! How excellent. Thank you. My room is nice, spacious, everything works, clean. I meet my coworkers at the bar and order my FREE DRINK! A Shiner bock, domestic deliciousness, made right here in beautiful Texas. It is so good, I have another. It's been a long hot day of work. When the bartender presents my tab, I give her my FREE DRINK COUPON, which states "good for one domestic beer or glass of house wine". She informs me that Shiner is not a domestic beer.... Now hold on pardner. Y'all are telling me that a beer that is made in the state of Texas and is served in the state of Texas is considering an import? We'll BURN MY BRITCHES!  I'm not rightly sure where all y'all get yer funny ideas, but in the rest of the world a beer that is made locally is what we call local or domestic. All right, enough rambling. The nice ladies at the front desk offer us a shuttle to the Square where we get a burger and a bite, (including more of them fancy import Shiner beers). Thank you ladies for the recommendation. Upon our return, I figure they forgot to give me my free breakfast coupon, after all I am basically the Prince of IHG, being a platinum super gold triple high life member and all. So I ask the gals at the front desk for my free breakfast coupon. I am informed that I am not entitled to that. "We don't give free breakfast."  Ummm, we have 6 rooms here tonight, my company books rooms here all the time, and no go on the breakfast?  Nope, sorry sir. Arrgh, whatever. This morning my belly is rumbling. I need some food. So I head down. I ask the young gal who happens to be the only one working if the buffet is the only option. She states yes. So I tell her buffet for one. Before I sit down I head to the buffet and find some eggs that are not powdered eggs (YES!) a croissant (YES!) and some sausage that looks like it's been sitting out for at least a week. Side note: Ever seen one of those YouTube videos of Mcdonalds hamburgers sitting out for a year and still looking the same as the day it was served?) Yea, that's what the sausage looked like. Decided not to try it. Well I got back to my table and sat down and what did I find? A breakfast menu!  ARRGggghhh! I could have had a freshly cooked breakfast. I asked the waitress why she didn't tell me there was a menu to order off of? She must have misunderstood me. Ah dang it. She brings my coffee, I begrudgingly eat my stale cold eggs and cold hard potatoes. I ask her for a warm up of my coffee. Now when you ask for a warm up on your coffee, what are you expecting?  .......She takes my half cup of coffee away, is gone for a couple of minutes, and brings my half cup of coffee back to me scalding hot. Ummmm, that's not exactly what I was thinking. I really just wanted you to... Oh never mind. So you see, beauty is in the eyes of the beholder. The hotel is very nice on the outside. And it's very nice on the inside. But a building is only part of the experience. What matters most to people like me is the interaction, the food, the people, the value. I gotta tell you, I'm not seeing the value at this hotel. The food? Fuuuget about it! The people? Well, the only experience I've had has been with nice, young, cute girls my daughters age, who likely are all on their first summer job. They are all very sweet, but they don't really know much about running a hotel. Will I stay here again?  Yes. I have no choice. This hotel is on my company's list of hotels to stay in when we are in this area ( International medevac flight team). Will I eat here again? I'll give you three guesses. Will I order a real domestic beer for free next time, like a Miller Lite? Come on, who drinks that garbage?  The 2 Buck Chuck is gonna have to do.  Insure hope your experience is better than mine. More</t>
   </si>
   <si>
+    <t>texasbrian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r215912229-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1626,6 +1824,9 @@
     <t>Seriously impressed. Didn't think I'd come across such a nice hotel in Denton (no offense, Dentonians!), but this HI really blew me away.It's obviously new construction, but there were still very nice touches. The lobby was breathtaking with a huge fireplace filling the room. All the modern conveniences were there: free wifi, mini fridge, a super-comfy bed with the best pillows ever, a shower that gets hot and stays hot with that all-important water pressure.Three things keep this from being a 5-star recommendation: (1) On Day 2 of my stay, I left my room at 8 a.m. and returned at 5 p.m.... and the room was never cleaned. That's odd because it had been cleaned before.(2) The bathroom door either had to stay closed fully, or be wide open. The door kept swinging open ads though the ground weren't level.(3) A modern hotel like this should have more outlets! In addition, USB outlets would be the right thing to do.More</t>
   </si>
   <si>
+    <t>csgro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r204935292-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1653,6 +1854,9 @@
     <t>I recently had to stay here for two weeks for work. Everyone was so incredibly friendly, especially the young men and woman working at night in the restaurant. Everything was extremely clean and comfortable. My only concern was that there was no AC in the gym, and I saw some health code sign hanging that the pool was closed. I don't swim in hotel pools so I really can't rate it, but it definitely stood out to me that it was closed for health.More</t>
   </si>
   <si>
+    <t>JenAMc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r188698357-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1680,6 +1884,9 @@
     <t>I stayed at this Holiday Inn property for one night, and I must preface this review by saying that I am giving it five stars, first of all, as a hats-off to the ICH brands because of their stellar loyalty rewards program. I stayed for free due to the fact that their loyalty points do not expire. This is the best rewards program of any kind that I am aware of, and I am also a member of Hilton, Omni, and Best Western. There were no additional treats (complimentary bottle of water upon arrival, etc) but I was still very happy to enjoy my King Room for no charge.  The location is near the interstate, but entry is rather odd, since the property is tucked away within some student apartment complexes. Still, I only had to drive about three miles parallel to the interstate to get to my social destination that evening at The Pourhouse Grille. The room was clean and the staff was quite friendly and helpful. There was a sofa and table in my room, which I most enjoyed using. I hate to have to sit on a bed to work.  My room was quiet and the hotel sundries store was well stocked.  I have stayed in more opulent accommodations in more interesting settings, but this hotel was exactly what I needed for one night. The lobby is very inviting, by the way, complete with a sitting area...I stayed at this Holiday Inn property for one night, and I must preface this review by saying that I am giving it five stars, first of all, as a hats-off to the ICH brands because of their stellar loyalty rewards program. I stayed for free due to the fact that their loyalty points do not expire. This is the best rewards program of any kind that I am aware of, and I am also a member of Hilton, Omni, and Best Western. There were no additional treats (complimentary bottle of water upon arrival, etc) but I was still very happy to enjoy my King Room for no charge.  The location is near the interstate, but entry is rather odd, since the property is tucked away within some student apartment complexes. Still, I only had to drive about three miles parallel to the interstate to get to my social destination that evening at The Pourhouse Grille. The room was clean and the staff was quite friendly and helpful. There was a sofa and table in my room, which I most enjoyed using. I hate to have to sit on a bed to work.  My room was quiet and the hotel sundries store was well stocked.  I have stayed in more opulent accommodations in more interesting settings, but this hotel was exactly what I needed for one night. The lobby is very inviting, by the way, complete with a sitting area with fireplace. I wish I'd had more time, as I would've enjoyed sitting by the fire and reading a book on that cold evening.  Anyway, I felt safe and secure throughout my stay. One thing, the cable didn't work at first on the TV, but when I alerted the desk clerk, he explained that the system had been upgraded hotel-wide and told me what to do, while also offering to come to my room and re-set it for me. It was an easy fix, so I did it myself.  There is a restaurant and bar in this hotel, but I never needed those services. I recommend this property as being just fine, if you need to stay near the University area of Denton,.More</t>
   </si>
   <si>
+    <t>Pat S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r188323683-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1701,6 +1908,9 @@
     <t>Perfect place to stay for TWU graduation.  Quiet, clean and very friendly staff.  Great breakfast but you do have to pay for it.  It is well worth the price. Fresh coffee available all day.  Would stay here again.More</t>
   </si>
   <si>
+    <t>John_crudeoil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r185010102-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1728,6 +1938,9 @@
     <t>I had not stayed at a Holiday Inn for several years. I've stayed at other brands in the IC Hotels group, but had given up on Holiday Inn due to the other brands were newer and a better deal.I will re-think that - due to my very good stay at this Holiday Inn. The property is fairly new and fresh. Location is very quiet and safe - it is a few blocks off I-35 in an area of student apartments for UNT. The rooms are clean, good AC/Heat even though it is the under-the-window type unit. Real tile bathroom, mini-fridge, microwave. The front desk had my check-in ready. The restaurant was short-handed the next morning so they improvised with a buffet breakfast - on the house!  Real scrambled eggs and bacon, etc. Can recommend staying here. It is a quiet, very clean, great service hotel in a good location.More</t>
   </si>
   <si>
+    <t>nat1225</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r180340278-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1753,6 +1966,9 @@
   </si>
   <si>
     <t>We stayed overnight as part of the Komen Race for the Cure. The hotel staff was both welcoming and professional. I had forgotten toothpaste but by going to the front desk at 4:30AM I was able to solve that problem. The hotel was on a side street and, initially, hard to find but, once there, was easy to return to that evening. The room was comfortable and served our needs beautifully. The hotel is near the University of North Texas campus and I would recommend this property for anyone staying overnight in the Denton area.More</t>
+  </si>
+  <si>
+    <t>sylviegnyk</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r177309593-SpringHill_Suites_Denton-Denton_Texas.html</t>
@@ -1787,6 +2003,9 @@
 When we return, in the evening: the coffee pot had not been clean, not Turned off, and still no cups, but also no coffee packets. We call again only to be told, again, that the desk person was by herself ( she was wiling to help), and therefore nobody could come. So my husband goes...I have been in many hotels and of all types, from the fanciests ( business trips) to more modest ones. I had also previous stays at other Holiday Inns that were satisfactory.This one has been such a bad experience that I don't know where to start from, and will try to keep factual; I will however stress that the staff was very nice, and all the issues we had seem more due to very poor management than anything.- DAY 1 ( arrival day) room appeared nice and clean. There was a coffee pot, but when my husband tried to make coffee he noticed there was no cup. He called the desk to ask for cups but was told there was not enough staff and that he had to come down and get some. He proceeded to use the plastic glasses, by doubling them. - DAY 2: my husband goes down to get a coffee cup before breakfast. Breakfast OK, but not much choice. Anyway, before leaving for the day we let the staff know that we were missing coffee cups in the room.When we return, in the evening: the coffee pot had not been clean, not Turned off, and still no cups, but also no coffee packets. We call again only to be told, again, that the desk person was by herself ( she was wiling to help), and therefore nobody could come. So my husband goes for a cup and a coffee packet.Room service: one of the dishes I wanted to order, they were out of, and I had to order another one. The same thing happened to one of our friends who travelled with us, in another room, and for another dish. We were told to leave the tray in front of the door, as per common usage, which we did.- DAY 3: I almost tripped on the tray that had not been picked up. This time, for breakfast, they were out of grapefruit juice. The breakfast selection was the same as the day before. This time also, the plates were already greasy and my friend's glass had dried OJ pulp on it. We mention again before leaving, that there had been no cups, and no coffee packets. This time, our contact was the manager himself who was on duty at the desk.When we return, in the evening, the room had cups but still no coffee packets. Coffee pot from the eve had not been cleaned once again.We also notice that the half-full glass of CocaCola from the eve's room service had not been picked up ( we had forgotten to put it back in the tray), nor were the salt and pepper. The tissue box in the bathroom was now empty. Learning from experience, I chose to take it out its case, and display it on top of it to be sure it will be noticed by the housekeepers the next day.- DAY 4: This time, there is grapefruit juice, but the breakfast selection otherwise has not changed. Before we leave we request again for packets of coffee.When we return, in the evening, we have 8 packets of ... decaf' and cups, and I notice right away that the tissue box has been replaced...since it layed right there, on top of its case ( and not inside ). The glass of coca-cola was still there, where it had been left, and so was the salt and pepper.- DAY 5: out of grapefruit juice again. Breakfast selection the same again. Silverware unclean.This day we came back earlier as usual, so when we met the housekeeping manager, we took the opportunity to mention the glass of coke, that had stayed for three days now, only to be told that it was because they had assumed we wanted to finish it !!At this time, we also noticed that the sheet did not cover completely the mattress, or at least that its size made it uncover the mattress almost as soon as somebody was in bed.- LAST DAY. a picture is more than a thousand words: see picture of the glass I was handed for Breakfast.More</t>
   </si>
   <si>
+    <t>Gayle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r170885516-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1805,6 +2024,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Alexis R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r170034966-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1823,6 +2045,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Jim J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r162833565-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1847,6 +2072,9 @@
     <t>Their fitness facility is a joke.  A couple machines for cardio and that's it.  If you are a man you won't be interested.  They charge $6 for breakfast.  Everywhere else is free but not here, they are cheap!  Air conditioning is noisy too.  Stay somewhere else.More</t>
   </si>
   <si>
+    <t>Ann V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r161717646-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1874,6 +2102,9 @@
     <t>I have stayed at this property for 3 or 4 times now. I prefer it to the other hotels in Denton even thought it is a few dollars more in price. It has a restaurant that features real eggs and fresh fruit as well as a full breakfast buffet. It also has a bar for your evening glass of wine. The rooms are well appointed, comfortable and quiet. Each time I stay here I get a good night’s sleep. The staff, especially the night manager on this trip, is always friendly and helpful.More</t>
   </si>
   <si>
+    <t>ccpillow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r152345703-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1892,6 +2123,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Gerry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r151644127-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1910,6 +2144,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Dilip G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r151211306-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1925,6 +2162,9 @@
     <t>Its good service and good people here for helpLike Ashley front desk is greart Manager Tony Hollm is always ready to work and good manager.And got good shuttle service and all.But I did not find more vegitables in breakfast.</t>
   </si>
   <si>
+    <t>Marcus H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r145407070-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1943,6 +2183,9 @@
     <t>I came to this property for UNT Homecoming weekend. I had booked a couple of weeks in advance and guaranteed my stay on my Visa card. After a tiring trip from the Houston area to Denton, me and my wife were flat tired and were ready to crawl into bed. To my total disbelief, when I got to the front desk to check in, I was told that my room had been sold to NASCAR guests. We along with several other guests I knew were all sent away to the LaQuinta Inn on the far north end of Denton. I watched as a room key was given to a NASCAR guest right in front of me. The front desk attendent rudely said the NASCAR guest got here earlier. Not to mention, all of the guests who were being bumped to the LaQuinta Inn just happened to be African American like me and they all were told the same thing as me. Hmmm, I guess NASCAR takes priority over Priority Club members.More</t>
   </si>
   <si>
+    <t>Dan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r140040727-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1970,6 +2213,9 @@
     <t>No honor or integrity. I only did one star because it was required. On a scale of 1 to 10 this place is a minus 1000 ! If you book here do not  expect to get the room that you booked. I booked a jacuzzi room for our 18 th anniversary  and 50 th birthday. We showed up and were told there was no jacuzzi room available, someone wanted to stay one more night so they got our room that was booked one month earlier. The girl behind the counter said they could not kick them out. So the plans we made meant nothing to the management. Then they wanted to upgrade us but how do you upgrade to a room with out a jacuzzi. She said we could get the room the next night. Pretty bad seeing we had the room booked for two nights. I am retired military. I have honor and integrity. I would not lie about this.More</t>
   </si>
   <si>
+    <t>Paul G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r137796086-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1988,6 +2234,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>wcbandmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r133400908-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2009,6 +2258,9 @@
     <t>I was traveling with a teenager and a senior citizen on this trip, as we stopped for a night to tour the University of North Texas. We had a small suite with two beds, two televisions &amp; a fold out couch. The couch had a decent mattress &amp; was pre-made when we folded it out. There was a heavy door between the two beds &amp; the couch &amp; the other television so that we really could watch two television shows at the same time. My son enjoyed the free wi-fi &amp; his own television, and my mom enjoyed the comfortable room &amp; wide variety of television channels available. There was a good refrigerator &amp; a microwave in the room, which was wonderful to store extra drinks for our cooler. The pool was a bit of a disappointment to my son, as it was no deeper than 4 feet at any point, so a six-foot teen couldn't even tread water. Would have been great when he was younger. The breakfast was included since I was a Priority Club member, and it was tasty. It was a buffet with made to order eggs, which was just what we needed before we left for the tour. Since check-out wasn't until 12, we were able to take the tour &amp; come back to the room to freshen up before we left town, which was wonderful since it was already in the upper 90s. The...I was traveling with a teenager and a senior citizen on this trip, as we stopped for a night to tour the University of North Texas. We had a small suite with two beds, two televisions &amp; a fold out couch. The couch had a decent mattress &amp; was pre-made when we folded it out. There was a heavy door between the two beds &amp; the couch &amp; the other television so that we really could watch two television shows at the same time. My son enjoyed the free wi-fi &amp; his own television, and my mom enjoyed the comfortable room &amp; wide variety of television channels available. There was a good refrigerator &amp; a microwave in the room, which was wonderful to store extra drinks for our cooler. The pool was a bit of a disappointment to my son, as it was no deeper than 4 feet at any point, so a six-foot teen couldn't even tread water. Would have been great when he was younger. The breakfast was included since I was a Priority Club member, and it was tasty. It was a buffet with made to order eggs, which was just what we needed before we left for the tour. Since check-out wasn't until 12, we were able to take the tour &amp; come back to the room to freshen up before we left town, which was wonderful since it was already in the upper 90s. The staff at the location was wonderful. We even saw them cleaning super-tall air-vents in the ceiling, which more places should do more often!More</t>
   </si>
   <si>
+    <t>Tiz56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r126902054-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2024,6 +2276,9 @@
     <t>Quiet location yet close to everything.  Great value.  Staff was very helpful.  Breakfast was fine.  Only complaint was the breakfast menu had eggs Benedict on the menu yet I was not able to get Egss Benedict any of the four mornings we stayed at the Holiday Inn as the kitchen didn't have hollandaise sauce any day.  It would have been an easy fix.</t>
   </si>
   <si>
+    <t>Kbarker10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r124787310-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2039,6 +2294,9 @@
     <t xml:space="preserve">Best holiday inn I have ever stayed at. Friendly staff and beautiful property. Will Stay here anytime I visit Denton. </t>
   </si>
   <si>
+    <t>James G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r121803545-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2066,6 +2324,9 @@
     <t>The hotel staff are great.  Friendly, accommodating and met all our needs.  A super place for a meeting or just to stay.  I highly recommend them.  Check them out.  We will stay there again.More</t>
   </si>
   <si>
+    <t>Judy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r121681887-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2087,6 +2348,9 @@
     <t>This is a great place to have a large dinner party.  The hotel is very attractive, and the staff is  extremely friendly and accommodating.    Thanks, Donna Munoz , for your cheerfulness and willingness to make our evening a success.  The only problem was the lack of gravy and cranberry sauce on each table, but this could have been due to time constraints.  There was not much time to set up for our party due to a prior party.  Despite this glich, the food was  good.More</t>
   </si>
   <si>
+    <t>Nick483</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r121677468-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2102,6 +2366,9 @@
     <t>We held our business Christmas event at the Holiday Inn and it was a total success.  The food was great and the staff was excellent.  Keith, Amber, Donna &amp; Chef took care of every detail - right down to the decorations.  Our group had a wonderful evening and everyone was impressed.  We look forward to holding events there in the future!More</t>
   </si>
   <si>
+    <t>Oscarik</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r120573423-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2126,6 +2393,9 @@
     <t>This place has friendly staff and is efficient. I chose it because it has a pool and small gym. My room was bright and clean. It is just 20 mins walk to Denton from here. Breakfast is a either Buffet or a la carte and is a well presented , I had no problems sleeping and the bed and pillows were great. It has a friendly bar and is just a nice place to stay.More</t>
   </si>
   <si>
+    <t>TRM06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r119914893-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2153,6 +2423,9 @@
     <t>My husband and I stayed in the jacuzzi suite and the room was great. It was large and very modern. The bed and pillows were comfortable, but the downfall was there was no comforter, which was a big disappointment. I didn't ask if there was one, so I don't know if they're available, but I've never stayed in a hotel that didn't have one already in the room. The bathroom was also large and the jacuzzi was great, and very relaxing. The staff was also very friendly and helpful. We were on the first floor and there was a family above us who decided to allow their children to run around their room til almost midnight, and they were extremely noisy. I called the front desk and they took care of the issue within a matter of minutes. I didn't have lunch or dinner in the restaurant but the breakfast was very good. It is also in a great location. We stayed for an event that was near by and will definitely be staying again for the event next year and trying to block out rooms for our party. We'll probably go back before that just to get away for the weekend. And if you need internet, the connection was very fast.More</t>
   </si>
   <si>
+    <t>ElPasoEducator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r119146994-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2171,6 +2444,9 @@
     <t>First impression of the hotel is updated, modern, maybe even luxurious, however this deteriorates quickly as soon as you recline on the bed. Beds are hard, unforgiving, and uncomfortable industrial beds common to many less expensive hotels. The linens are average, not soft or plush. No comforter on the bed or down (or down alternative) duvet common in better hotels. Pillows were labeled as "soft" but were anything but! They felt like they were filled with foam rubber pieces, lumpy and unyielding. I have stayed in the Best Western Premier in Denton as well as the Hilton Garden -- both hotels far surpass the quality, lack there of, found in the Holiday Inn and Suites.More</t>
   </si>
   <si>
+    <t>wjm150030</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r117516939-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2198,6 +2474,9 @@
     <t>There was no blanket on my bed, just two sheets....the bottom one was a regular sheet and the top one was more decorative and made of some sort of synthetic...not warm. I called to have a blanket delivered and what did they bring me? Another of those flimsy toppers! I couldn't believe this was all they offered, so I called the front desk again and asked to be shown another room and, sure enough, there were the same two thin sheets on both beds. This is unacceptable!Last night I stayed at the Holiday Inn &amp; Suites in Round Rock. They had the EXACT SAME topper and in between it and the sheet was a nice, cozy comforter. That goes to show that the Denton location should have the same. Why don't they? Cutting corners, perhaps? Did they just forget? Either way it doesn't look good.Besides this issue and terribly sloooooooow internet, it was a nice facility, but I can't give a good rating to a hotel that requires me to bring my own blanket.More</t>
   </si>
   <si>
+    <t>ne14monet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r116278314-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2225,6 +2504,9 @@
     <t>Clean.  Spacious room.  Great service by friendly people.  Free shuttle service for 5 mile radius, which we used to eat at a local restaurant at the Courthouse Square area.   Pool and whirlpool were clean.More</t>
   </si>
   <si>
+    <t>jamish2007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r116042029-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2249,6 +2531,9 @@
     <t>Comfortable, clean, well maintained hotel near UNT, on a side road to shield from highway noise. Wonderful beds, great AC in room. Excellent housekeeping staff, very gracious as well. Rooms were perfectly appointed. Fitness machines were in great condition and the fitness room was nicely appointed. Hallways and fitness room were not sufficiently cooled. Free Internet signal was poor. Would stay again.More</t>
   </si>
   <si>
+    <t>RocketMan87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r110302314-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2270,6 +2555,9 @@
     <t>I only have positive things to say about this place. I attended a conference at the local university and therefore received a rate of $85 a night plus taxes, so it was a good deal. This Holiday Inn is well presented throughout. The foyer is lovely, elevators are clean and modern, hallways are tidy and like new, and most importantly, the rooms were also like new and well appointed for the price. There is a small fridge, iron, coffee maker, free wireless (although a bit slow), plenty of car parking and good airconditioning (allbeit a bit loud). The staff were excellent, very courteous and professional. Checkin was ultra-fast. The only slightly bad thing is the location. It's not that far away from the highway, although you can't hear it, it's just not a nice location. Saying that, most of Denton is a bit of a dump, so you won't find too many places with a better location.All in all, I would happily recommend this place to friends and family, especially if you can get a good rate, and even without it, it still seems good value. In fact, I wish I could have stayed more than 3 days. This will be hard to beat without paying 150+.More</t>
   </si>
   <si>
+    <t>Wisinho</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r105398089-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2286,6 +2574,9 @@
   </si>
   <si>
     <t>April 2011</t>
+  </si>
+  <si>
+    <t>hotelreviewer333</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r101641677-SpringHill_Suites_Denton-Denton_Texas.html</t>
@@ -2318,6 +2609,9 @@
 The upper floors were fine and the quality of...I stayed here on business fall 2010 and had a very positive experience with the exception of extremely slow internet which I wrote about in a previous review. I came back for a night on business and found the same issues with the very slow internet again - this is for wifi, hard wired connection in the room, and in the computers in the business center. I gave the hotel an overall positive review last time, but am not extending that to this recent stay.  The issue was not addressed and it's unacceptable for six months to go by with the same situation. This is terribly inconvenient for people like me traveling on business who need at least a semi-decent connection to get work done. Additionally, the hotel experienced some type of flood on its ground floor.  The front desk had been relocated to a large conference table in the lobby, and there was wallpaper peeled up from just about the floor throughout most of the first floor.  Looked very unsightly, and there was no work that I could see to address the situation. I would imagine that once work begins the first floor will be pretty torn up in spots.   You would also think they would be proactive and mention this on their website, to at least expect things to be out of place and an expected date of completion. The upper floors were fine and the quality of the bed and sleep experience was again very, very good, and this Holiday Inn has one of the more modern decor schemes you will find. If you can live without internet, or at least decently functioning service, you'll probably enjoy your stay, unless construction really disrupts the main floor fixing the flood damage.More</t>
   </si>
   <si>
+    <t>JebGarland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r92116649-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2363,6 +2657,9 @@
     <t>I really liked this Holiday Inn - it is very modern with a unique, upscale and cutting-edge design that will completely change your view of  a Holiday Inn if  you have not stayed in one in a while.  Very clean and comfortable. My platinum status garnered an upgrade to a suite that had a full kitchen (no oven) and reminded me of Staybridge Suites, their sister property.This hotel is not hard to find - off the Teasley Rd. exit of I-35 on a quiet street just down the street from a Hampton Inn.  5 minutes to UNT and far enough off of 35 that you hear absolutely no highway noise. I would stay here again - if they can get their Internet situation straightened out.  The wireless was useless anywhere in the hotel, and even the plug-in "high speed" connection in the room was very slow, circa 1990 or something, and the computers in the hotel business center were just as slow.  Business travelers take note of this if you have a lot of work to do using the internet or checking email.More</t>
   </si>
   <si>
+    <t>drmx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r66420179-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2381,6 +2678,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>Antimagellan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r45725186-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2402,6 +2702,9 @@
     <t>My daughter and I stayed two nights for UNT's Parents Weekend. The Hotel was clean and reasonably comfortable, but less than I expected.  It's a fairly new hotel with plenty of parking - there was also a gray fox hanging out in the parking lot the first night we stayed. Finding the hotel wasn't a problem, but ONLY because my GPS led me right to it. It is near UNT and on a short road just off the freeway so access was ok. This is not a Holiday Inn Express, so no free breakfast or newspaper. There was decent free coffee (Starbucks brew) in the room. The room was in good shape. There was a microwave and a small fridge. The TV had premium cable but no pay channels. There was a cable internet connection in the room. The bathroom was bright and clean with a curved shower curtain that had a clear panel across the top. The bathroom clothes hook was broken. There were plenty of towels, blankets, and pillows. I didn't like the pillows, they're square (not rectangular) and, while they had labels "soft" and "firm", they were all firm. On Saturday the maid made the beds and left new towels. I assume she cleaned, but she did not replenish the bathroom supplies and missed that we were nearly out of toilet paper. Bottom line: it's an adequate hotel, probably nicer than average for Denton but, for the...My daughter and I stayed two nights for UNT's Parents Weekend. The Hotel was clean and reasonably comfortable, but less than I expected.  It's a fairly new hotel with plenty of parking - there was also a gray fox hanging out in the parking lot the first night we stayed. Finding the hotel wasn't a problem, but ONLY because my GPS led me right to it. It is near UNT and on a short road just off the freeway so access was ok. This is not a Holiday Inn Express, so no free breakfast or newspaper. There was decent free coffee (Starbucks brew) in the room. The room was in good shape. There was a microwave and a small fridge. The TV had premium cable but no pay channels. There was a cable internet connection in the room. The bathroom was bright and clean with a curved shower curtain that had a clear panel across the top. The bathroom clothes hook was broken. There were plenty of towels, blankets, and pillows. I didn't like the pillows, they're square (not rectangular) and, while they had labels "soft" and "firm", they were all firm. On Saturday the maid made the beds and left new towels. I assume she cleaned, but she did not replenish the bathroom supplies and missed that we were nearly out of toilet paper. Bottom line: it's an adequate hotel, probably nicer than average for Denton but, for the price and being a Holiday Inn, I expected more.More</t>
   </si>
   <si>
+    <t>texman77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r42225627-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2420,6 +2723,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>TERPSD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r38964575-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2438,6 +2744,9 @@
     <t>Very good hotel.  The best Holiday Inn Express &amp; Suites that I've stayed at.  Reflects very well what Holiday Inn is doing with their multi-million dollar upgrade plan.  Set back well from the 35E highway, so it's very quiet.  Nice bar and breakfast area.  Reasonable rates.  Van shuttle available.  My wife used it to get to and from University of North Texas when I was elsewhere with the rental car one day.  Only concern I had was that the trash can outside the side entry door didn't get emptied once during the three days I was there and was still smelling when I left.  Not the best impression when you arrive.More</t>
   </si>
   <si>
+    <t>micha74b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r19395655-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2456,6 +2765,9 @@
     <t>August 2008</t>
   </si>
   <si>
+    <t>gunnercade</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r15621770-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2474,6 +2786,9 @@
     <t>April 2008</t>
   </si>
   <si>
+    <t>tiffny111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r15504501-SpringHill_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2487,6 +2802,9 @@
   </si>
   <si>
     <t>This is a great hotel.  It is brand new and very clean.  This is a full service Holiday Inn not an express.  The rooms were new and clean with very modern decor.  The beds were very very comfortable and full of comfy pillows.  Since my husband and I are Priortity Club members, we were upgraded to a suite!</t>
+  </si>
+  <si>
+    <t>MMitchell29</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d640110-r7712823-SpringHill_Suites_Denton-Denton_Texas.html</t>
@@ -3012,43 +3330,47 @@
       <c r="A2" t="n">
         <v>53944</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177770</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3060,56 +3382,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>53944</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177771</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3123,50 +3449,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>53944</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>42864</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -3184,56 +3514,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>53944</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177772</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3253,50 +3587,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>53944</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177773</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3310,50 +3648,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>53944</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177774</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3367,50 +3709,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>53944</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177775</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3424,50 +3770,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>53944</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177776</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3487,50 +3837,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>53944</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>39699</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -3546,56 +3900,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>53944</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177777</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3609,50 +3967,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>53944</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177778</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3664,56 +4026,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>53944</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>128073</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>125</v>
       </c>
-      <c r="J13" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>115</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3731,50 +4097,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>53944</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>177779</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3788,50 +4158,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>53944</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177780</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3849,41 +4223,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>53944</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>47462</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -3902,50 +4280,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>53944</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>12568</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3957,56 +4339,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>53944</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>177781</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -4024,50 +4410,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>53944</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>9508</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4081,50 +4471,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>53944</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>177782</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4136,56 +4530,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>53944</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>87654</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
         <v>180</v>
       </c>
-      <c r="K21" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" t="s">
-        <v>182</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>163</v>
-      </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4203,50 +4601,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>53944</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177783</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4264,50 +4666,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>53944</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177784</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4327,50 +4733,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>53944</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177785</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4388,56 +4798,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="X24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>53944</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>177786</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4455,56 +4869,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="X25" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>53944</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>177771</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4522,56 +4940,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="X26" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>53944</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>5511</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4587,56 +5009,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="X27" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="Y27" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>53944</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>3370</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4648,56 +5074,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="X28" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="Y28" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>53944</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>92145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4713,56 +5143,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="X29" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>53944</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177787</v>
+      </c>
+      <c r="C30" t="s">
+        <v>268</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4780,50 +5214,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>53944</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>76485</v>
+      </c>
+      <c r="C31" t="s">
+        <v>276</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4841,56 +5279,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="X31" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>53944</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>79187</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -4908,56 +5350,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="X32" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>53944</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>177788</v>
+      </c>
+      <c r="C33" t="s">
+        <v>295</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="O33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4977,50 +5423,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>53944</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>177789</v>
+      </c>
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="J34" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5040,50 +5490,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>53944</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>177790</v>
+      </c>
+      <c r="C35" t="s">
+        <v>308</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5103,50 +5557,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>53944</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>177791</v>
+      </c>
+      <c r="C36" t="s">
+        <v>316</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -5166,50 +5624,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>53944</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>95016</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5227,50 +5689,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>53944</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>8909</v>
+      </c>
+      <c r="C38" t="s">
+        <v>328</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5290,50 +5756,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>53944</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177792</v>
+      </c>
+      <c r="C39" t="s">
+        <v>335</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="J39" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="K39" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5347,50 +5817,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>53944</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>177793</v>
+      </c>
+      <c r="C40" t="s">
+        <v>341</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="J40" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="K40" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="O40" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -5410,50 +5884,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>53944</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177794</v>
+      </c>
+      <c r="C41" t="s">
+        <v>348</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="J41" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5473,50 +5951,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>53944</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177795</v>
+      </c>
+      <c r="C42" t="s">
+        <v>356</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="J42" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="K42" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5534,50 +6016,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>53944</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>2327</v>
+      </c>
+      <c r="C43" t="s">
+        <v>364</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="J43" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5595,50 +6081,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>53944</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>177796</v>
+      </c>
+      <c r="C44" t="s">
+        <v>371</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="J44" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="K44" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5652,50 +6142,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>53944</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>177797</v>
+      </c>
+      <c r="C45" t="s">
+        <v>377</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="J45" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="K45" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="O45" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5713,50 +6207,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>53944</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>177798</v>
+      </c>
+      <c r="C46" t="s">
+        <v>384</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="J46" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="K46" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="L46" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="O46" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5776,50 +6274,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>53944</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>177799</v>
+      </c>
+      <c r="C47" t="s">
+        <v>391</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="J47" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="K47" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="O47" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5833,41 +6335,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>53944</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>11167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>398</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="J48" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="K48" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -5886,50 +6392,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>53944</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>177800</v>
+      </c>
+      <c r="C49" t="s">
+        <v>405</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="J49" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="K49" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="O49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5947,56 +6457,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="X49" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="Y49" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>53944</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>16053</v>
+      </c>
+      <c r="C50" t="s">
+        <v>415</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="J50" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="K50" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="L50" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6014,56 +6528,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="X50" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="Y50" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>53944</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>177801</v>
+      </c>
+      <c r="C51" t="s">
+        <v>425</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="J51" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="K51" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="L51" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="O51" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6079,56 +6597,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="X51" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="Y51" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>53944</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>177802</v>
+      </c>
+      <c r="C52" t="s">
+        <v>435</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="J52" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="K52" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="L52" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6140,56 +6662,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="X52" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="Y52" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>53944</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>177803</v>
+      </c>
+      <c r="C53" t="s">
+        <v>441</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="J53" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="K53" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="L53" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6203,56 +6729,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="X53" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="Y53" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53944</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>40712</v>
+      </c>
+      <c r="C54" t="s">
+        <v>451</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="J54" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="K54" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="L54" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="O54" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6268,56 +6798,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="X54" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="Y54" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>53944</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>177804</v>
+      </c>
+      <c r="C55" t="s">
+        <v>458</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="J55" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="K55" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="L55" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="O55" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6333,47 +6867,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="X55" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="Y55" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>53944</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>177805</v>
+      </c>
+      <c r="C56" t="s">
+        <v>468</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="J56" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="K56" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -6390,56 +6928,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="X56" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="Y56" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>53944</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>177806</v>
+      </c>
+      <c r="C57" t="s">
+        <v>477</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="J57" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="L57" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6451,56 +6993,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="X57" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="Y57" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>53944</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>177807</v>
+      </c>
+      <c r="C58" t="s">
+        <v>487</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="J58" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="K58" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="L58" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6512,56 +7058,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="X58" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="Y58" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>53944</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>177802</v>
+      </c>
+      <c r="C59" t="s">
+        <v>441</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="J59" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="K59" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="L59" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6577,56 +7127,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="X59" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="Y59" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>53944</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>177808</v>
+      </c>
+      <c r="C60" t="s">
+        <v>505</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="J60" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="K60" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="L60" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6644,56 +7198,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="X60" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="Y60" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>53944</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>177809</v>
+      </c>
+      <c r="C61" t="s">
+        <v>514</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="J61" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="K61" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="L61" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="O61" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6709,56 +7267,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="X61" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="Y61" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>53944</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>177810</v>
+      </c>
+      <c r="C62" t="s">
+        <v>524</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="J62" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="K62" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="L62" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6776,56 +7338,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="X62" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="Y62" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>53944</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>177811</v>
+      </c>
+      <c r="C63" t="s">
+        <v>534</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="J63" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="K63" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="L63" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -6843,56 +7409,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="X63" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="Y63" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>53944</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177812</v>
+      </c>
+      <c r="C64" t="s">
+        <v>544</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="J64" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="K64" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="L64" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="O64" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6912,50 +7482,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>53944</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>177813</v>
+      </c>
+      <c r="C65" t="s">
+        <v>552</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="J65" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="K65" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="L65" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="O65" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6979,50 +7553,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>53944</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>177814</v>
+      </c>
+      <c r="C66" t="s">
+        <v>559</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="J66" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="K66" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="L66" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7042,50 +7620,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>53944</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>177815</v>
+      </c>
+      <c r="C67" t="s">
+        <v>565</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="J67" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="K67" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="L67" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="O67" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -7105,41 +7687,45 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>53944</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>3062</v>
+      </c>
+      <c r="C68" t="s">
+        <v>571</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="J68" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="K68" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="L68" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
@@ -7156,56 +7742,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="X68" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="Y68" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>53944</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>48762</v>
+      </c>
+      <c r="C69" t="s">
+        <v>580</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="J69" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="K69" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="L69" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="O69" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7221,56 +7811,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="X69" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="Y69" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>53944</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>177816</v>
+      </c>
+      <c r="C70" t="s">
+        <v>590</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="J70" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="K70" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="L70" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="O70" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7292,56 +7886,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
       <c r="X70" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="Y70" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>53944</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>177817</v>
+      </c>
+      <c r="C71" t="s">
+        <v>600</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="J71" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="K71" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="L71" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="O71" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7363,56 +7961,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="X71" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="Y71" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>53944</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>12551</v>
+      </c>
+      <c r="C72" t="s">
+        <v>610</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="J72" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="K72" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="L72" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7434,56 +8036,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="X72" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="Y72" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>53944</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177818</v>
+      </c>
+      <c r="C73" t="s">
+        <v>618</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="J73" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
       <c r="K73" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="L73" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="O73" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7505,56 +8111,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="X73" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="Y73" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>53944</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>177819</v>
+      </c>
+      <c r="C74" t="s">
+        <v>628</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
       <c r="J74" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="K74" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="L74" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="O74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7576,56 +8186,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="X74" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="Y74" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>53944</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>177820</v>
+      </c>
+      <c r="C75" t="s">
+        <v>638</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="J75" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="K75" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="L75" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7647,56 +8261,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="X75" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="Y75" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>53944</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>67135</v>
+      </c>
+      <c r="C76" t="s">
+        <v>647</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="J76" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="K76" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="L76" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="O76" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7720,50 +8338,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>53944</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>25577</v>
+      </c>
+      <c r="C77" t="s">
+        <v>654</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="J77" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="K77" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="L77" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="O77" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7787,50 +8409,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>53944</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>7541</v>
+      </c>
+      <c r="C78" t="s">
+        <v>661</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="J78" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="K78" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="L78" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="O78" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7852,56 +8478,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
       <c r="X78" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
       <c r="Y78" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>53944</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>99225</v>
+      </c>
+      <c r="C79" t="s">
+        <v>670</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="J79" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="K79" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="L79" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="O79" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7923,56 +8553,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>601</v>
+        <v>677</v>
       </c>
       <c r="X79" t="s">
-        <v>602</v>
+        <v>678</v>
       </c>
       <c r="Y79" t="s">
-        <v>603</v>
+        <v>679</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>53944</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>74120</v>
+      </c>
+      <c r="C80" t="s">
+        <v>680</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
       <c r="J80" t="s">
-        <v>606</v>
+        <v>683</v>
       </c>
       <c r="K80" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="L80" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="O80" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7996,50 +8630,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>53944</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>177821</v>
+      </c>
+      <c r="C81" t="s">
+        <v>687</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="J81" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="K81" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
       <c r="L81" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="O81" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8063,50 +8701,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>53944</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>177822</v>
+      </c>
+      <c r="C82" t="s">
+        <v>694</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>616</v>
+        <v>695</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="J82" t="s">
-        <v>618</v>
+        <v>697</v>
       </c>
       <c r="K82" t="s">
-        <v>619</v>
+        <v>698</v>
       </c>
       <c r="L82" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="O82" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -8130,50 +8772,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>53944</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>102484</v>
+      </c>
+      <c r="C83" t="s">
+        <v>700</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
       <c r="J83" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
       <c r="K83" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="L83" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8187,50 +8833,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>53944</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C84" t="s">
+        <v>707</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="J84" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="K84" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="L84" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="O84" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -8242,56 +8892,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="X84" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="Y84" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>53944</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>3553</v>
+      </c>
+      <c r="C85" t="s">
+        <v>717</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="J85" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="K85" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="L85" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="O85" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8315,50 +8969,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>53944</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>177823</v>
+      </c>
+      <c r="C86" t="s">
+        <v>724</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="J86" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="K86" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="L86" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8382,41 +9040,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>648</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>53944</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>177824</v>
+      </c>
+      <c r="C87" t="s">
+        <v>732</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>649</v>
+        <v>733</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>650</v>
+        <v>734</v>
       </c>
       <c r="J87" t="s">
-        <v>651</v>
+        <v>735</v>
       </c>
       <c r="K87" t="s">
-        <v>652</v>
+        <v>736</v>
       </c>
       <c r="L87" t="s">
-        <v>653</v>
+        <v>737</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
@@ -8435,41 +9097,45 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>653</v>
+        <v>737</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>53944</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>177825</v>
+      </c>
+      <c r="C88" t="s">
+        <v>738</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>654</v>
+        <v>739</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>655</v>
+        <v>740</v>
       </c>
       <c r="J88" t="s">
-        <v>656</v>
+        <v>741</v>
       </c>
       <c r="K88" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="L88" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
@@ -8498,50 +9164,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>53944</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>7909</v>
+      </c>
+      <c r="C89" t="s">
+        <v>744</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>659</v>
+        <v>745</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>660</v>
+        <v>746</v>
       </c>
       <c r="J89" t="s">
-        <v>661</v>
+        <v>747</v>
       </c>
       <c r="K89" t="s">
-        <v>662</v>
+        <v>748</v>
       </c>
       <c r="L89" t="s">
-        <v>663</v>
+        <v>749</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>664</v>
+        <v>750</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8563,56 +9233,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>665</v>
+        <v>751</v>
       </c>
       <c r="X89" t="s">
-        <v>666</v>
+        <v>752</v>
       </c>
       <c r="Y89" t="s">
-        <v>667</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>53944</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>16829</v>
+      </c>
+      <c r="C90" t="s">
+        <v>754</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>668</v>
+        <v>755</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>669</v>
+        <v>756</v>
       </c>
       <c r="J90" t="s">
-        <v>670</v>
+        <v>757</v>
       </c>
       <c r="K90" t="s">
-        <v>671</v>
+        <v>758</v>
       </c>
       <c r="L90" t="s">
-        <v>672</v>
+        <v>759</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>673</v>
+        <v>760</v>
       </c>
       <c r="O90" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8632,56 +9306,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>665</v>
+        <v>751</v>
       </c>
       <c r="X90" t="s">
-        <v>666</v>
+        <v>752</v>
       </c>
       <c r="Y90" t="s">
-        <v>674</v>
+        <v>761</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>53944</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>177826</v>
+      </c>
+      <c r="C91" t="s">
+        <v>762</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>675</v>
+        <v>763</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>676</v>
+        <v>764</v>
       </c>
       <c r="J91" t="s">
-        <v>670</v>
+        <v>757</v>
       </c>
       <c r="K91" t="s">
-        <v>677</v>
+        <v>765</v>
       </c>
       <c r="L91" t="s">
-        <v>678</v>
+        <v>766</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>673</v>
+        <v>760</v>
       </c>
       <c r="O91" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8699,56 +9377,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>665</v>
+        <v>751</v>
       </c>
       <c r="X91" t="s">
-        <v>666</v>
+        <v>752</v>
       </c>
       <c r="Y91" t="s">
-        <v>679</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>53944</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>177827</v>
+      </c>
+      <c r="C92" t="s">
+        <v>768</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>680</v>
+        <v>769</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>681</v>
+        <v>770</v>
       </c>
       <c r="J92" t="s">
-        <v>682</v>
+        <v>771</v>
       </c>
       <c r="K92" t="s">
-        <v>683</v>
+        <v>772</v>
       </c>
       <c r="L92" t="s">
-        <v>684</v>
+        <v>773</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>664</v>
+        <v>750</v>
       </c>
       <c r="O92" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8770,56 +9452,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>685</v>
+        <v>774</v>
       </c>
       <c r="X92" t="s">
-        <v>686</v>
+        <v>775</v>
       </c>
       <c r="Y92" t="s">
-        <v>687</v>
+        <v>776</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>53944</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>177828</v>
+      </c>
+      <c r="C93" t="s">
+        <v>777</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="J93" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="K93" t="s">
-        <v>691</v>
+        <v>781</v>
       </c>
       <c r="L93" t="s">
-        <v>692</v>
+        <v>782</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>693</v>
+        <v>783</v>
       </c>
       <c r="O93" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8841,56 +9527,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="X93" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="Y93" t="s">
-        <v>696</v>
+        <v>786</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>53944</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>177829</v>
+      </c>
+      <c r="C94" t="s">
+        <v>787</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>697</v>
+        <v>788</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>698</v>
+        <v>789</v>
       </c>
       <c r="J94" t="s">
-        <v>699</v>
+        <v>790</v>
       </c>
       <c r="K94" t="s">
-        <v>700</v>
+        <v>791</v>
       </c>
       <c r="L94" t="s">
-        <v>701</v>
+        <v>792</v>
       </c>
       <c r="M94" t="n">
         <v>2</v>
       </c>
       <c r="N94" t="s">
-        <v>693</v>
+        <v>783</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>2</v>
@@ -8912,56 +9602,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
       <c r="X94" t="s">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="Y94" t="s">
-        <v>702</v>
+        <v>793</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>53944</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>177830</v>
+      </c>
+      <c r="C95" t="s">
+        <v>794</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>703</v>
+        <v>795</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>704</v>
+        <v>796</v>
       </c>
       <c r="J95" t="s">
-        <v>705</v>
+        <v>797</v>
       </c>
       <c r="K95" t="s">
-        <v>706</v>
+        <v>798</v>
       </c>
       <c r="L95" t="s">
-        <v>707</v>
+        <v>799</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>708</v>
+        <v>800</v>
       </c>
       <c r="O95" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -8973,56 +9667,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>709</v>
+        <v>801</v>
       </c>
       <c r="X95" t="s">
-        <v>710</v>
+        <v>802</v>
       </c>
       <c r="Y95" t="s">
-        <v>711</v>
+        <v>803</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>53944</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>177831</v>
+      </c>
+      <c r="C96" t="s">
+        <v>804</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>712</v>
+        <v>805</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>713</v>
+        <v>806</v>
       </c>
       <c r="J96" t="s">
-        <v>714</v>
+        <v>807</v>
       </c>
       <c r="K96" t="s">
-        <v>715</v>
+        <v>808</v>
       </c>
       <c r="L96" t="s">
-        <v>716</v>
+        <v>809</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>717</v>
+        <v>810</v>
       </c>
       <c r="O96" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9040,47 +9738,51 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>718</v>
+        <v>811</v>
       </c>
       <c r="X96" t="s">
-        <v>719</v>
+        <v>812</v>
       </c>
       <c r="Y96" t="s">
-        <v>720</v>
+        <v>813</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>53944</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>22347</v>
+      </c>
+      <c r="C97" t="s">
+        <v>814</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>722</v>
+        <v>816</v>
       </c>
       <c r="J97" t="s">
-        <v>723</v>
+        <v>817</v>
       </c>
       <c r="K97" t="s">
-        <v>724</v>
+        <v>818</v>
       </c>
       <c r="L97" t="s">
-        <v>725</v>
+        <v>819</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
@@ -9107,56 +9809,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>726</v>
+        <v>820</v>
       </c>
       <c r="X97" t="s">
-        <v>727</v>
+        <v>821</v>
       </c>
       <c r="Y97" t="s">
-        <v>728</v>
+        <v>822</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>53944</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>177832</v>
+      </c>
+      <c r="C98" t="s">
+        <v>823</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>729</v>
+        <v>824</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>730</v>
+        <v>825</v>
       </c>
       <c r="J98" t="s">
-        <v>731</v>
+        <v>826</v>
       </c>
       <c r="K98" t="s">
-        <v>732</v>
+        <v>827</v>
       </c>
       <c r="L98" t="s">
-        <v>733</v>
+        <v>828</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>734</v>
+        <v>829</v>
       </c>
       <c r="O98" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9180,50 +9886,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>735</v>
+        <v>830</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>53944</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>177833</v>
+      </c>
+      <c r="C99" t="s">
+        <v>831</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>736</v>
+        <v>832</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>737</v>
+        <v>833</v>
       </c>
       <c r="J99" t="s">
-        <v>738</v>
+        <v>834</v>
       </c>
       <c r="K99" t="s">
-        <v>739</v>
+        <v>835</v>
       </c>
       <c r="L99" t="s">
-        <v>740</v>
+        <v>836</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>741</v>
+        <v>837</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>2</v>
@@ -9247,50 +9957,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>740</v>
+        <v>836</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>53944</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>37147</v>
+      </c>
+      <c r="C100" t="s">
+        <v>838</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>742</v>
+        <v>839</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>743</v>
+        <v>840</v>
       </c>
       <c r="J100" t="s">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="K100" t="s">
-        <v>745</v>
+        <v>842</v>
       </c>
       <c r="L100" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>708</v>
+        <v>800</v>
       </c>
       <c r="O100" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9312,56 +10026,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>747</v>
+        <v>844</v>
       </c>
       <c r="X100" t="s">
-        <v>748</v>
+        <v>845</v>
       </c>
       <c r="Y100" t="s">
-        <v>749</v>
+        <v>846</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>53944</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>177834</v>
+      </c>
+      <c r="C101" t="s">
+        <v>847</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>750</v>
+        <v>848</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>751</v>
+        <v>849</v>
       </c>
       <c r="J101" t="s">
-        <v>752</v>
+        <v>850</v>
       </c>
       <c r="K101" t="s">
-        <v>753</v>
+        <v>851</v>
       </c>
       <c r="L101" t="s">
-        <v>754</v>
+        <v>852</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>755</v>
+        <v>853</v>
       </c>
       <c r="O101" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9385,50 +10103,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>754</v>
+        <v>852</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>53944</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>37147</v>
+      </c>
+      <c r="C102" t="s">
+        <v>838</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>756</v>
+        <v>854</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>757</v>
+        <v>855</v>
       </c>
       <c r="J102" t="s">
-        <v>758</v>
+        <v>856</v>
       </c>
       <c r="K102" t="s">
-        <v>759</v>
+        <v>857</v>
       </c>
       <c r="L102" t="s">
-        <v>760</v>
+        <v>858</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>761</v>
+        <v>859</v>
       </c>
       <c r="O102" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9450,56 +10172,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>762</v>
+        <v>860</v>
       </c>
       <c r="X102" t="s">
-        <v>763</v>
+        <v>861</v>
       </c>
       <c r="Y102" t="s">
-        <v>764</v>
+        <v>862</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>53944</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>177835</v>
+      </c>
+      <c r="C103" t="s">
+        <v>863</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>765</v>
+        <v>864</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>766</v>
+        <v>865</v>
       </c>
       <c r="J103" t="s">
-        <v>767</v>
+        <v>866</v>
       </c>
       <c r="K103" t="s">
-        <v>768</v>
+        <v>867</v>
       </c>
       <c r="L103" t="s">
-        <v>769</v>
+        <v>868</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>770</v>
+        <v>869</v>
       </c>
       <c r="O103" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9523,50 +10249,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>769</v>
+        <v>868</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>53944</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>177836</v>
+      </c>
+      <c r="C104" t="s">
+        <v>870</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>771</v>
+        <v>871</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>772</v>
+        <v>872</v>
       </c>
       <c r="J104" t="s">
-        <v>773</v>
+        <v>873</v>
       </c>
       <c r="K104" t="s">
-        <v>774</v>
+        <v>874</v>
       </c>
       <c r="L104" t="s">
-        <v>775</v>
+        <v>875</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>776</v>
+        <v>876</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -9590,50 +10320,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>777</v>
+        <v>877</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>53944</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>177837</v>
+      </c>
+      <c r="C105" t="s">
+        <v>878</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>778</v>
+        <v>879</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>779</v>
+        <v>880</v>
       </c>
       <c r="J105" t="s">
-        <v>780</v>
+        <v>881</v>
       </c>
       <c r="K105" t="s">
-        <v>781</v>
+        <v>882</v>
       </c>
       <c r="L105" t="s">
-        <v>782</v>
+        <v>883</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>783</v>
+        <v>884</v>
       </c>
       <c r="O105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="s"/>
@@ -9647,50 +10381,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>782</v>
+        <v>883</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>53944</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>177838</v>
+      </c>
+      <c r="C106" t="s">
+        <v>885</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>784</v>
+        <v>886</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>785</v>
+        <v>887</v>
       </c>
       <c r="J106" t="s">
-        <v>786</v>
+        <v>888</v>
       </c>
       <c r="K106" t="s">
-        <v>787</v>
+        <v>889</v>
       </c>
       <c r="L106" t="s">
-        <v>788</v>
+        <v>890</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>783</v>
+        <v>884</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9714,50 +10452,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>789</v>
+        <v>891</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>53944</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>177839</v>
+      </c>
+      <c r="C107" t="s">
+        <v>892</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>790</v>
+        <v>893</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>791</v>
+        <v>894</v>
       </c>
       <c r="J107" t="s">
-        <v>792</v>
+        <v>895</v>
       </c>
       <c r="K107" t="s">
-        <v>793</v>
+        <v>896</v>
       </c>
       <c r="L107" t="s">
-        <v>794</v>
+        <v>897</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>795</v>
+        <v>898</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9781,50 +10523,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>794</v>
+        <v>897</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>53944</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>177840</v>
+      </c>
+      <c r="C108" t="s">
+        <v>899</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>796</v>
+        <v>900</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>797</v>
+        <v>901</v>
       </c>
       <c r="J108" t="s">
-        <v>798</v>
+        <v>902</v>
       </c>
       <c r="K108" t="s">
-        <v>799</v>
+        <v>903</v>
       </c>
       <c r="L108" t="s">
-        <v>800</v>
+        <v>904</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>801</v>
+        <v>905</v>
       </c>
       <c r="O108" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P108" t="n">
         <v>3</v>
@@ -9848,50 +10594,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>800</v>
+        <v>904</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>53944</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>177841</v>
+      </c>
+      <c r="C109" t="s">
+        <v>906</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>802</v>
+        <v>907</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>803</v>
+        <v>908</v>
       </c>
       <c r="J109" t="s">
-        <v>804</v>
+        <v>909</v>
       </c>
       <c r="K109" t="s">
-        <v>805</v>
+        <v>910</v>
       </c>
       <c r="L109" t="s">
-        <v>806</v>
+        <v>911</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>801</v>
+        <v>905</v>
       </c>
       <c r="O109" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9913,50 +10663,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>806</v>
+        <v>911</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>53944</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>177842</v>
+      </c>
+      <c r="C110" t="s">
+        <v>912</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>807</v>
+        <v>913</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>808</v>
+        <v>914</v>
       </c>
       <c r="J110" t="s">
-        <v>809</v>
+        <v>915</v>
       </c>
       <c r="K110" t="s">
-        <v>810</v>
+        <v>916</v>
       </c>
       <c r="L110" t="s">
-        <v>811</v>
+        <v>917</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>812</v>
+        <v>918</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9980,7 +10734,7 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>813</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
